--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="395">
   <si>
     <t>Project</t>
   </si>
@@ -609,18 +609,12 @@
     <t>therapy-cd_tretinoin</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/cocktail.html</t>
-  </si>
-  <si>
     <t>therapy-cocktail</t>
   </si>
   <si>
     <t>エセリスカクテル注射</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/cocktaillift.html</t>
-  </si>
-  <si>
     <t>therapy-cocktaillift</t>
   </si>
   <si>
@@ -645,27 +639,18 @@
     <t>クマ</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/div.html</t>
-  </si>
-  <si>
     <t>therapy-div</t>
   </si>
   <si>
     <t>美容点滴・疲労回復点滴</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/doctor.html</t>
-  </si>
-  <si>
     <t>therapy-doctor</t>
   </si>
   <si>
     <t>ドクターコスメ（基礎化粧品）</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/eye_repair.html</t>
-  </si>
-  <si>
     <t>therapy-eye_repair</t>
   </si>
   <si>
@@ -681,18 +666,12 @@
     <t>まつ毛再生プログラム</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/fcgp.html</t>
-  </si>
-  <si>
     <t>therapy-fcgp</t>
   </si>
   <si>
     <t>新フロントアップカクテル・プレミアム注射</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/fleck.html</t>
-  </si>
-  <si>
     <t>therapy-fleck</t>
   </si>
   <si>
@@ -702,34 +681,22 @@
     <t>アンカー</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/frontup_cocktail.html</t>
-  </si>
-  <si>
     <t>therapy-frontup_cocktail</t>
   </si>
   <si>
     <t>フロントアップカクテル注射</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/hyalhiuronan.html</t>
-  </si>
-  <si>
     <t>therapy-hyalhiuronan</t>
   </si>
   <si>
     <t>ヒアルロン酸注入</t>
   </si>
   <si>
-    <t>http://www.slca-kobe.jp/therapy/liftup_cocktail.html</t>
-  </si>
-  <si>
     <t>therapy-liftup_cocktail</t>
   </si>
   <si>
     <t>リフトアップカクテル注射</t>
-  </si>
-  <si>
-    <t>http://www.slca-kobe.jp/therapy/lines.html</t>
   </si>
   <si>
     <t>therapy-lines</t>
@@ -1482,6 +1449,718 @@
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/cocktail.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・「エセリスカクテル注射とは・・・」を太字にする。
+・「症例数」に「2007年9月　～　2017年2月5日　1116人」が2つある。
+・「U様」「エセリスカクテル注射追加後　(2012年)」 と「エセリスカクテル注射追加後 （2009年） 」の写真と文章が逆
+・「R.S様」の写真の2段目と3段目 が逆。
+・「K様(50歳)」の（2009年） を改行する。
+・「N様(41歳)」、右と左の段差をなくす。
+ ・「モニター症例写真」 の「Y様(47歳)治療前」と「エセリスカクテル注入後11ヶ月」の文字が入る場所が違う。
+ ・「モニター症例写真」 の「Y様(47歳)治療前」と「エセリスカクテル注入後11ヶ月」の文字は、スマートフォンで表示したときに、全部の画像の下に表示させる。</t>
+    <rPh sb="19" eb="21">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウレイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ダンサ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/cocktaillift.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・「治療後どれくらいで効果が出ますか？　また、必要な治療回数は？」と「どれくらいの範囲に、何箇所くらい注射するのですか？」の入る位置が違う。
+・「※治療後の診察にお越しいただき、メイクを落としてカルテに残すための写真撮影をさせていただいた方には、化粧品のサンプルをプレゼントいたします。」を青字にする。
+・「料金」の　ライト(軽症用) 、メディアム(中等症用)、シビア（重症用） 　は、価格の前に移動する。
+ライト（軽症用）  70,000円
+メディアム（中等症用）  80,000円
+シビア（重症用） 90,000円</t>
+    <rPh sb="62" eb="63">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>ページが無い。</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/div.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・「美容点滴とは・・・　」は太字
+・アンカーを変更。Q&amp;Aを入れる。
+・「治療法の解説」のテーブルに線を入れる(class を当てる)
+・「点滴効果統計結果報告」のテーブルの下の画像と文章が無い。
+・「アンプル追加」に「円」がない。
+・「美容点滴」、「疲労回復」、「シンデレラ点滴」にClass を当てて、backgroud-color をつける。
+・「点滴・注射･･･」と「カウンセリング・・・」が逆。 arrow も１つ不要。
+・＜疲労回復＞　 の　＜　と ＞ は不要。 
+・テーブルに単位を入れる。
+例)
+平均回数
+→1回
+・「点滴回数券」の金額に カンマを入れる。
+例)
+3500円 →3,500円
+％
+→20％
+価格（円）
+→9,500円
+人数
+→205人</t>
+    <rPh sb="14" eb="16">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヒロウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>テンテキ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="283" eb="284">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="324" eb="325">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/doctor.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・テンプレートを 「デフォルト」にする。
+・タイトルの[詳細] を消す。
+・&lt;h4 style="WIDTH: ＊＊＊px"&gt;  の WIDTH の設定は全部削除。 画像は&lt;h4&gt; タグより下に配置する。
+・画像は全て左側
+・「4000～6000=1000引き 6000以上=2000引き 10000以上=3000引き」全て、円 表示。
+・「ケラスキンクリーム 7,000円」の下の文章が間違っている。
+・「アスタキサンチン美白エッセンス ￥7,000 →5,000」と「Dr.Shibata オリジナルマスクパック 1枚 \1,000」が逆
+・「プラセンタ原液 5,000円 →4,000円　(サンプル 1,000円)」の内容が違う。
+・「アンチエイジングセットは全部必要？」の内容が違う。
+・その他、間違いが多いので、全てを見直す。
+・円の後ろの「-」は不要。</t>
+    <rPh sb="33" eb="34">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="341" eb="343">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="362" eb="363">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="365" eb="367">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="371" eb="372">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="373" eb="374">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="380" eb="382">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/eye_repair.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・テンプレートをデフォルトに設定する。
+・タイトルの[詳細]を消す。
+・「Dr.Shibata Neigeシリーズ」から下、説明が全く違う。
+・太字は、Class を当てて CSSで太字にする。</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・太字はClassを当ててCSSで太字にする。
+・＜痛みの10段階評価＞の場所が違う
+・「治療後どれくらいで効果が出ますか？　また、必要な治療回数は？」の場所が違う。</t>
+    <rPh sb="1" eb="3">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フトジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・太字はClassを当ててCSSで太字にする。
+・ルミガンセットの下に画像がある。
+・「＊下の2枚の写真は塗布前後を横から見たものです。16週後にはまつ毛が濃く、太くなっています。」の下の画像が違う。
+・「点滴･･･」と「終了後・・・」の場所が逆。
+・「まつ毛再生プログラム5回コース（3ヶ月以内に受けていただきます）」の価格が違う。
+・「アンケートの結果」のリンク先が無い。</t>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/fcgp.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・「痛みはどれくらいですか？」　 がない。
+・「どんな効果が出ますか？　他の治療と比べてどうですか？」の順番が違う。
+・間違いが多すぎるので、全部を見直し。</t>
+    <rPh sb="52" eb="54">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/fleck.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・テンプレートを「デフォルト」に設定する。
+・タイトルの[詳細]を消す
+・太字はClassを当ててCSSで太字にする。
+・アンカーの ulタグにClass を設定 → &lt;ul class="list-line"&gt;
+・「＊メラニンが表皮基底層から上（角層側）に存在する場合は褐色に～～」の箇所の背景を灰色に変更する Class を当てる
+・--&gt; 　は不要。
+・&lt;h4 style="WIDTH: 350px"&gt; など、h4タグの WIDTH は全て不要。
+・h4 に 「：」は不要。</t>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/frontup_cocktail.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・太字はClassを当ててCSSで太字にする。
+・「痛みはどれくらいですか？　」の順番が違う</t>
+    <rPh sb="41" eb="43">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/hyalhiuronan.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>・太字はClassを当ててCSSで太字にする。
+・症例数 212人がない。
+・「モニター症例写真」がない
+・写真の順番が違う
+・「価格」ヒアルロン酸 の 0.1ml と 1本 を 金額の隣に移動。
+例)
+0.1ml  \ 10,000
+1本  \ 60,000</t>
+    <rPh sb="32" eb="33">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/lines.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">テーブルのデザイン
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>テーブルが複雑で問題あり！</t>
+    </r>
+    <rPh sb="15" eb="17">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/liftup_cocktail.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・太字はClassを当ててCSSで太字にする。
+・「治療後どれくらいで効果が出ますか？」の場所が違う。
+</t>
+    <rPh sb="45" eb="47">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・太字はClassを当ててCSSで太字にする。
+・「K様(50歳) 」が2回ある。 →2回目は、 S様（48歳） </t>
+    <rPh sb="37" eb="38">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイメ</t>
+    </rPh>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
@@ -1490,7 +2169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1591,6 +2270,15 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2032,7 +2720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,6 +2981,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2302,7 +2993,28 @@
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準_h_sitemap_recaldent-20090520" xfId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -21791,24 +22503,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="107.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="53.88671875" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="33.21875" customWidth="1"/>
     <col min="4" max="4" width="14.109375" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
     <col min="8" max="8" width="60.44140625" style="87" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" style="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>85</v>
       </c>
@@ -21828,7 +22540,7 @@
         <v>90</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H1" s="87" t="s">
         <v>92</v>
@@ -21837,12 +22549,12 @@
         <v>8</v>
       </c>
       <c r="J1" s="60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="107.4" customHeight="1">
       <c r="A2" s="64" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>93</v>
@@ -21860,10 +22572,10 @@
         <v>97</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I2" s="62">
         <v>42794</v>
@@ -21873,7 +22585,7 @@
         <v>http://localhost:8060/therapy-body_shape/</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90">
+    <row r="3" spans="1:10" ht="107.4" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -21891,10 +22603,10 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="I3" s="62">
         <v>42794</v>
@@ -21904,9 +22616,9 @@
         <v>http://localhost:8060/therapy-botox/</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="81.599999999999994" customHeight="1">
+    <row r="4" spans="1:10" ht="107.4" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>101</v>
@@ -21922,22 +22634,22 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="I4" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-cd_enkakuchi/</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18">
+    <row r="5" spans="1:10" ht="107.4" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>103</v>
@@ -21953,9 +22665,11 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H5" s="10"/>
+        <v>360</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="I5" s="62">
         <v>42786</v>
       </c>
@@ -21964,9 +22678,9 @@
         <v>http://localhost:8060/therapy-cd_toretinoin2/</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="107.4" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>106</v>
@@ -21977,21 +22691,32 @@
       <c r="D6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="E6" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>369</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-cd_tretinoin/</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="107.4" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>95</v>
@@ -22001,26 +22726,28 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="I7" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-cocktail/</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18">
+    <row r="8" spans="1:10" ht="107.4" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>95</v>
@@ -22030,26 +22757,28 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>372</v>
+      </c>
       <c r="I8" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-cocktaillift/</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="107.4" customHeight="1">
       <c r="A9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>95</v>
@@ -22059,26 +22788,28 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>377</v>
+      </c>
       <c r="I9" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-cosmetic/</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="107.4" customHeight="1">
       <c r="A10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>95</v>
@@ -22088,26 +22819,28 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>373</v>
+      </c>
       <c r="I10" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-dark/</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="107.4" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>119</v>
+        <v>374</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>95</v>
@@ -22119,26 +22852,28 @@
         <v>97</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="I11" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-div/</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18">
+    <row r="12" spans="1:10" ht="107.4" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>95</v>
@@ -22148,26 +22883,28 @@
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>379</v>
+      </c>
       <c r="I12" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-doctor/</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18">
+    <row r="13" spans="1:10" ht="107.4" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>95</v>
@@ -22177,26 +22914,28 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="I13" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-eye_repair/</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18">
+    <row r="14" spans="1:10" ht="107.4" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>95</v>
@@ -22204,30 +22943,32 @@
       <c r="E14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>97</v>
+      <c r="F14" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>381</v>
+      </c>
       <c r="I14" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-eyelash/</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18">
+    <row r="15" spans="1:10" ht="107.4" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>95</v>
@@ -22237,26 +22978,28 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>383</v>
+      </c>
       <c r="I15" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f>"http://localhost:8060/" &amp;B15&amp; "/"</f>
         <v>http://localhost:8060/therapy-fcgp/</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18">
+    <row r="16" spans="1:10" ht="107.4" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>95</v>
@@ -22265,29 +23008,31 @@
         <v>96</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>385</v>
+      </c>
       <c r="I16" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-fleck/</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18">
+    <row r="17" spans="1:10" ht="107.4" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>95</v>
@@ -22297,26 +23042,28 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>387</v>
+      </c>
       <c r="I17" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-frontup_cocktail/</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18">
+    <row r="18" spans="1:10" ht="107.4" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>141</v>
+        <v>388</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>95</v>
@@ -22328,26 +23075,28 @@
         <v>97</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H18" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="I18" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-hyalhiuronan/</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="107.4" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>95</v>
@@ -22357,26 +23106,28 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="I19" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-liftup_cocktail/</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18">
+    <row r="20" spans="1:10" ht="107.4" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>147</v>
+        <v>390</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>95</v>
@@ -22384,30 +23135,32 @@
       <c r="E20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>97</v>
+      <c r="F20" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>361</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="I20" s="62">
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-lines/</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18">
+    <row r="21" spans="1:10" ht="107.4" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>95</v>
@@ -22418,23 +23171,21 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="62">
-        <v>42793</v>
-      </c>
+      <c r="I21" s="62"/>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>http://localhost:8060/therapy-lip/</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18">
+    <row r="22" spans="1:10" ht="107.4" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>95</v>
@@ -22451,15 +23202,15 @@
         <v>http://localhost:8060/therapy-meds/</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18">
+    <row r="23" spans="1:10" ht="107.4" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>95</v>
@@ -22476,15 +23227,15 @@
         <v>http://localhost:8060/therapy-mesotherapy/</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18">
+    <row r="24" spans="1:10" ht="107.4" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>95</v>
@@ -22501,15 +23252,15 @@
         <v>http://localhost:8060/therapy-mesotherapy-body/</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18">
+    <row r="25" spans="1:10" ht="107.4" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>95</v>
@@ -22526,15 +23277,15 @@
         <v>http://localhost:8060/therapy-mexococktail/</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18">
+    <row r="26" spans="1:10" ht="107.4" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>95</v>
@@ -22551,15 +23302,15 @@
         <v>http://localhost:8060/therapy-mexolift/</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18">
+    <row r="27" spans="1:10" ht="107.4" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>95</v>
@@ -22576,15 +23327,15 @@
         <v>http://localhost:8060/therapy-mlm/</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18">
+    <row r="28" spans="1:10" ht="107.4" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>95</v>
@@ -22601,15 +23352,15 @@
         <v>http://localhost:8060/therapy-neck_cocktail/</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18">
+    <row r="29" spans="1:10" ht="107.4" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>95</v>
@@ -22626,15 +23377,15 @@
         <v>http://localhost:8060/therapy-new_liftup_cocktail/</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18">
+    <row r="30" spans="1:10" ht="107.4" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>95</v>
@@ -22651,15 +23402,15 @@
         <v>http://localhost:8060/therapy-new_poreless/</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18">
+    <row r="31" spans="1:10" ht="107.4" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>95</v>
@@ -22676,15 +23427,15 @@
         <v>http://localhost:8060/therapy-new-eye-repair/</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18">
+    <row r="32" spans="1:10" ht="107.4" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>95</v>
@@ -22701,15 +23452,15 @@
         <v>http://localhost:8060/therapy-new-eye-repair_premium/</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18">
+    <row r="33" spans="1:10" ht="107.4" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>95</v>
@@ -22726,15 +23477,15 @@
         <v>http://localhost:8060/therapy-new-frontup/</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18">
+    <row r="34" spans="1:10" ht="107.4" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>95</v>
@@ -22751,15 +23502,15 @@
         <v>http://localhost:8060/therapy-new-lip/</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
+    <row r="35" spans="1:10" ht="107.4" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>95</v>
@@ -22776,15 +23527,15 @@
         <v>http://localhost:8060/therapy-new-neck/</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18">
+    <row r="36" spans="1:10" ht="107.4" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>95</v>
@@ -22801,15 +23552,15 @@
         <v>http://localhost:8060/therapy-new-retinoic/</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18">
+    <row r="37" spans="1:10" ht="107.4" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>95</v>
@@ -22826,15 +23577,15 @@
         <v>http://localhost:8060/therapy-ojc/</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18">
+    <row r="38" spans="1:10" ht="107.4" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>95</v>
@@ -22851,15 +23602,15 @@
         <v>http://localhost:8060/therapy-order_po/</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18">
+    <row r="39" spans="1:10" ht="107.4" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>95</v>
@@ -22876,15 +23627,15 @@
         <v>http://localhost:8060/therapy-ordermade/</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18">
+    <row r="40" spans="1:10" ht="107.4" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>95</v>
@@ -22901,15 +23652,15 @@
         <v>http://localhost:8060/therapy-outmost/</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18">
+    <row r="41" spans="1:10" ht="107.4" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>95</v>
@@ -22926,15 +23677,15 @@
         <v>http://localhost:8060/therapy-outmost_cosume/</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="18">
+    <row r="42" spans="1:10" ht="107.4" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>95</v>
@@ -22951,15 +23702,15 @@
         <v>http://localhost:8060/therapy-outmost_guideline/</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18">
+    <row r="43" spans="1:10" ht="107.4" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>95</v>
@@ -22970,15 +23721,15 @@
         <v>http://localhost:8060/therapy-outmost_homepiring/</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="18">
+    <row r="44" spans="1:10" ht="107.4" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>95</v>
@@ -22991,15 +23742,15 @@
         <v>http://localhost:8060/therapy-outmost_retinoic/</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="18">
+    <row r="45" spans="1:10" ht="107.4" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>95</v>
@@ -23012,15 +23763,15 @@
         <v>http://localhost:8060/therapy-poreless_cocktail/</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18">
+    <row r="46" spans="1:10" ht="107.4" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>95</v>
@@ -23033,15 +23784,15 @@
         <v>http://localhost:8060/therapy-prp/</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="18">
+    <row r="47" spans="1:10" ht="107.4" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>95</v>
@@ -23051,15 +23802,15 @@
         <v>http://localhost:8060/therapy-prpcocktail/</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="18">
+    <row r="48" spans="1:10" ht="107.4" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>95</v>
@@ -23072,15 +23823,15 @@
         <v>http://localhost:8060/therapy-purasentar/</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18">
+    <row r="49" spans="1:10" ht="107.4" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>95</v>
@@ -23093,15 +23844,15 @@
         <v>http://localhost:8060/therapy-remote_po/</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18">
+    <row r="50" spans="1:10" ht="107.4" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>95</v>
@@ -23111,15 +23862,15 @@
         <v>http://localhost:8060/therapy-retinoic/</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18">
+    <row r="51" spans="1:10" ht="107.4" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>95</v>
@@ -23132,15 +23883,15 @@
         <v>http://localhost:8060/therapy-shape_bn/</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18">
+    <row r="52" spans="1:10" ht="107.4" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>95</v>
@@ -23153,15 +23904,15 @@
         <v>http://localhost:8060/therapy-shiwa_retinoin/</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18">
+    <row r="53" spans="1:10" ht="107.4" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>95</v>
@@ -23177,97 +23928,97 @@
   </sheetData>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="A44:D46 A48:D53 A6:D6 A2:H4">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:F5 H5:I5">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I4 A22:I42 A7:F21 H7:I21">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
     <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:F5 H5:I5">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4 A22:I42 A7:F21 H7:I21">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="18" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
     <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
+  <conditionalFormatting sqref="G20">
     <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
     <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G19">
     <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="G9">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="G11">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23381,28 +24132,28 @@
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I2" s="11">
         <v>42787</v>
@@ -23410,12 +24161,12 @@
     </row>
     <row r="3" spans="1:9" ht="58.8" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="10" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8"/>
@@ -23423,16 +24174,16 @@
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>96</v>
@@ -23442,16 +24193,16 @@
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>96</v>
@@ -23461,415 +24212,415 @@
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="6" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="18">
       <c r="A7" s="6" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="18">
       <c r="A8" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="18">
       <c r="A9" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="18">
       <c r="A11" s="6" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="18">
       <c r="A12" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="18">
       <c r="A14" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="6" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="18">
       <c r="A17" s="6" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="18">
       <c r="A18" s="6" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="18">
       <c r="A19" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="18">
       <c r="A20" s="6" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="18">
       <c r="A21" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="18">
       <c r="A22" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="18">
       <c r="A23" s="6" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:7" ht="18">
       <c r="A24" s="6" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="18">
       <c r="A25" s="6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="18">
       <c r="A26" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="18">
       <c r="A27" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:7" ht="18">
       <c r="A28" s="6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
@@ -23877,12 +24628,12 @@
   </sheetData>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="A2:D28">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F28">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23965,19 +24716,19 @@
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
@@ -23988,19 +24739,19 @@
     </row>
     <row r="3" spans="1:9" ht="18">
       <c r="A3" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
@@ -24011,19 +24762,19 @@
     </row>
     <row r="4" spans="1:9" ht="18">
       <c r="A4" s="6" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
@@ -24034,33 +24785,33 @@
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="6" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>105</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I5" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13"/>
   <conditionalFormatting sqref="A2:I5">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24095,96 +24846,96 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E7" s="2"/>
     </row>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -22727,8 +22727,8 @@
   <sheetPr/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" customHeight="1"/>
@@ -22837,7 +22837,9 @@
       <c r="G3" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="I3" s="31">
         <v>42802</v>
       </c>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -22700,7 +22700,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:J53"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8136" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8136" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -1673,9 +1673,6 @@
     <t>https://ssm001.kix.ad.jp/ex0040100617/mail_remote_exam4.html</t>
   </si>
   <si>
-    <t>mail_remote_exam4</t>
-  </si>
-  <si>
     <t>問診票フォーム(遠隔地治療用)</t>
   </si>
   <si>
@@ -1814,16 +1811,21 @@
     <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_kyujin/</t>
   </si>
   <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_remote_exam4/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_reservation/</t>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/availability.html</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>mail_remote_exam4</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
     <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_medical_sheet/</t>
-  </si>
-  <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_remote_exam4/</t>
-  </si>
-  <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_reservation/</t>
-  </si>
-  <si>
-    <t>http://www.slca-kobe.jp/availability.html</t>
     <phoneticPr fontId="20"/>
   </si>
 </sst>
@@ -2822,6 +2824,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2873,23 +2890,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -8518,163 +8520,163 @@
     <row r="1" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58"/>
       <c r="B1" s="58"/>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="118" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="119" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="118" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118" t="s">
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
     </row>
     <row r="2" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="113" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="113" t="s">
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="115" t="s">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="115" t="s">
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="116" t="s">
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
     </row>
     <row r="3" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="115" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="115" t="s">
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="116" t="s">
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
     </row>
     <row r="4" spans="1:44" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
@@ -11461,17 +11463,6 @@
     <row r="78" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:N3"/>
     <mergeCell ref="O2:R3"/>
@@ -11479,6 +11470,17 @@
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11506,165 +11508,165 @@
     <row r="1" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58"/>
       <c r="B1" s="58"/>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="104" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="118" t="s">
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="119" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="119"/>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="118" t="s">
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118" t="s">
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+      <c r="AL1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
+      <c r="AM1" s="99"/>
+      <c r="AN1" s="99"/>
+      <c r="AO1" s="99"/>
+      <c r="AP1" s="99"/>
+      <c r="AQ1" s="99"/>
     </row>
     <row r="2" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="113" t="s">
+      <c r="C2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="113" t="s">
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="115" t="s">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="116"/>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="115" t="s">
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="116" t="s">
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="116"/>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="116"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
     </row>
     <row r="3" spans="1:44" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="115" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="115" t="s">
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="116" t="s">
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
     </row>
     <row r="4" spans="1:44" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
@@ -24069,17 +24071,6 @@
     <row r="284" s="56" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:N3"/>
     <mergeCell ref="O2:R3"/>
@@ -24087,6 +24078,17 @@
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24237,10 +24239,10 @@
         <v>106</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>442</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -24251,7 +24253,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>110</v>
@@ -25201,7 +25203,7 @@
     </row>
     <row r="26" spans="1:15" ht="79.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>225</v>
@@ -25238,7 +25240,7 @@
         <v>115</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O26" s="17" t="s">
         <v>226</v>
@@ -26042,7 +26044,7 @@
         <v>115</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K48" s="37" t="s">
         <v>320</v>
@@ -26459,7 +26461,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -26484,7 +26486,7 @@
         <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>98</v>
@@ -26492,8 +26494,8 @@
       <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="120" t="s">
-        <v>444</v>
+      <c r="F1" s="98" t="s">
+        <v>443</v>
       </c>
       <c r="G1" t="s">
         <v>102</v>
@@ -26514,21 +26516,21 @@
         <v>106</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>442</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>346</v>
@@ -26550,10 +26552,10 @@
         <v>351</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
@@ -26571,7 +26573,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>354</v>
@@ -26593,7 +26595,7 @@
         <v>356</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>357</v>
@@ -26615,7 +26617,7 @@
         <v>359</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>360</v>
@@ -26636,7 +26638,7 @@
         <v>362</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>360</v>
@@ -26657,7 +26659,7 @@
         <v>364</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>365</v>
@@ -26678,7 +26680,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>368</v>
@@ -26699,7 +26701,7 @@
         <v>370</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>371</v>
@@ -26720,7 +26722,7 @@
         <v>373</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>374</v>
@@ -26741,7 +26743,7 @@
         <v>376</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>377</v>
@@ -26762,7 +26764,7 @@
         <v>379</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>380</v>
@@ -26783,7 +26785,7 @@
         <v>382</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>383</v>
@@ -26804,7 +26806,7 @@
         <v>385</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>386</v>
@@ -26825,7 +26827,7 @@
         <v>388</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>389</v>
@@ -26846,7 +26848,7 @@
         <v>391</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>392</v>
@@ -26867,7 +26869,7 @@
         <v>394</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>395</v>
@@ -26888,7 +26890,7 @@
         <v>397</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>398</v>
@@ -26909,7 +26911,7 @@
         <v>400</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>401</v>
@@ -26930,7 +26932,7 @@
         <v>403</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>404</v>
@@ -26951,7 +26953,7 @@
         <v>406</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>407</v>
@@ -26972,7 +26974,7 @@
         <v>409</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>410</v>
@@ -26993,7 +26995,7 @@
         <v>412</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>413</v>
@@ -27014,7 +27016,7 @@
         <v>415</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>416</v>
@@ -27035,7 +27037,7 @@
         <v>418</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>419</v>
@@ -27056,7 +27058,7 @@
         <v>421</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>422</v>
@@ -27077,7 +27079,7 @@
         <v>424</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>425</v>
@@ -27140,8 +27142,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -27160,7 +27162,7 @@
         <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>98</v>
@@ -27192,7 +27194,7 @@
         <v>427</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>428</v>
@@ -27218,7 +27220,7 @@
         <v>431</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>432</v>
@@ -27241,13 +27243,13 @@
         <v>433</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>347</v>
@@ -27264,16 +27266,16 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>347</v>
@@ -27286,7 +27288,7 @@
         <v>350</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J5" s="4"/>
     </row>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="524">
   <si>
     <t>Project</t>
   </si>
@@ -770,13 +770,6 @@
     <t>院長処方の症状に合わせたコスメ</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・「■VC-IPスティック 8,400円 →6,400円」の下の文章が間違っている。
-</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/dark.html</t>
   </si>
   <si>
@@ -881,10 +874,6 @@
     <t>シミ</t>
   </si>
   <si>
-    <t>アンカーリンクをページ内にリンクさせる。
-・イオン導入 の下の文章全てにかかる&lt;a&gt;タグを、「イオン導入」だけリンクさせる。</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/frontup_cocktail.html</t>
   </si>
   <si>
@@ -910,10 +899,6 @@
   </si>
   <si>
     <t>テーブルのデザイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・「モニター症例写真」5列真ん中の写真、 ×目の下注入後 →  (左小鼻の付け根)注入直後　
-</t>
   </si>
   <si>
     <t>http://www.slca-kobe.jp/therapy/liftup_cocktail.html</t>
@@ -1984,6 +1969,53 @@
     <t>削除</t>
     <phoneticPr fontId="20"/>
   </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-cd_enkakuchi/</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-cosmetic/</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>VC-IPスティック の説明が違う</t>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・「モニター症例写真」5列真ん中の写真、 ×左小鼻の付け根)注入直後　 →最初の( がない。
+・症例数　のテーブルの文字を 真ん中に配置。
+</t>
+    <rPh sb="37" eb="39">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>×イオン導入　→  シミ用新レチノイン酸療法・ CDトレチノイン療法</t>
+    <phoneticPr fontId="20"/>
+  </si>
 </sst>
 </file>
 
@@ -1992,7 +2024,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2208,6 +2240,13 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2769,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,72 +3087,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3193,6 +3166,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10065,163 +10107,163 @@
     <row r="1" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="111" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="111" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111" t="s">
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
     </row>
     <row r="2" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="109" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="109" t="s">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="113" t="s">
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="113" t="s">
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="114" t="s">
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
     </row>
     <row r="3" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="113" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="113" t="s">
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="114" t="s">
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
     </row>
     <row r="4" spans="1:44" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
@@ -13008,17 +13050,6 @@
     <row r="78" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:N3"/>
     <mergeCell ref="O2:R3"/>
@@ -13026,6 +13057,17 @@
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13053,165 +13095,165 @@
     <row r="1" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="100" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="111" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="111" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111" t="s">
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="111"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
     </row>
     <row r="2" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="109" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="109" t="s">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="113" t="s">
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="113" t="s">
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="114" t="s">
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="123"/>
     </row>
     <row r="3" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="113" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="124"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="113" t="s">
+      <c r="AG3" s="122"/>
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123"/>
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="114" t="s">
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="123"/>
     </row>
     <row r="4" spans="1:44" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
@@ -25616,17 +25658,6 @@
     <row r="284" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AL1:AQ1"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="C1:E3"/>
     <mergeCell ref="F1:N3"/>
     <mergeCell ref="O2:R3"/>
@@ -25634,6 +25665,17 @@
     <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AC2:AE3"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AL1:AQ1"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="20"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25721,8 +25763,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25783,10 +25825,10 @@
         <v>106</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -25797,7 +25839,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>110</v>
@@ -25924,16 +25966,16 @@
     </row>
     <row r="5" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>111</v>
@@ -25943,7 +25985,7 @@
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>115</v>
@@ -25959,24 +26001,24 @@
         <v>115</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>164</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>111</v>
@@ -25997,27 +26039,27 @@
         <v>42796</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>111</v>
@@ -26027,7 +26069,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>115</v>
@@ -26043,24 +26085,24 @@
         <v>115</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>111</v>
@@ -26081,27 +26123,27 @@
         <v>42794</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>111</v>
@@ -26111,7 +26153,7 @@
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I9" s="31" t="s">
         <v>115</v>
@@ -26127,24 +26169,24 @@
         <v>115</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>111</v>
@@ -26154,16 +26196,16 @@
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I10" s="31" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L10" s="34">
         <v>42803</v>
@@ -26172,24 +26214,24 @@
         <v>115</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>111</v>
@@ -26213,24 +26255,24 @@
         <v>115</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>111</v>
@@ -26240,7 +26282,7 @@
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="21" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>115</v>
@@ -26253,27 +26295,27 @@
         <v>42800</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>111</v>
@@ -26290,7 +26332,7 @@
         <v>115</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L13" s="34">
         <v>42803</v>
@@ -26299,24 +26341,24 @@
         <v>115</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>111</v>
@@ -26326,16 +26368,16 @@
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>115</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L14" s="34">
         <v>42803</v>
@@ -26344,34 +26386,34 @@
         <v>115</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="132"/>
+        <v>314</v>
+      </c>
+      <c r="U14" s="110"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="110"/>
+      <c r="Z14" s="110"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
     </row>
     <row r="15" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>111</v>
@@ -26388,7 +26430,7 @@
         <v>115</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L15" s="34">
         <v>42803</v>
@@ -26397,34 +26439,34 @@
         <v>115</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="132"/>
-      <c r="AD15" s="132"/>
+        <v>331</v>
+      </c>
+      <c r="U15" s="110"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="110"/>
+      <c r="Z15" s="110"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
     </row>
     <row r="16" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>111</v>
@@ -26441,7 +26483,7 @@
         <v>115</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L16" s="34">
         <v>42803</v>
@@ -26450,21 +26492,21 @@
         <v>115</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="132"/>
-      <c r="AD16" s="132"/>
+        <v>336</v>
+      </c>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="110"/>
+      <c r="Z16" s="110"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
     </row>
     <row r="17" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
@@ -26506,889 +26548,889 @@
       <c r="O17" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
     </row>
     <row r="18" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="135" t="s">
+      <c r="F18" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J18" s="139" t="s">
+      <c r="G18" s="113"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J18" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="140"/>
-      <c r="L18" s="141">
+      <c r="K18" s="118"/>
+      <c r="L18" s="119">
         <v>42796</v>
       </c>
-      <c r="M18" s="142"/>
-      <c r="N18" s="135" t="s">
+      <c r="M18" s="120"/>
+      <c r="N18" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="136" t="s">
+      <c r="O18" s="114" t="s">
         <v>139</v>
       </c>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
       <c r="R18" s="36"/>
       <c r="S18" s="36"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="133"/>
-      <c r="Z18" s="134"/>
-      <c r="AA18" s="134"/>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="134"/>
-      <c r="AD18" s="134"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
     </row>
     <row r="19" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="136" t="s">
+      <c r="C19" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="135" t="s">
+      <c r="E19" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="135" t="s">
+      <c r="F19" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J19" s="139" t="s">
+      <c r="G19" s="113"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J19" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141">
+      <c r="K19" s="118"/>
+      <c r="L19" s="119">
         <v>42796</v>
       </c>
-      <c r="M19" s="142"/>
-      <c r="N19" s="135" t="s">
+      <c r="M19" s="120"/>
+      <c r="N19" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="O19" s="136" t="s">
+      <c r="O19" s="114" t="s">
         <v>143</v>
       </c>
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="36"/>
       <c r="S19" s="36"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="134"/>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="134"/>
-      <c r="AD19" s="134"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
     </row>
     <row r="20" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="113" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="135" t="s">
+      <c r="D20" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="135" t="s">
+      <c r="E20" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="135"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J20" s="139" t="s">
+      <c r="G20" s="113"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J20" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="141">
+      <c r="K20" s="118"/>
+      <c r="L20" s="119">
         <v>42796</v>
       </c>
-      <c r="M20" s="142"/>
-      <c r="N20" s="135" t="s">
+      <c r="M20" s="120"/>
+      <c r="N20" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" s="114" t="s">
         <v>175</v>
-      </c>
-      <c r="O20" s="136" t="s">
-        <v>177</v>
       </c>
       <c r="P20" s="36"/>
       <c r="Q20" s="36"/>
       <c r="R20" s="36"/>
       <c r="S20" s="36"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="133"/>
-      <c r="W20" s="133"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="134"/>
-      <c r="AA20" s="134"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="134"/>
-      <c r="AD20" s="134"/>
+      <c r="T20" s="109"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="112"/>
     </row>
     <row r="21" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="135" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="135" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="135" t="s">
+      <c r="E21" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="135" t="s">
+      <c r="F21" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J21" s="139" t="s">
+      <c r="G21" s="113"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J21" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="140"/>
-      <c r="L21" s="141">
+      <c r="K21" s="118"/>
+      <c r="L21" s="119">
         <v>42797</v>
       </c>
-      <c r="M21" s="142"/>
-      <c r="N21" s="135" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" s="136" t="s">
-        <v>186</v>
+      <c r="M21" s="120"/>
+      <c r="N21" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="114" t="s">
+        <v>183</v>
       </c>
       <c r="P21" s="36"/>
       <c r="Q21" s="36"/>
       <c r="R21" s="36"/>
       <c r="S21" s="36"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="134"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
-      <c r="AC21" s="134"/>
-      <c r="AD21" s="134"/>
+      <c r="T21" s="109"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
     </row>
     <row r="22" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="136" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="135" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="135" t="s">
+      <c r="A22" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="135" t="s">
+      <c r="F22" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="135"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J22" s="139" t="s">
+      <c r="G22" s="113"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J22" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="140"/>
-      <c r="L22" s="141">
+      <c r="K22" s="118"/>
+      <c r="L22" s="119">
         <v>42797</v>
       </c>
-      <c r="M22" s="142"/>
-      <c r="N22" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="O22" s="136" t="s">
-        <v>196</v>
+      <c r="M22" s="120"/>
+      <c r="N22" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" s="114" t="s">
+        <v>192</v>
       </c>
       <c r="P22" s="36"/>
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="133"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="134"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
-      <c r="AC22" s="134"/>
-      <c r="AD22" s="134"/>
+      <c r="T22" s="109"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="112"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="112"/>
     </row>
     <row r="23" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="113"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J23" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="135" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="136" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="135" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="135" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="135" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J23" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" s="140"/>
-      <c r="L23" s="141">
+      <c r="K23" s="118"/>
+      <c r="L23" s="119">
         <v>42794</v>
       </c>
-      <c r="M23" s="142"/>
-      <c r="N23" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="O23" s="136" t="s">
-        <v>205</v>
+      <c r="M23" s="120"/>
+      <c r="N23" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" s="114" t="s">
+        <v>201</v>
       </c>
       <c r="P23" s="36"/>
       <c r="Q23" s="36"/>
       <c r="R23" s="36"/>
       <c r="S23" s="36"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="133"/>
-      <c r="W23" s="133"/>
-      <c r="X23" s="133"/>
-      <c r="Y23" s="133"/>
-      <c r="Z23" s="134"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="134"/>
-      <c r="AD23" s="134"/>
+      <c r="T23" s="109"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
     </row>
     <row r="24" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="135" t="s">
-        <v>234</v>
-      </c>
-      <c r="B24" s="135" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="136" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="135" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="135" t="s">
+      <c r="A24" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="135" t="s">
+      <c r="F24" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="135"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J24" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K24" s="140"/>
-      <c r="L24" s="141">
+      <c r="G24" s="113"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J24" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119">
         <v>42796</v>
       </c>
-      <c r="M24" s="142"/>
-      <c r="N24" s="135" t="s">
-        <v>234</v>
-      </c>
-      <c r="O24" s="136" t="s">
-        <v>236</v>
+      <c r="M24" s="120"/>
+      <c r="N24" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" s="114" t="s">
+        <v>232</v>
       </c>
       <c r="P24" s="36"/>
       <c r="Q24" s="36"/>
       <c r="R24" s="36"/>
       <c r="S24" s="36"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="133"/>
-      <c r="W24" s="133"/>
-      <c r="X24" s="133"/>
-      <c r="Y24" s="133"/>
-      <c r="Z24" s="134"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="134"/>
-      <c r="AD24" s="134"/>
+      <c r="T24" s="109"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
     </row>
     <row r="25" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="135" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="135" t="s">
+      <c r="A25" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="135" t="s">
+      <c r="F25" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="135"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J25" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K25" s="140"/>
-      <c r="L25" s="141">
+      <c r="G25" s="113"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J25" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119">
         <v>42796</v>
       </c>
-      <c r="M25" s="142"/>
-      <c r="N25" s="135" t="s">
-        <v>238</v>
-      </c>
-      <c r="O25" s="136" t="s">
-        <v>240</v>
+      <c r="M25" s="120"/>
+      <c r="N25" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" s="114" t="s">
+        <v>236</v>
       </c>
       <c r="P25" s="36"/>
       <c r="Q25" s="36"/>
       <c r="R25" s="36"/>
       <c r="S25" s="36"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="133"/>
-      <c r="W25" s="133"/>
-      <c r="X25" s="133"/>
-      <c r="Y25" s="133"/>
-      <c r="Z25" s="134"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="134"/>
-      <c r="AD25" s="134"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
     </row>
     <row r="26" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="135" t="s">
-        <v>242</v>
-      </c>
-      <c r="B26" s="135" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="136" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="135" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="135" t="s">
+      <c r="A26" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="135"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J26" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" s="140"/>
-      <c r="L26" s="141">
+      <c r="G26" s="113"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J26" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119">
         <v>42796</v>
       </c>
-      <c r="M26" s="142"/>
-      <c r="N26" s="135" t="s">
-        <v>242</v>
-      </c>
-      <c r="O26" s="136" t="s">
-        <v>244</v>
+      <c r="M26" s="120"/>
+      <c r="N26" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="114" t="s">
+        <v>240</v>
       </c>
       <c r="P26" s="36"/>
       <c r="Q26" s="36"/>
       <c r="R26" s="36"/>
       <c r="S26" s="36"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="133"/>
-      <c r="X26" s="133"/>
-      <c r="Y26" s="133"/>
-      <c r="Z26" s="134"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="134"/>
-      <c r="AD26" s="134"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
     </row>
     <row r="27" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="135" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="136" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="135" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="135" t="s">
+      <c r="A27" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="135" t="s">
+      <c r="F27" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J27" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K27" s="140"/>
-      <c r="L27" s="141">
+      <c r="G27" s="113"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J27" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119">
         <v>42796</v>
       </c>
-      <c r="M27" s="142"/>
-      <c r="N27" s="135" t="s">
-        <v>246</v>
-      </c>
-      <c r="O27" s="136" t="s">
-        <v>248</v>
+      <c r="M27" s="120"/>
+      <c r="N27" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" s="114" t="s">
+        <v>244</v>
       </c>
       <c r="P27" s="36"/>
       <c r="Q27" s="36"/>
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="133"/>
-      <c r="X27" s="133"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="134"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
     </row>
     <row r="28" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" s="135" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="135" t="s">
+      <c r="A28" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="114" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="135" t="s">
+      <c r="F28" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="135"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J28" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K28" s="140"/>
-      <c r="L28" s="141">
+      <c r="G28" s="113"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J28" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119">
         <v>42796</v>
       </c>
-      <c r="M28" s="142"/>
-      <c r="N28" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="O28" s="136" t="s">
-        <v>252</v>
+      <c r="M28" s="120"/>
+      <c r="N28" s="113" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" s="114" t="s">
+        <v>248</v>
       </c>
       <c r="P28" s="36"/>
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="134"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="134"/>
-      <c r="AD28" s="134"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="112"/>
+      <c r="AB28" s="112"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
     </row>
     <row r="29" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="135" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" s="135" t="s">
-        <v>257</v>
-      </c>
-      <c r="E29" s="135" t="s">
+      <c r="A29" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="114" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="135" t="s">
+      <c r="F29" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="135"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J29" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="140"/>
-      <c r="L29" s="141">
+      <c r="G29" s="113"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J29" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119">
         <v>42796</v>
       </c>
-      <c r="M29" s="142"/>
-      <c r="N29" s="135" t="s">
-        <v>254</v>
-      </c>
-      <c r="O29" s="136" t="s">
-        <v>256</v>
+      <c r="M29" s="120"/>
+      <c r="N29" s="113" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" s="114" t="s">
+        <v>252</v>
       </c>
       <c r="P29" s="36"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
       <c r="S29" s="36"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="133"/>
-      <c r="W29" s="133"/>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="134"/>
-      <c r="AD29" s="134"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
     </row>
     <row r="30" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="135" t="s">
-        <v>258</v>
-      </c>
-      <c r="B30" s="135" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="D30" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="135" t="s">
+      <c r="A30" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>257</v>
+      </c>
+      <c r="E30" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="135" t="s">
+      <c r="F30" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="135"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J30" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="140"/>
-      <c r="L30" s="141">
+      <c r="G30" s="113"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J30" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119">
         <v>42796</v>
       </c>
-      <c r="M30" s="142"/>
-      <c r="N30" s="135" t="s">
-        <v>258</v>
-      </c>
-      <c r="O30" s="136" t="s">
-        <v>260</v>
+      <c r="M30" s="120"/>
+      <c r="N30" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="O30" s="114" t="s">
+        <v>256</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
       <c r="S30" s="36"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="133"/>
-      <c r="W30" s="133"/>
-      <c r="X30" s="133"/>
-      <c r="Y30" s="133"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="112"/>
+      <c r="AB30" s="112"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
     </row>
     <row r="31" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="135" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" s="135" t="s">
-        <v>263</v>
-      </c>
-      <c r="C31" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="135" t="s">
-        <v>265</v>
-      </c>
-      <c r="E31" s="135" t="s">
+      <c r="A31" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>261</v>
+      </c>
+      <c r="E31" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="135" t="s">
+      <c r="F31" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="135"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J31" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="140"/>
-      <c r="L31" s="141">
+      <c r="G31" s="113"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J31" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119">
         <v>42797</v>
       </c>
-      <c r="M31" s="142"/>
-      <c r="N31" s="135" t="s">
-        <v>262</v>
-      </c>
-      <c r="O31" s="136" t="s">
-        <v>264</v>
+      <c r="M31" s="120"/>
+      <c r="N31" s="113" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" s="114" t="s">
+        <v>260</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
       <c r="R31" s="36"/>
       <c r="S31" s="36"/>
-      <c r="T31" s="131"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="133"/>
-      <c r="W31" s="133"/>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
+      <c r="T31" s="109"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
     </row>
     <row r="32" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="B32" s="135" t="s">
-        <v>279</v>
-      </c>
-      <c r="C32" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="135" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" s="135" t="s">
+      <c r="A32" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="113" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="135" t="s">
+      <c r="F32" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="135"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J32" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K32" s="140"/>
-      <c r="L32" s="141">
+      <c r="G32" s="113"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J32" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119">
         <v>42797</v>
       </c>
-      <c r="M32" s="142"/>
-      <c r="N32" s="135" t="s">
-        <v>278</v>
-      </c>
-      <c r="O32" s="136" t="s">
-        <v>280</v>
+      <c r="M32" s="120"/>
+      <c r="N32" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" s="114" t="s">
+        <v>276</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="36"/>
       <c r="S32" s="36"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="133"/>
-      <c r="W32" s="133"/>
-      <c r="X32" s="133"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
+      <c r="T32" s="109"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
     </row>
     <row r="33" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="B33" s="135" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" s="136" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="135" t="s">
-        <v>306</v>
-      </c>
-      <c r="E33" s="135" t="s">
+      <c r="A33" s="113" t="s">
+        <v>299</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="135" t="s">
+      <c r="F33" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="135"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="O33" s="136" t="s">
-        <v>305</v>
+      <c r="G33" s="113"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J33" s="117"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="113" t="s">
+        <v>299</v>
+      </c>
+      <c r="O33" s="114" t="s">
+        <v>301</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
       <c r="R33" s="36"/>
       <c r="S33" s="36"/>
-      <c r="T33" s="131"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="133"/>
-      <c r="W33" s="133"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="133"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
+      <c r="T33" s="109"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="112"/>
+      <c r="AB33" s="112"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="112"/>
     </row>
     <row r="34" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>111</v>
@@ -27404,190 +27446,190 @@
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="90" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O34" s="22" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="36"/>
       <c r="S34" s="36"/>
-      <c r="T34" s="131"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="133"/>
-      <c r="W34" s="133"/>
-      <c r="X34" s="133"/>
-      <c r="Y34" s="133"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="132"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="132"/>
+      <c r="T34" s="109"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="110"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
+      <c r="AD34" s="110"/>
     </row>
     <row r="35" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="D35" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="135" t="s">
-        <v>169</v>
-      </c>
-      <c r="E35" s="135" t="s">
+      <c r="E35" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="135" t="s">
+      <c r="F35" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="135"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J35" s="139" t="s">
+      <c r="G35" s="113"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J35" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="140"/>
-      <c r="L35" s="141">
+      <c r="K35" s="118"/>
+      <c r="L35" s="119">
         <v>42796</v>
       </c>
-      <c r="M35" s="142"/>
-      <c r="N35" s="135" t="s">
+      <c r="M35" s="120"/>
+      <c r="N35" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="O35" s="114" t="s">
         <v>166</v>
-      </c>
-      <c r="O35" s="136" t="s">
-        <v>168</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
       <c r="R35" s="36"/>
       <c r="S35" s="36"/>
-      <c r="T35" s="131"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="134"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="134"/>
-      <c r="AD35" s="134"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="112"/>
+      <c r="AB35" s="112"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="112"/>
     </row>
     <row r="36" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="D36" s="135" t="s">
-        <v>224</v>
-      </c>
-      <c r="E36" s="135" t="s">
+      <c r="A36" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="135" t="s">
+      <c r="F36" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="135"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J36" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K36" s="140"/>
-      <c r="L36" s="141">
+      <c r="G36" s="113"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J36" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119">
         <v>42795</v>
       </c>
-      <c r="M36" s="142"/>
-      <c r="N36" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="O36" s="136" t="s">
-        <v>223</v>
+      <c r="M36" s="120"/>
+      <c r="N36" s="113" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" s="114" t="s">
+        <v>219</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
-      <c r="T36" s="131"/>
-      <c r="U36" s="133"/>
-      <c r="V36" s="133"/>
-      <c r="W36" s="133"/>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="133"/>
-      <c r="Z36" s="134"/>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="134"/>
-      <c r="AC36" s="134"/>
-      <c r="AD36" s="134"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="112"/>
+      <c r="AC36" s="112"/>
+      <c r="AD36" s="112"/>
     </row>
     <row r="37" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="135" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="135" t="s">
-        <v>273</v>
-      </c>
-      <c r="E37" s="135" t="s">
+      <c r="A37" s="113" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="E37" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="135" t="s">
+      <c r="F37" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="135"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="J37" s="139" t="s">
-        <v>207</v>
-      </c>
-      <c r="K37" s="140"/>
-      <c r="L37" s="141">
+      <c r="G37" s="113"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="J37" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119">
         <v>42797</v>
       </c>
-      <c r="M37" s="142"/>
-      <c r="N37" s="135" t="s">
-        <v>270</v>
-      </c>
-      <c r="O37" s="136" t="s">
-        <v>272</v>
+      <c r="M37" s="120"/>
+      <c r="N37" s="113" t="s">
+        <v>266</v>
+      </c>
+      <c r="O37" s="114" t="s">
+        <v>268</v>
       </c>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
       <c r="R37" s="36"/>
       <c r="S37" s="36"/>
-      <c r="T37" s="131"/>
-      <c r="U37" s="133"/>
-      <c r="V37" s="133"/>
-      <c r="W37" s="133"/>
-      <c r="X37" s="133"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="134"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
-      <c r="AC37" s="134"/>
-      <c r="AD37" s="134"/>
-    </row>
-    <row r="38" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="109"/>
+      <c r="U37" s="111"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="112"/>
+      <c r="AB37" s="112"/>
+      <c r="AC37" s="112"/>
+      <c r="AD37" s="112"/>
+    </row>
+    <row r="38" spans="1:30" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>122</v>
       </c>
@@ -27595,7 +27637,7 @@
         <v>123</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>124</v>
+        <v>518</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>125</v>
@@ -27609,10 +27651,10 @@
       <c r="G38" s="18"/>
       <c r="H38" s="21"/>
       <c r="I38" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>126</v>
+        <v>520</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>127</v>
@@ -27627,18 +27669,18 @@
       <c r="O38" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="U38" s="132"/>
-      <c r="V38" s="132"/>
-      <c r="W38" s="132"/>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="132"/>
-      <c r="Z38" s="132"/>
-      <c r="AA38" s="132"/>
-      <c r="AB38" s="132"/>
-      <c r="AC38" s="132"/>
-      <c r="AD38" s="132"/>
-    </row>
-    <row r="39" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U38" s="110"/>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+      <c r="Z38" s="110"/>
+      <c r="AA38" s="110"/>
+      <c r="AB38" s="110"/>
+      <c r="AC38" s="110"/>
+      <c r="AD38" s="110"/>
+    </row>
+    <row r="39" spans="1:30" ht="62.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>145</v>
       </c>
@@ -27646,7 +27688,7 @@
         <v>146</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>148</v>
@@ -27660,13 +27702,13 @@
       <c r="G39" s="18"/>
       <c r="H39" s="21"/>
       <c r="I39" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>150</v>
+        <v>520</v>
+      </c>
+      <c r="K39" s="143" t="s">
+        <v>521</v>
       </c>
       <c r="L39" s="34">
         <v>42803</v>
@@ -27678,29 +27720,29 @@
       <c r="O39" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="U39" s="132"/>
-      <c r="V39" s="132"/>
-      <c r="W39" s="132"/>
-      <c r="X39" s="132"/>
-      <c r="Y39" s="132"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="132"/>
-      <c r="AB39" s="132"/>
-      <c r="AC39" s="132"/>
-      <c r="AD39" s="132"/>
-    </row>
-    <row r="40" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U39" s="110"/>
+      <c r="V39" s="110"/>
+      <c r="W39" s="110"/>
+      <c r="X39" s="110"/>
+      <c r="Y39" s="110"/>
+      <c r="Z39" s="110"/>
+      <c r="AA39" s="110"/>
+      <c r="AB39" s="110"/>
+      <c r="AC39" s="110"/>
+      <c r="AD39" s="110"/>
+    </row>
+    <row r="40" spans="1:30" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>111</v>
@@ -27711,47 +27753,47 @@
       <c r="G40" s="18"/>
       <c r="H40" s="21"/>
       <c r="I40" s="31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J40" s="32" t="s">
         <v>126</v>
       </c>
       <c r="K40" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L40" s="34">
         <v>42797</v>
       </c>
       <c r="M40" s="36"/>
       <c r="N40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="O40" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="U40" s="132"/>
-      <c r="V40" s="132"/>
-      <c r="W40" s="132"/>
-      <c r="X40" s="132"/>
-      <c r="Y40" s="132"/>
-      <c r="Z40" s="132"/>
-      <c r="AA40" s="132"/>
-      <c r="AB40" s="132"/>
-      <c r="AC40" s="132"/>
-      <c r="AD40" s="132"/>
-    </row>
-    <row r="41" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U40" s="110"/>
+      <c r="V40" s="110"/>
+      <c r="W40" s="110"/>
+      <c r="X40" s="110"/>
+      <c r="Y40" s="110"/>
+      <c r="Z40" s="110"/>
+      <c r="AA40" s="110"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="110"/>
+      <c r="AD40" s="110"/>
+    </row>
+    <row r="41" spans="1:30" ht="59.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>180</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>111</v>
@@ -27762,47 +27804,47 @@
       <c r="G41" s="18"/>
       <c r="H41" s="21"/>
       <c r="I41" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>149</v>
+        <v>520</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>183</v>
+        <v>523</v>
       </c>
       <c r="L41" s="34">
         <v>42797</v>
       </c>
       <c r="M41" s="36"/>
       <c r="N41" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O41" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O41" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="U41" s="132"/>
-      <c r="V41" s="132"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="132"/>
-      <c r="Z41" s="132"/>
-      <c r="AA41" s="132"/>
-      <c r="AB41" s="132"/>
-      <c r="AC41" s="132"/>
-      <c r="AD41" s="132"/>
-    </row>
-    <row r="42" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U41" s="110"/>
+      <c r="V41" s="110"/>
+      <c r="W41" s="110"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="110"/>
+      <c r="AD41" s="110"/>
+    </row>
+    <row r="42" spans="1:30" ht="103.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>191</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>111</v>
@@ -27812,47 +27854,47 @@
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I42" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>149</v>
+        <v>520</v>
       </c>
       <c r="K42" s="33" t="s">
-        <v>193</v>
+        <v>522</v>
       </c>
       <c r="L42" s="34">
         <v>42803</v>
       </c>
       <c r="M42" s="36"/>
       <c r="N42" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="U42" s="132"/>
-      <c r="V42" s="132"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="132"/>
-      <c r="Z42" s="132"/>
-      <c r="AA42" s="132"/>
-      <c r="AB42" s="132"/>
-      <c r="AC42" s="132"/>
-      <c r="AD42" s="132"/>
+        <v>187</v>
+      </c>
+      <c r="U42" s="110"/>
+      <c r="V42" s="110"/>
+      <c r="W42" s="110"/>
+      <c r="X42" s="110"/>
+      <c r="Y42" s="110"/>
+      <c r="Z42" s="110"/>
+      <c r="AA42" s="110"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
     </row>
     <row r="43" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>113</v>
@@ -27865,50 +27907,50 @@
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I43" s="31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J43" s="32" t="s">
         <v>126</v>
       </c>
       <c r="K43" s="33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L43" s="34">
         <v>42797</v>
       </c>
       <c r="M43" s="36"/>
       <c r="N43" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="U43" s="132"/>
-      <c r="V43" s="132"/>
-      <c r="W43" s="132"/>
-      <c r="X43" s="132"/>
-      <c r="Y43" s="132"/>
-      <c r="Z43" s="132"/>
-      <c r="AA43" s="132"/>
-      <c r="AB43" s="132"/>
-      <c r="AC43" s="132"/>
-      <c r="AD43" s="132"/>
+        <v>196</v>
+      </c>
+      <c r="U43" s="110"/>
+      <c r="V43" s="110"/>
+      <c r="W43" s="110"/>
+      <c r="X43" s="110"/>
+      <c r="Y43" s="110"/>
+      <c r="Z43" s="110"/>
+      <c r="AA43" s="110"/>
+      <c r="AB43" s="110"/>
+      <c r="AC43" s="110"/>
+      <c r="AD43" s="110"/>
     </row>
     <row r="44" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>111</v>
@@ -27919,10 +27961,10 @@
       <c r="G44" s="18"/>
       <c r="H44" s="21"/>
       <c r="I44" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K44" s="33"/>
       <c r="L44" s="34">
@@ -27930,34 +27972,34 @@
       </c>
       <c r="M44" s="36"/>
       <c r="N44" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="U44" s="132"/>
-      <c r="V44" s="132"/>
-      <c r="W44" s="132"/>
-      <c r="X44" s="132"/>
-      <c r="Y44" s="132"/>
-      <c r="Z44" s="132"/>
-      <c r="AA44" s="132"/>
-      <c r="AB44" s="132"/>
-      <c r="AC44" s="132"/>
-      <c r="AD44" s="132"/>
+        <v>210</v>
+      </c>
+      <c r="U44" s="110"/>
+      <c r="V44" s="110"/>
+      <c r="W44" s="110"/>
+      <c r="X44" s="110"/>
+      <c r="Y44" s="110"/>
+      <c r="Z44" s="110"/>
+      <c r="AA44" s="110"/>
+      <c r="AB44" s="110"/>
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="110"/>
     </row>
     <row r="45" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>111</v>
@@ -27968,10 +28010,10 @@
       <c r="G45" s="18"/>
       <c r="H45" s="21"/>
       <c r="I45" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K45" s="33"/>
       <c r="L45" s="34">
@@ -27979,24 +28021,24 @@
       </c>
       <c r="M45" s="36"/>
       <c r="N45" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>111</v>
@@ -28007,10 +28049,10 @@
       <c r="G46" s="18"/>
       <c r="H46" s="21"/>
       <c r="I46" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K46" s="33"/>
       <c r="L46" s="34">
@@ -28018,24 +28060,24 @@
       </c>
       <c r="M46" s="36"/>
       <c r="N46" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O46" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>111</v>
@@ -28046,10 +28088,10 @@
       <c r="G47" s="18"/>
       <c r="H47" s="21"/>
       <c r="I47" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K47" s="33"/>
       <c r="L47" s="34">
@@ -28057,24 +28099,24 @@
       </c>
       <c r="M47" s="36"/>
       <c r="N47" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>111</v>
@@ -28085,31 +28127,31 @@
       <c r="G48" s="18"/>
       <c r="H48" s="21"/>
       <c r="I48" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="33"/>
       <c r="L48" s="34"/>
       <c r="M48" s="36"/>
       <c r="N48" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O48" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>111</v>
@@ -28118,31 +28160,31 @@
       <c r="G49" s="18"/>
       <c r="H49" s="21"/>
       <c r="I49" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J49" s="32"/>
       <c r="K49" s="33"/>
       <c r="L49" s="34"/>
       <c r="M49" s="36"/>
       <c r="N49" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>111</v>
@@ -28153,31 +28195,31 @@
       <c r="G50" s="18"/>
       <c r="H50" s="21"/>
       <c r="I50" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J50" s="32"/>
       <c r="K50" s="33"/>
       <c r="L50" s="34"/>
       <c r="M50" s="36"/>
       <c r="N50" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>111</v>
@@ -28188,31 +28230,31 @@
       <c r="G51" s="18"/>
       <c r="H51" s="20"/>
       <c r="I51" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J51" s="32"/>
       <c r="K51" s="33"/>
       <c r="L51" s="34"/>
       <c r="M51" s="37"/>
       <c r="N51" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O51" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>111</v>
@@ -28221,31 +28263,31 @@
       <c r="G52" s="18"/>
       <c r="H52" s="20"/>
       <c r="I52" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J52" s="32"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
       <c r="M52" s="37"/>
       <c r="N52" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="O52" s="17" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E53" s="18" t="s">
         <v>111</v>
@@ -28256,17 +28298,17 @@
       <c r="G53" s="18"/>
       <c r="H53" s="20"/>
       <c r="I53" s="31" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J53" s="32"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
       <c r="M53" s="91"/>
       <c r="N53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O53" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -28304,7 +28346,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L16 A7:B16 D7:H16 D34:H34 A34:B34 K34:L34 K38:L46 A38:B46 D38:H46">
+  <conditionalFormatting sqref="K7:L16 A7:B16 D7:H16 D34:H34 A34:B34 K34:L34 K38:L38 A38:B46 D38:H46 K40:L46 L39">
     <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -28513,7 +28555,7 @@
         <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>98</v>
@@ -28522,7 +28564,7 @@
         <v>99</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G1" t="s">
         <v>102</v>
@@ -28540,97 +28582,97 @@
         <v>8</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>345</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="88" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="K2" s="129">
+        <v>502</v>
+      </c>
+      <c r="K2" s="107">
         <v>42821</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="K3" s="130">
+        <v>502</v>
+      </c>
+      <c r="K3" s="108">
         <v>42821</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -28639,26 +28681,26 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>112</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -28667,26 +28709,26 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -28695,26 +28737,26 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -28723,26 +28765,26 @@
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -28751,26 +28793,26 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -28779,26 +28821,26 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -28807,26 +28849,26 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -28835,26 +28877,26 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -28863,26 +28905,26 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -28891,26 +28933,26 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -28919,26 +28961,26 @@
     </row>
     <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -28947,26 +28989,26 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -28975,26 +29017,26 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -29003,26 +29045,26 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -29031,26 +29073,26 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -29059,26 +29101,26 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -29087,26 +29129,26 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -29115,26 +29157,26 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -29143,26 +29185,26 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -29171,26 +29213,26 @@
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -29199,26 +29241,26 @@
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -29227,26 +29269,26 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -29255,26 +29297,26 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -29283,26 +29325,26 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -29378,7 +29420,7 @@
         <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>98</v>
@@ -29387,13 +29429,13 @@
         <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
         <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
         <v>105</v>
@@ -29404,107 +29446,107 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -29540,63 +29582,63 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129">
+      <c r="A4" s="107">
         <v>42821</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="106" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="106" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="106" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="106" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="106" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="106" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="128" t="s">
+    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="106" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="128" t="s">
+    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="106" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="128" t="s">
+    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="106" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128" t="s">
+    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="106" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="128" t="s">
+    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="106" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="128" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="128" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -29615,33 +29657,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="117"/>
-    <col min="4" max="4" width="13.21875" style="117" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="117"/>
-    <col min="8" max="8" width="46.6640625" style="117" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="117"/>
+    <col min="1" max="1" width="11.6640625" style="95" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="95"/>
+    <col min="4" max="4" width="13.21875" style="95" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="95"/>
+    <col min="8" max="8" width="46.6640625" style="95" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="95"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>503</v>
+      <c r="A1" s="94" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118">
+      <c r="A2" s="96">
         <v>42821</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
+      <c r="A6" s="97"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
+      <c r="A7" s="97"/>
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -29651,34 +29693,34 @@
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="119"/>
+      <c r="A13" s="97"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
+      <c r="A14" s="97"/>
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="119"/>
+      <c r="A19" s="97"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="119"/>
+      <c r="A20" s="97"/>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="89" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -29687,11 +29729,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="119"/>
+      <c r="A27" s="97"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="120" t="s">
-        <v>481</v>
+      <c r="A28" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29700,193 +29742,193 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="121" t="s">
-        <v>273</v>
+      <c r="A29" s="99" t="s">
+        <v>269</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="122">
+      <c r="E29" s="100">
         <v>1</v>
       </c>
       <c r="F29" s="7"/>
       <c r="H29" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="121" t="s">
-        <v>281</v>
+      <c r="A30" s="99" t="s">
+        <v>277</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="122">
+      <c r="E30" s="100">
         <v>2</v>
       </c>
       <c r="F30" s="7"/>
       <c r="H30" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="121" t="s">
-        <v>253</v>
+      <c r="A31" s="99" t="s">
+        <v>249</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="122">
+      <c r="E31" s="100">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
       <c r="H31" s="18" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="121" t="s">
-        <v>249</v>
+      <c r="A32" s="99" t="s">
+        <v>245</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="122">
+      <c r="E32" s="100">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
       <c r="H32" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="121" t="s">
-        <v>169</v>
+      <c r="A33" s="99" t="s">
+        <v>167</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="122">
+      <c r="E33" s="100">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
       <c r="H33" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="121" t="s">
-        <v>241</v>
+      <c r="A34" s="99" t="s">
+        <v>237</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="122">
+      <c r="E34" s="100">
         <v>6</v>
       </c>
       <c r="F34" s="7"/>
       <c r="H34" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="121" t="s">
-        <v>197</v>
+      <c r="A35" s="99" t="s">
+        <v>193</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="122">
+      <c r="E35" s="100">
         <v>7</v>
       </c>
       <c r="F35" s="7"/>
       <c r="H35" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="121" t="s">
-        <v>482</v>
+      <c r="A36" s="99" t="s">
+        <v>478</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="122">
+      <c r="E36" s="100">
         <v>8</v>
       </c>
       <c r="F36" s="7"/>
       <c r="H36" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="121" t="s">
-        <v>483</v>
+      <c r="A37" s="99" t="s">
+        <v>479</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="122">
+      <c r="E37" s="100">
         <v>9</v>
       </c>
       <c r="F37" s="7"/>
       <c r="H37" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="121" t="s">
-        <v>178</v>
+      <c r="A38" s="99" t="s">
+        <v>176</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="122">
+      <c r="E38" s="100">
         <v>10</v>
       </c>
       <c r="F38" s="7"/>
       <c r="H38" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="121" t="s">
-        <v>484</v>
+      <c r="A39" s="99" t="s">
+        <v>480</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="122">
+      <c r="E39" s="100">
         <v>11</v>
       </c>
       <c r="F39" s="7"/>
       <c r="H39" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="121" t="s">
-        <v>187</v>
+      <c r="A40" s="99" t="s">
+        <v>184</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
-      <c r="E40" s="122">
+      <c r="E40" s="100">
         <v>12</v>
       </c>
       <c r="F40" s="7"/>
       <c r="H40" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="99" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="122">
+      <c r="E41" s="100">
         <v>13</v>
       </c>
       <c r="F41" s="7"/>
@@ -29895,58 +29937,58 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="121" t="s">
-        <v>485</v>
+      <c r="A42" s="99" t="s">
+        <v>481</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="122">
+      <c r="E42" s="100">
         <v>14</v>
       </c>
       <c r="F42" s="7"/>
       <c r="H42" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="121" t="s">
-        <v>206</v>
+      <c r="A43" s="99" t="s">
+        <v>202</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="122">
+      <c r="E43" s="100">
         <v>15</v>
       </c>
       <c r="F43" s="7"/>
       <c r="H43" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="121" t="s">
-        <v>224</v>
+      <c r="A44" s="99" t="s">
+        <v>220</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="122">
+      <c r="E44" s="100">
         <v>16</v>
       </c>
       <c r="F44" s="7"/>
       <c r="H44" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="99" t="s">
         <v>144</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="122">
+      <c r="E45" s="100">
         <v>17</v>
       </c>
       <c r="F45" s="7"/>
@@ -29956,28 +29998,28 @@
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="89" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E48" s="76">
         <v>18</v>
       </c>
-      <c r="H48" s="127" t="s">
-        <v>315</v>
+      <c r="H48" s="105" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="89" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -29986,11 +30028,11 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="119"/>
+      <c r="A51" s="97"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="119" t="s">
-        <v>486</v>
+      <c r="A52" s="97" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -29999,47 +30041,47 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="119"/>
+      <c r="A54" s="97"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="119" t="s">
-        <v>487</v>
+      <c r="A55" s="97" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="89" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="119"/>
+      <c r="A57" s="97"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="119" t="s">
-        <v>489</v>
+      <c r="A58" s="97" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="89" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="119"/>
+      <c r="A60" s="97"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="119" t="s">
-        <v>491</v>
+      <c r="A61" s="97" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="89" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30049,62 +30091,62 @@
     </row>
     <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="89" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="119"/>
+      <c r="A70" s="97"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="119" t="s">
-        <v>492</v>
+      <c r="A71" s="97" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
       <c r="D72" s="75"/>
       <c r="E72" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F72" s="75"/>
     </row>
     <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="92" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
       <c r="D73" s="75"/>
       <c r="E73" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F73" s="75"/>
     </row>
     <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="92" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
       <c r="E74" s="76" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F74" s="75"/>
     </row>
     <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="92" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
       <c r="D75" s="75"/>
       <c r="E75" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F75" s="75"/>
     </row>
@@ -30116,78 +30158,78 @@
       <c r="C76" s="75"/>
       <c r="D76" s="75"/>
       <c r="E76" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F76" s="75"/>
     </row>
     <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E77" s="76"/>
     </row>
     <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="92" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E78" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="89" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E79" s="76"/>
     </row>
     <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="92" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E80" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="119"/>
+      <c r="A81" s="97"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="119" t="s">
-        <v>491</v>
+      <c r="A82" s="97" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="89" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="119"/>
+      <c r="A85" s="97"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="119" t="s">
-        <v>493</v>
+      <c r="A86" s="97" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="89" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="119"/>
+      <c r="A90" s="97"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="119"/>
+      <c r="A91" s="97"/>
     </row>
     <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="93" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B92" s="76"/>
       <c r="C92" s="76"/>
@@ -30196,12 +30238,12 @@
         <v>19</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="93" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B93" s="76"/>
       <c r="C93" s="76"/>
@@ -30210,18 +30252,18 @@
         <v>20</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="124" t="s">
-        <v>494</v>
-      </c>
-      <c r="B94" s="125"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="125"/>
-      <c r="E94" s="125"/>
-      <c r="F94" s="126"/>
+      <c r="A94" s="102" t="s">
+        <v>490</v>
+      </c>
+      <c r="B94" s="103"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="103"/>
+      <c r="F94" s="104"/>
     </row>
     <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="89" t="s">
@@ -30233,168 +30275,168 @@
         <v>144</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="89" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="89" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="89" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="89" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="119"/>
+      <c r="A105" s="97"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="119"/>
+      <c r="A106" s="97"/>
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="89" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="93" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
       <c r="D108" s="75"/>
       <c r="E108" s="76" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F108" s="75"/>
       <c r="G108" s="75"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="119"/>
+      <c r="A111" s="97"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="119"/>
+      <c r="A112" s="97"/>
     </row>
     <row r="113" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="89" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="89" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="89" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="89" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="119"/>
+      <c r="A118" s="97"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="119"/>
+      <c r="A119" s="97"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="119"/>
+      <c r="A122" s="97"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="119"/>
+      <c r="A123" s="97"/>
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="89" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="89" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="89" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="119"/>
+      <c r="A127" s="97"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="119"/>
+      <c r="A128" s="97"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="119"/>
+      <c r="A129" s="97"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="119"/>
+      <c r="A130" s="97"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="119"/>
+      <c r="A131" s="97"/>
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="89" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="119"/>
+      <c r="A134" s="97"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="119"/>
+      <c r="A135" s="97"/>
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="89" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="119"/>
+      <c r="A137" s="97"/>
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="89" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="89" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="89" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30404,105 +30446,105 @@
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="89" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="89" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="123" t="s">
-        <v>502</v>
+      <c r="A145" s="101" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="119"/>
+      <c r="A146" s="97"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="119"/>
+      <c r="A147" s="97"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="119"/>
+      <c r="A148" s="97"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="119"/>
+      <c r="A149" s="97"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="119"/>
+      <c r="A150" s="97"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="119"/>
+      <c r="A151" s="97"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="119"/>
+      <c r="A152" s="97"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="119"/>
+      <c r="A153" s="97"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="119"/>
+      <c r="A154" s="97"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="119"/>
+      <c r="A155" s="97"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="119"/>
+      <c r="A156" s="97"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="119"/>
+      <c r="A157" s="97"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="119"/>
+      <c r="A158" s="97"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="119"/>
+      <c r="A159" s="97"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="119"/>
+      <c r="A160" s="97"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="119"/>
+      <c r="A161" s="97"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="119"/>
+      <c r="A162" s="97"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="119"/>
+      <c r="A163" s="97"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="119"/>
+      <c r="A164" s="97"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="119"/>
+      <c r="A165" s="97"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="119"/>
+      <c r="A166" s="97"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="119"/>
+      <c r="A167" s="97"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="119"/>
+      <c r="A168" s="97"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="119"/>
+      <c r="A169" s="97"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="119"/>
+      <c r="A170" s="97"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="119"/>
+      <c r="A171" s="97"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="119"/>
+      <c r="A172" s="97"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="119"/>
+      <c r="A173" s="97"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="119"/>
+      <c r="A174" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8136" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8136" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="528">
   <si>
     <t>Project</t>
   </si>
@@ -2014,6 +2014,64 @@
   </si>
   <si>
     <t>×イオン導入　→  シミ用新レチノイン酸療法・ CDトレチノイン療法</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>13）</t>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>スマートフォンで表示を崩すHTMLテーブルを画像化。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ガゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>スマートフォンに表示すると横に長すぎて、横にスワイプしたら画面がずれる(画面幅より大きくなる)テーブルは、画像化する。</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="20"/>
+  </si>
+  <si>
+    <t>例）</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
     <phoneticPr fontId="20"/>
   </si>
 </sst>
@@ -2209,6 +2267,7 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2808,7 +2867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3168,6 +3227,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3233,9 +3304,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -5078,16 +5146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>121921</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>198121</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>213361</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>198475</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>99061</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>7975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5110,8 +5178,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2153920" y="40652700"/>
-          <a:ext cx="1615440" cy="685800"/>
+          <a:off x="2065021" y="40690801"/>
+          <a:ext cx="1463040" cy="686154"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7345,6 +7413,56 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>80277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>129541</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>99363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E28C256-569C-421B-BADA-0579D84AD2C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072641" y="56536857"/>
+          <a:ext cx="5372100" cy="1162086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10107,163 +10225,163 @@
     <row r="1" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="121" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="142" t="s">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="121" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
     </row>
     <row r="2" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="140" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="140" t="s">
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="122" t="s">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="122" t="s">
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="123" t="s">
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
     </row>
     <row r="3" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="122" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123" t="s">
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
     </row>
     <row r="4" spans="1:44" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
@@ -13083,8 +13201,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BA284"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A190" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J200" sqref="J200"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J248" sqref="J248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13095,165 +13213,165 @@
     <row r="1" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="131" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="121" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="142" t="s">
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="142"/>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="142"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="121" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="146"/>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="146"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="121"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="121"/>
-      <c r="AJ1" s="121"/>
-      <c r="AK1" s="121"/>
-      <c r="AL1" s="121" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125"/>
+      <c r="AL1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="121"/>
-      <c r="AN1" s="121"/>
-      <c r="AO1" s="121"/>
-      <c r="AP1" s="121"/>
-      <c r="AQ1" s="121"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125"/>
     </row>
     <row r="2" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="48"/>
       <c r="B2" s="48"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="140" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="140" t="s">
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="122" t="s">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="122" t="s">
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="127"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="127"/>
+      <c r="AK2" s="127"/>
+      <c r="AL2" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="123" t="s">
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="127"/>
+      <c r="AQ2" s="127"/>
     </row>
     <row r="3" spans="1:44" s="45" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-      <c r="AF3" s="122" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123" t="s">
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
     </row>
     <row r="4" spans="1:44" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
@@ -21036,10 +21154,10 @@
       <c r="F172" s="54"/>
       <c r="G172" s="54"/>
       <c r="H172" s="54"/>
-      <c r="I172" s="53" t="s">
+      <c r="I172" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="J172" s="65" t="s">
+      <c r="J172" s="67" t="s">
         <v>76</v>
       </c>
       <c r="K172" s="65"/>
@@ -21322,10 +21440,10 @@
       <c r="F178" s="54"/>
       <c r="G178" s="54"/>
       <c r="H178" s="54"/>
-      <c r="I178" s="53" t="s">
+      <c r="I178" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="J178" s="65" t="s">
+      <c r="J178" s="67" t="s">
         <v>78</v>
       </c>
       <c r="K178" s="65"/>
@@ -22357,13 +22475,13 @@
       <c r="F200" s="54"/>
       <c r="G200" s="54"/>
       <c r="H200" s="54"/>
-      <c r="I200" s="53" t="s">
+      <c r="I200" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="J200" s="81" t="s">
+      <c r="J200" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="K200" s="81"/>
+      <c r="K200" s="124"/>
       <c r="L200" s="81"/>
       <c r="M200" s="81"/>
       <c r="N200" s="81"/>
@@ -24376,62 +24494,66 @@
     <row r="243" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="48"/>
       <c r="B243" s="48"/>
-      <c r="C243" s="53"/>
-      <c r="D243" s="54"/>
-      <c r="E243" s="54"/>
-      <c r="F243" s="54"/>
-      <c r="G243" s="54"/>
-      <c r="H243" s="80"/>
-      <c r="I243" s="65"/>
-      <c r="J243" s="65"/>
-      <c r="K243" s="65"/>
-      <c r="L243" s="65"/>
-      <c r="M243" s="65"/>
-      <c r="N243" s="65"/>
-      <c r="O243" s="65"/>
-      <c r="P243" s="65"/>
-      <c r="Q243" s="65"/>
-      <c r="R243" s="65"/>
-      <c r="S243" s="65"/>
-      <c r="T243" s="65"/>
-      <c r="U243" s="65"/>
-      <c r="V243" s="65"/>
-      <c r="W243" s="65"/>
-      <c r="X243" s="65"/>
-      <c r="Y243" s="65"/>
-      <c r="Z243" s="65"/>
-      <c r="AA243" s="65"/>
-      <c r="AB243" s="65"/>
-      <c r="AC243" s="65"/>
-      <c r="AD243" s="65"/>
-      <c r="AE243" s="65"/>
-      <c r="AF243" s="65"/>
-      <c r="AG243" s="65"/>
-      <c r="AH243" s="65"/>
-      <c r="AI243" s="65"/>
-      <c r="AJ243" s="65"/>
-      <c r="AK243" s="65"/>
-      <c r="AL243" s="65"/>
-      <c r="AM243" s="65"/>
-      <c r="AN243" s="65"/>
-      <c r="AO243" s="65"/>
-      <c r="AP243" s="65"/>
-      <c r="AQ243" s="71"/>
+      <c r="C243" s="55"/>
+      <c r="D243" s="56"/>
+      <c r="E243" s="56"/>
+      <c r="F243" s="56"/>
+      <c r="G243" s="56"/>
+      <c r="H243" s="82"/>
+      <c r="I243" s="66"/>
+      <c r="J243" s="66"/>
+      <c r="K243" s="66"/>
+      <c r="L243" s="66"/>
+      <c r="M243" s="66"/>
+      <c r="N243" s="66"/>
+      <c r="O243" s="66"/>
+      <c r="P243" s="66"/>
+      <c r="Q243" s="66"/>
+      <c r="R243" s="66"/>
+      <c r="S243" s="66"/>
+      <c r="T243" s="66"/>
+      <c r="U243" s="66"/>
+      <c r="V243" s="66"/>
+      <c r="W243" s="66"/>
+      <c r="X243" s="66"/>
+      <c r="Y243" s="66"/>
+      <c r="Z243" s="66"/>
+      <c r="AA243" s="66"/>
+      <c r="AB243" s="66"/>
+      <c r="AC243" s="66"/>
+      <c r="AD243" s="66"/>
+      <c r="AE243" s="66"/>
+      <c r="AF243" s="66"/>
+      <c r="AG243" s="66"/>
+      <c r="AH243" s="66"/>
+      <c r="AI243" s="66"/>
+      <c r="AJ243" s="66"/>
+      <c r="AK243" s="66"/>
+      <c r="AL243" s="66"/>
+      <c r="AM243" s="66"/>
+      <c r="AN243" s="66"/>
+      <c r="AO243" s="66"/>
+      <c r="AP243" s="66"/>
+      <c r="AQ243" s="72"/>
       <c r="AR243" s="70"/>
       <c r="BA243" s="70"/>
     </row>
     <row r="244" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="48"/>
       <c r="B244" s="48"/>
-      <c r="C244" s="53"/>
+      <c r="C244" s="122"/>
       <c r="D244" s="54"/>
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
       <c r="G244" s="54"/>
       <c r="H244" s="80"/>
-      <c r="I244" s="65"/>
-      <c r="J244" s="65"/>
-      <c r="K244" s="65"/>
+      <c r="I244" s="79" t="s">
+        <v>524</v>
+      </c>
+      <c r="J244" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="K244" s="67"/>
       <c r="L244" s="65"/>
       <c r="M244" s="65"/>
       <c r="N244" s="65"/>
@@ -24477,7 +24599,9 @@
       <c r="G245" s="54"/>
       <c r="H245" s="80"/>
       <c r="I245" s="65"/>
-      <c r="J245" s="65"/>
+      <c r="J245" s="123" t="s">
+        <v>526</v>
+      </c>
       <c r="K245" s="65"/>
       <c r="L245" s="65"/>
       <c r="M245" s="65"/>
@@ -24571,7 +24695,9 @@
       <c r="G247" s="54"/>
       <c r="H247" s="80"/>
       <c r="I247" s="65"/>
-      <c r="J247" s="65"/>
+      <c r="J247" s="123" t="s">
+        <v>527</v>
+      </c>
       <c r="K247" s="65"/>
       <c r="L247" s="65"/>
       <c r="M247" s="65"/>
@@ -25679,7 +25805,7 @@
   </mergeCells>
   <phoneticPr fontId="20"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -25692,7 +25818,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
@@ -25763,11 +25889,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AD53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.21875" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
@@ -25784,7 +25910,7 @@
     <col min="14" max="15" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>95</v>
       </c>
@@ -25831,7 +25957,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>107</v>
       </c>
@@ -25878,7 +26004,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>117</v>
       </c>
@@ -25923,7 +26049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
@@ -25964,7 +26090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>154</v>
       </c>
@@ -26007,7 +26133,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>159</v>
       </c>
@@ -26048,7 +26174,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>168</v>
       </c>
@@ -26091,7 +26217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>204</v>
       </c>
@@ -26132,7 +26258,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>212</v>
       </c>
@@ -26175,7 +26301,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>435</v>
       </c>
@@ -26220,7 +26346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>226</v>
       </c>
@@ -26261,7 +26387,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>282</v>
       </c>
@@ -26304,7 +26430,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>303</v>
       </c>
@@ -26347,7 +26473,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="70.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>312</v>
       </c>
@@ -26402,7 +26528,7 @@
       <c r="AC14" s="110"/>
       <c r="AD14" s="110"/>
     </row>
-    <row r="15" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>329</v>
       </c>
@@ -26455,7 +26581,7 @@
       <c r="AC15" s="110"/>
       <c r="AD15" s="110"/>
     </row>
-    <row r="16" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>334</v>
       </c>
@@ -26508,7 +26634,7 @@
       <c r="AC16" s="110"/>
       <c r="AD16" s="110"/>
     </row>
-    <row r="17" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
         <v>132</v>
       </c>
@@ -26559,7 +26685,7 @@
       <c r="AC17" s="110"/>
       <c r="AD17" s="110"/>
     </row>
-    <row r="18" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="113" t="s">
         <v>137</v>
       </c>
@@ -26613,7 +26739,7 @@
       <c r="AC18" s="112"/>
       <c r="AD18" s="112"/>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="113" t="s">
         <v>141</v>
       </c>
@@ -26667,7 +26793,7 @@
       <c r="AC19" s="112"/>
       <c r="AD19" s="112"/>
     </row>
-    <row r="20" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="113" t="s">
         <v>173</v>
       </c>
@@ -26721,7 +26847,7 @@
       <c r="AC20" s="112"/>
       <c r="AD20" s="112"/>
     </row>
-    <row r="21" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="113" t="s">
         <v>181</v>
       </c>
@@ -26775,7 +26901,7 @@
       <c r="AC21" s="112"/>
       <c r="AD21" s="112"/>
     </row>
-    <row r="22" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="113" t="s">
         <v>190</v>
       </c>
@@ -26829,7 +26955,7 @@
       <c r="AC22" s="112"/>
       <c r="AD22" s="112"/>
     </row>
-    <row r="23" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="113" t="s">
         <v>199</v>
       </c>
@@ -26883,7 +27009,7 @@
       <c r="AC23" s="112"/>
       <c r="AD23" s="112"/>
     </row>
-    <row r="24" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="113" t="s">
         <v>230</v>
       </c>
@@ -26937,7 +27063,7 @@
       <c r="AC24" s="112"/>
       <c r="AD24" s="112"/>
     </row>
-    <row r="25" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="113" t="s">
         <v>234</v>
       </c>
@@ -26991,7 +27117,7 @@
       <c r="AC25" s="112"/>
       <c r="AD25" s="112"/>
     </row>
-    <row r="26" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="113" t="s">
         <v>238</v>
       </c>
@@ -27045,7 +27171,7 @@
       <c r="AC26" s="112"/>
       <c r="AD26" s="112"/>
     </row>
-    <row r="27" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="113" t="s">
         <v>242</v>
       </c>
@@ -27099,7 +27225,7 @@
       <c r="AC27" s="112"/>
       <c r="AD27" s="112"/>
     </row>
-    <row r="28" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="113" t="s">
         <v>246</v>
       </c>
@@ -27153,7 +27279,7 @@
       <c r="AC28" s="112"/>
       <c r="AD28" s="112"/>
     </row>
-    <row r="29" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="113" t="s">
         <v>250</v>
       </c>
@@ -27207,7 +27333,7 @@
       <c r="AC29" s="112"/>
       <c r="AD29" s="112"/>
     </row>
-    <row r="30" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="113" t="s">
         <v>254</v>
       </c>
@@ -27261,7 +27387,7 @@
       <c r="AC30" s="112"/>
       <c r="AD30" s="112"/>
     </row>
-    <row r="31" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="113" t="s">
         <v>258</v>
       </c>
@@ -27315,7 +27441,7 @@
       <c r="AC31" s="112"/>
       <c r="AD31" s="112"/>
     </row>
-    <row r="32" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="113" t="s">
         <v>274</v>
       </c>
@@ -27369,7 +27495,7 @@
       <c r="AC32" s="112"/>
       <c r="AD32" s="112"/>
     </row>
-    <row r="33" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="113" t="s">
         <v>299</v>
       </c>
@@ -27419,7 +27545,7 @@
       <c r="AC33" s="112"/>
       <c r="AD33" s="112"/>
     </row>
-    <row r="34" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
         <v>308</v>
       </c>
@@ -27467,7 +27593,7 @@
       <c r="AC34" s="110"/>
       <c r="AD34" s="110"/>
     </row>
-    <row r="35" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="113" t="s">
         <v>164</v>
       </c>
@@ -27521,7 +27647,7 @@
       <c r="AC35" s="112"/>
       <c r="AD35" s="112"/>
     </row>
-    <row r="36" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="113" t="s">
         <v>217</v>
       </c>
@@ -27575,7 +27701,7 @@
       <c r="AC36" s="112"/>
       <c r="AD36" s="112"/>
     </row>
-    <row r="37" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="113" t="s">
         <v>266</v>
       </c>
@@ -27629,7 +27755,7 @@
       <c r="AC37" s="112"/>
       <c r="AD37" s="112"/>
     </row>
-    <row r="38" spans="1:30" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>122</v>
       </c>
@@ -27680,7 +27806,7 @@
       <c r="AC38" s="110"/>
       <c r="AD38" s="110"/>
     </row>
-    <row r="39" spans="1:30" ht="62.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>145</v>
       </c>
@@ -27707,7 +27833,7 @@
       <c r="J39" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="K39" s="143" t="s">
+      <c r="K39" s="121" t="s">
         <v>521</v>
       </c>
       <c r="L39" s="34">
@@ -27731,7 +27857,7 @@
       <c r="AC39" s="110"/>
       <c r="AD39" s="110"/>
     </row>
-    <row r="40" spans="1:30" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
@@ -27782,7 +27908,7 @@
       <c r="AC40" s="110"/>
       <c r="AD40" s="110"/>
     </row>
-    <row r="41" spans="1:30" ht="59.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>177</v>
       </c>
@@ -27833,7 +27959,7 @@
       <c r="AC41" s="110"/>
       <c r="AD41" s="110"/>
     </row>
-    <row r="42" spans="1:30" ht="103.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>185</v>
       </c>
@@ -27886,7 +28012,7 @@
       <c r="AC42" s="110"/>
       <c r="AD42" s="110"/>
     </row>
-    <row r="43" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -27939,7 +28065,7 @@
       <c r="AC43" s="110"/>
       <c r="AD43" s="110"/>
     </row>
-    <row r="44" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>208</v>
       </c>
@@ -27988,7 +28114,7 @@
       <c r="AC44" s="110"/>
       <c r="AD44" s="110"/>
     </row>
-    <row r="45" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>262</v>
       </c>
@@ -28027,7 +28153,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>270</v>
       </c>
@@ -28066,7 +28192,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:30" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" s="10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>278</v>
       </c>
@@ -28105,7 +28231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>287</v>
       </c>
@@ -28140,7 +28266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>291</v>
       </c>
@@ -28173,7 +28299,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>295</v>
       </c>
@@ -28208,7 +28334,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>317</v>
       </c>
@@ -28243,7 +28369,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>321</v>
       </c>
@@ -28276,7 +28402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>325</v>
       </c>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="542">
   <si>
     <t>Project</t>
   </si>
@@ -1973,6 +1973,42 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>エセリスカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>カクテルリフト</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>リフトアップカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>リップカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>リフトアップカクテル注射 - アンチエイジングなら神戸三宮「柴田美容皮膚科クリニック」-シミ・しわ・くま・たるみ研究所</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>新毛穴レスカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/poreless_cocktail.html</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>ジュビダームビスタカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>ＰＲＰカクテル注射</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -2727,7 +2763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3149,6 +3185,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -25605,8 +25644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26363,7 +26402,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>197</v>
+        <v>533</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>116</v>
@@ -26416,7 +26455,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>201</v>
+        <v>534</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>116</v>
@@ -26575,7 +26614,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>213</v>
+        <v>535</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>116</v>
@@ -26628,7 +26667,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>217</v>
+        <v>536</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>116</v>
@@ -26681,7 +26720,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>222</v>
+        <v>537</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>116</v>
@@ -26787,7 +26826,7 @@
         <v>229</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>230</v>
+        <v>538</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>116</v>
@@ -27149,7 +27188,7 @@
     </row>
     <row r="33" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>255</v>
+        <v>539</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>256</v>
@@ -27206,8 +27245,8 @@
       <c r="C34" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>262</v>
+      <c r="D34" s="142" t="s">
+        <v>541</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>116</v>
@@ -27360,7 +27399,7 @@
         <v>273</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>274</v>
+        <v>540</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>116</v>
@@ -28291,8 +28330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -29526,7 +29565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -29605,8 +29644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="544">
   <si>
     <t>Project</t>
   </si>
@@ -1170,9 +1170,6 @@
     <t>CDトレチノイン療法　～遠隔地治療～</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
     <t>×</t>
   </si>
   <si>
@@ -2009,6 +2006,21 @@
   </si>
   <si>
     <t>ＰＲＰカクテル注射</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-cd_enkakuchi/</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>概要ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -3120,11 +3132,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3186,8 +3195,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -9983,163 +9995,163 @@
     <row r="1" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="120" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="121" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="120" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120" t="s">
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
     </row>
     <row r="2" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="139" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="139" t="s">
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="122" t="s">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="122" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="123" t="s">
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
     </row>
     <row r="3" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
       <c r="B3" s="81"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="122" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123" t="s">
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
     </row>
     <row r="4" spans="1:44" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
@@ -12926,6 +12938,8 @@
     <row r="78" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
@@ -12942,8 +12956,6 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12970,165 +12982,165 @@
     <row r="1" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="130" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="120" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="121" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
-      <c r="X1" s="121"/>
-      <c r="Y1" s="121"/>
-      <c r="Z1" s="121"/>
-      <c r="AA1" s="121"/>
-      <c r="AB1" s="121"/>
-      <c r="AC1" s="121"/>
-      <c r="AD1" s="121"/>
-      <c r="AE1" s="121"/>
-      <c r="AF1" s="120" t="s">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120" t="s">
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
     </row>
     <row r="2" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="139" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="139" t="s">
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="122" t="s">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="123"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="123"/>
-      <c r="AL2" s="122" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="123" t="s">
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="123"/>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
     </row>
     <row r="3" spans="1:44" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
       <c r="B3" s="81"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="141"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="122" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="122"/>
-      <c r="AH3" s="123"/>
-      <c r="AI3" s="123"/>
-      <c r="AJ3" s="123"/>
-      <c r="AK3" s="123"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123" t="s">
+      <c r="AM3" s="121"/>
+      <c r="AN3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="123"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="123"/>
+      <c r="AO3" s="122"/>
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
     </row>
     <row r="4" spans="1:44" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
@@ -25541,6 +25553,8 @@
     <row r="284" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
@@ -25557,8 +25571,6 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25642,30 +25654,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="36.44140625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="39" customWidth="1"/>
-    <col min="13" max="13" width="57.109375" customWidth="1"/>
-    <col min="14" max="14" width="30.21875" customWidth="1"/>
+    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="36.44140625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="57.109375" customWidth="1"/>
+    <col min="15" max="15" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>99</v>
       </c>
@@ -25696,20 +25708,23 @@
       <c r="J1" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>112</v>
       </c>
@@ -25740,20 +25755,21 @@
       <c r="J2" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="59">
+      <c r="M2" s="59">
         <v>42803</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>122</v>
       </c>
@@ -25782,20 +25798,21 @@
       <c r="J3" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="59">
+      <c r="M3" s="59">
         <v>42803</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="N3" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="O3" s="43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>127</v>
       </c>
@@ -25822,18 +25839,19 @@
       <c r="J4" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59">
+      <c r="K4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="59">
         <v>42802</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="N4" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>131</v>
       </c>
@@ -25862,18 +25880,19 @@
       <c r="J5" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59">
+      <c r="K5" s="57"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="59">
         <v>42802</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="N5" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="O5" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>136</v>
       </c>
@@ -25881,7 +25900,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>139</v>
@@ -25900,18 +25919,19 @@
       <c r="J6" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59">
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59">
         <v>42796</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="N6" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="O6" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
@@ -25940,18 +25960,19 @@
       <c r="J7" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59">
+      <c r="K7" s="57"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59">
         <v>42803</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="O7" s="30" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>145</v>
       </c>
@@ -25978,18 +25999,19 @@
       <c r="J8" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="59">
+      <c r="K8" s="57"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="59">
         <v>42794</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="N8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>149</v>
       </c>
@@ -26018,18 +26040,19 @@
       <c r="J9" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59">
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59">
         <v>42803</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="O9" s="43" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>154</v>
       </c>
@@ -26058,20 +26081,21 @@
       <c r="J10" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="57"/>
+      <c r="L10" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="59">
+      <c r="M10" s="59">
         <v>42803</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="N10" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="O10" s="43" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>160</v>
       </c>
@@ -26098,18 +26122,19 @@
       <c r="J11" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59">
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59">
         <v>42802</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="N11" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="O11" s="43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>164</v>
       </c>
@@ -26138,18 +26163,19 @@
       <c r="J12" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59">
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59">
         <v>42800</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="N12" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="O12" s="43" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>169</v>
       </c>
@@ -26176,20 +26202,21 @@
       <c r="J13" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="57"/>
+      <c r="L13" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="59">
+      <c r="M13" s="59">
         <v>42803</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="N13" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="O13" s="43" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>174</v>
       </c>
@@ -26218,19 +26245,19 @@
       <c r="J14" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="57"/>
+      <c r="L14" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="59">
+      <c r="M14" s="59">
         <v>42803</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="N14" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="N14" s="43" t="s">
+      <c r="O14" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="T14" s="71"/>
       <c r="U14" s="71"/>
       <c r="V14" s="71"/>
       <c r="W14" s="71"/>
@@ -26240,8 +26267,9 @@
       <c r="AA14" s="71"/>
       <c r="AB14" s="71"/>
       <c r="AC14" s="71"/>
-    </row>
-    <row r="15" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD14" s="71"/>
+    </row>
+    <row r="15" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>179</v>
       </c>
@@ -26268,19 +26296,19 @@
       <c r="J15" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="57"/>
+      <c r="L15" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="L15" s="59">
+      <c r="M15" s="59">
         <v>42803</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="O15" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="T15" s="71"/>
       <c r="U15" s="71"/>
       <c r="V15" s="71"/>
       <c r="W15" s="71"/>
@@ -26290,8 +26318,9 @@
       <c r="AA15" s="71"/>
       <c r="AB15" s="71"/>
       <c r="AC15" s="71"/>
-    </row>
-    <row r="16" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="71"/>
+    </row>
+    <row r="16" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>184</v>
       </c>
@@ -26318,19 +26347,19 @@
       <c r="J16" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="57"/>
+      <c r="L16" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="L16" s="59">
+      <c r="M16" s="59">
         <v>42803</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="43" t="s">
+      <c r="O16" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="T16" s="71"/>
       <c r="U16" s="71"/>
       <c r="V16" s="71"/>
       <c r="W16" s="71"/>
@@ -26340,8 +26369,9 @@
       <c r="AA16" s="71"/>
       <c r="AB16" s="71"/>
       <c r="AC16" s="71"/>
-    </row>
-    <row r="17" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD16" s="71"/>
+    </row>
+    <row r="17" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>189</v>
       </c>
@@ -26370,17 +26400,17 @@
       <c r="J17" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="62" t="s">
+      <c r="K17" s="61"/>
+      <c r="L17" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="49"/>
+      <c r="N17" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N17" s="50" t="s">
+      <c r="O17" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="T17" s="71"/>
       <c r="U17" s="71"/>
       <c r="V17" s="71"/>
       <c r="W17" s="71"/>
@@ -26390,8 +26420,9 @@
       <c r="AA17" s="71"/>
       <c r="AB17" s="71"/>
       <c r="AC17" s="71"/>
-    </row>
-    <row r="18" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD17" s="71"/>
+    </row>
+    <row r="18" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
         <v>194</v>
       </c>
@@ -26402,7 +26433,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>116</v>
@@ -26418,33 +26449,34 @@
       <c r="J18" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66">
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66">
         <v>42796</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="N18" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="O18" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="67"/>
       <c r="P18" s="67"/>
       <c r="Q18" s="67"/>
       <c r="R18" s="67"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="73"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="72"/>
       <c r="U18" s="73"/>
       <c r="V18" s="73"/>
       <c r="W18" s="73"/>
       <c r="X18" s="73"/>
-      <c r="Y18" s="74"/>
+      <c r="Y18" s="73"/>
       <c r="Z18" s="74"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="74"/>
       <c r="AC18" s="74"/>
-    </row>
-    <row r="19" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD18" s="74"/>
+    </row>
+    <row r="19" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
         <v>198</v>
       </c>
@@ -26455,7 +26487,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>116</v>
@@ -26471,33 +26503,34 @@
       <c r="J19" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66">
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66">
         <v>42796</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="N19" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="O19" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="O19" s="67"/>
       <c r="P19" s="67"/>
       <c r="Q19" s="67"/>
       <c r="R19" s="67"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="73"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="72"/>
       <c r="U19" s="73"/>
       <c r="V19" s="73"/>
       <c r="W19" s="73"/>
       <c r="X19" s="73"/>
-      <c r="Y19" s="74"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
       <c r="AB19" s="74"/>
       <c r="AC19" s="74"/>
-    </row>
-    <row r="20" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD19" s="74"/>
+    </row>
+    <row r="20" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
         <v>202</v>
       </c>
@@ -26524,33 +26557,34 @@
       <c r="J20" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66">
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66">
         <v>42796</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="N20" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="O20" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="O20" s="67"/>
       <c r="P20" s="67"/>
       <c r="Q20" s="67"/>
       <c r="R20" s="67"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="73"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="72"/>
       <c r="U20" s="73"/>
       <c r="V20" s="73"/>
       <c r="W20" s="73"/>
       <c r="X20" s="73"/>
-      <c r="Y20" s="74"/>
+      <c r="Y20" s="73"/>
       <c r="Z20" s="74"/>
       <c r="AA20" s="74"/>
       <c r="AB20" s="74"/>
       <c r="AC20" s="74"/>
-    </row>
-    <row r="21" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD20" s="74"/>
+    </row>
+    <row r="21" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
         <v>206</v>
       </c>
@@ -26577,33 +26611,34 @@
       <c r="J21" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="65"/>
-      <c r="L21" s="66">
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="66">
         <v>42797</v>
       </c>
-      <c r="M21" s="52" t="s">
+      <c r="N21" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="O21" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="O21" s="67"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="67"/>
       <c r="R21" s="67"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="73"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="72"/>
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
       <c r="W21" s="73"/>
       <c r="X21" s="73"/>
-      <c r="Y21" s="74"/>
+      <c r="Y21" s="73"/>
       <c r="Z21" s="74"/>
       <c r="AA21" s="74"/>
       <c r="AB21" s="74"/>
       <c r="AC21" s="74"/>
-    </row>
-    <row r="22" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD21" s="74"/>
+    </row>
+    <row r="22" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
         <v>210</v>
       </c>
@@ -26614,7 +26649,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>116</v>
@@ -26630,33 +26665,34 @@
       <c r="J22" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66">
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66">
         <v>42797</v>
       </c>
-      <c r="M22" s="52" t="s">
+      <c r="N22" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="O22" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="O22" s="67"/>
       <c r="P22" s="67"/>
       <c r="Q22" s="67"/>
       <c r="R22" s="67"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="73"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="72"/>
       <c r="U22" s="73"/>
       <c r="V22" s="73"/>
       <c r="W22" s="73"/>
       <c r="X22" s="73"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="73"/>
       <c r="Z22" s="74"/>
       <c r="AA22" s="74"/>
       <c r="AB22" s="74"/>
       <c r="AC22" s="74"/>
-    </row>
-    <row r="23" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD22" s="74"/>
+    </row>
+    <row r="23" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
         <v>214</v>
       </c>
@@ -26667,7 +26703,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>116</v>
@@ -26683,33 +26719,34 @@
       <c r="J23" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66">
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66">
         <v>42794</v>
       </c>
-      <c r="M23" s="52" t="s">
+      <c r="N23" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="N23" s="53" t="s">
+      <c r="O23" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="O23" s="67"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="67"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="73"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="72"/>
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
       <c r="W23" s="73"/>
       <c r="X23" s="73"/>
-      <c r="Y23" s="74"/>
+      <c r="Y23" s="73"/>
       <c r="Z23" s="74"/>
       <c r="AA23" s="74"/>
       <c r="AB23" s="74"/>
       <c r="AC23" s="74"/>
-    </row>
-    <row r="24" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD23" s="74"/>
+    </row>
+    <row r="24" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
         <v>219</v>
       </c>
@@ -26720,7 +26757,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>116</v>
@@ -26736,33 +26773,34 @@
       <c r="J24" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66">
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66">
         <v>42796</v>
       </c>
-      <c r="M24" s="52" t="s">
+      <c r="N24" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="N24" s="53" t="s">
+      <c r="O24" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="O24" s="67"/>
       <c r="P24" s="67"/>
       <c r="Q24" s="67"/>
       <c r="R24" s="67"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="73"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="72"/>
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
       <c r="W24" s="73"/>
       <c r="X24" s="73"/>
-      <c r="Y24" s="74"/>
+      <c r="Y24" s="73"/>
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
       <c r="AB24" s="74"/>
       <c r="AC24" s="74"/>
-    </row>
-    <row r="25" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD24" s="74"/>
+    </row>
+    <row r="25" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
         <v>223</v>
       </c>
@@ -26789,33 +26827,34 @@
       <c r="J25" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66">
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66">
         <v>42796</v>
       </c>
-      <c r="M25" s="52" t="s">
+      <c r="N25" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="O25" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="O25" s="67"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="67"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="73"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="72"/>
       <c r="U25" s="73"/>
       <c r="V25" s="73"/>
       <c r="W25" s="73"/>
       <c r="X25" s="73"/>
-      <c r="Y25" s="74"/>
+      <c r="Y25" s="73"/>
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
       <c r="AB25" s="74"/>
       <c r="AC25" s="74"/>
-    </row>
-    <row r="26" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD25" s="74"/>
+    </row>
+    <row r="26" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
         <v>227</v>
       </c>
@@ -26826,7 +26865,7 @@
         <v>229</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>116</v>
@@ -26842,33 +26881,34 @@
       <c r="J26" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66">
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66">
         <v>42796</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="N26" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="53" t="s">
+      <c r="O26" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="O26" s="67"/>
       <c r="P26" s="67"/>
       <c r="Q26" s="67"/>
       <c r="R26" s="67"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="73"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="72"/>
       <c r="U26" s="73"/>
       <c r="V26" s="73"/>
       <c r="W26" s="73"/>
       <c r="X26" s="73"/>
-      <c r="Y26" s="74"/>
+      <c r="Y26" s="73"/>
       <c r="Z26" s="74"/>
       <c r="AA26" s="74"/>
       <c r="AB26" s="74"/>
       <c r="AC26" s="74"/>
-    </row>
-    <row r="27" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD26" s="74"/>
+    </row>
+    <row r="27" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
         <v>231</v>
       </c>
@@ -26895,33 +26935,34 @@
       <c r="J27" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66">
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66">
         <v>42796</v>
       </c>
-      <c r="M27" s="52" t="s">
+      <c r="N27" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="O27" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="O27" s="67"/>
       <c r="P27" s="67"/>
       <c r="Q27" s="67"/>
       <c r="R27" s="67"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="73"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="72"/>
       <c r="U27" s="73"/>
       <c r="V27" s="73"/>
       <c r="W27" s="73"/>
       <c r="X27" s="73"/>
-      <c r="Y27" s="74"/>
+      <c r="Y27" s="73"/>
       <c r="Z27" s="74"/>
       <c r="AA27" s="74"/>
       <c r="AB27" s="74"/>
       <c r="AC27" s="74"/>
-    </row>
-    <row r="28" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD27" s="74"/>
+    </row>
+    <row r="28" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
         <v>235</v>
       </c>
@@ -26948,33 +26989,34 @@
       <c r="J28" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66">
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66">
         <v>42796</v>
       </c>
-      <c r="M28" s="52" t="s">
+      <c r="N28" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="O28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="O28" s="67"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="67"/>
       <c r="R28" s="67"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="73"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="72"/>
       <c r="U28" s="73"/>
       <c r="V28" s="73"/>
       <c r="W28" s="73"/>
       <c r="X28" s="73"/>
-      <c r="Y28" s="74"/>
+      <c r="Y28" s="73"/>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
       <c r="AB28" s="74"/>
       <c r="AC28" s="74"/>
-    </row>
-    <row r="29" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD28" s="74"/>
+    </row>
+    <row r="29" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>239</v>
       </c>
@@ -27001,33 +27043,34 @@
       <c r="J29" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66">
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66">
         <v>42796</v>
       </c>
-      <c r="M29" s="52" t="s">
+      <c r="N29" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="O29" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="O29" s="67"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="67"/>
       <c r="R29" s="67"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="73"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="72"/>
       <c r="U29" s="73"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
-      <c r="Y29" s="74"/>
+      <c r="Y29" s="73"/>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
       <c r="AB29" s="74"/>
       <c r="AC29" s="74"/>
-    </row>
-    <row r="30" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD29" s="74"/>
+    </row>
+    <row r="30" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>243</v>
       </c>
@@ -27054,33 +27097,34 @@
       <c r="J30" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66">
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66">
         <v>42796</v>
       </c>
-      <c r="M30" s="52" t="s">
+      <c r="N30" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="O30" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="O30" s="67"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="67"/>
       <c r="R30" s="67"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="73"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="72"/>
       <c r="U30" s="73"/>
       <c r="V30" s="73"/>
       <c r="W30" s="73"/>
       <c r="X30" s="73"/>
-      <c r="Y30" s="74"/>
+      <c r="Y30" s="73"/>
       <c r="Z30" s="74"/>
       <c r="AA30" s="74"/>
       <c r="AB30" s="74"/>
       <c r="AC30" s="74"/>
-    </row>
-    <row r="31" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="74"/>
+    </row>
+    <row r="31" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>247</v>
       </c>
@@ -27107,33 +27151,34 @@
       <c r="J31" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66">
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66">
         <v>42797</v>
       </c>
-      <c r="M31" s="52" t="s">
+      <c r="N31" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="N31" s="53" t="s">
+      <c r="O31" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="O31" s="67"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="67"/>
       <c r="R31" s="67"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="73"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="72"/>
       <c r="U31" s="73"/>
       <c r="V31" s="73"/>
       <c r="W31" s="73"/>
       <c r="X31" s="73"/>
-      <c r="Y31" s="74"/>
+      <c r="Y31" s="73"/>
       <c r="Z31" s="74"/>
       <c r="AA31" s="74"/>
       <c r="AB31" s="74"/>
       <c r="AC31" s="74"/>
-    </row>
-    <row r="32" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="74"/>
+    </row>
+    <row r="32" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>251</v>
       </c>
@@ -27160,35 +27205,36 @@
       <c r="J32" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66">
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66">
         <v>42797</v>
       </c>
-      <c r="M32" s="52" t="s">
+      <c r="N32" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="N32" s="68" t="s">
+      <c r="O32" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="O32" s="67"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="67"/>
       <c r="R32" s="67"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="73"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="72"/>
       <c r="U32" s="73"/>
       <c r="V32" s="73"/>
       <c r="W32" s="73"/>
       <c r="X32" s="73"/>
-      <c r="Y32" s="74"/>
+      <c r="Y32" s="73"/>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
       <c r="AB32" s="74"/>
       <c r="AC32" s="74"/>
-    </row>
-    <row r="33" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD32" s="74"/>
+    </row>
+    <row r="33" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>256</v>
@@ -27211,31 +27257,32 @@
         <v>193</v>
       </c>
       <c r="J33" s="64"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="52" t="s">
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="N33" s="68" t="s">
+      <c r="O33" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="O33" s="67"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="67"/>
       <c r="R33" s="67"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="73"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="72"/>
       <c r="U33" s="73"/>
       <c r="V33" s="73"/>
       <c r="W33" s="73"/>
       <c r="X33" s="73"/>
-      <c r="Y33" s="74"/>
+      <c r="Y33" s="73"/>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
       <c r="AB33" s="74"/>
       <c r="AC33" s="74"/>
-    </row>
-    <row r="34" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD33" s="74"/>
+    </row>
+    <row r="34" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
         <v>259</v>
       </c>
@@ -27245,8 +27292,8 @@
       <c r="C34" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="142" t="s">
-        <v>541</v>
+      <c r="D34" s="120" t="s">
+        <v>540</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>116</v>
@@ -27258,31 +27305,32 @@
         <v>193</v>
       </c>
       <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="48" t="s">
+      <c r="K34" s="61"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="N34" s="50" t="s">
+      <c r="O34" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="O34" s="67"/>
       <c r="P34" s="67"/>
       <c r="Q34" s="67"/>
       <c r="R34" s="67"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="73"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="72"/>
       <c r="U34" s="73"/>
       <c r="V34" s="73"/>
       <c r="W34" s="73"/>
       <c r="X34" s="73"/>
-      <c r="Y34" s="71"/>
+      <c r="Y34" s="73"/>
       <c r="Z34" s="71"/>
       <c r="AA34" s="71"/>
       <c r="AB34" s="71"/>
       <c r="AC34" s="71"/>
-    </row>
-    <row r="35" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD34" s="71"/>
+    </row>
+    <row r="35" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>263</v>
       </c>
@@ -27309,33 +27357,34 @@
       <c r="J35" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="66">
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66">
         <v>42796</v>
       </c>
-      <c r="M35" s="52" t="s">
+      <c r="N35" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="O35" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="O35" s="67"/>
       <c r="P35" s="67"/>
       <c r="Q35" s="67"/>
       <c r="R35" s="67"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="73"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="72"/>
       <c r="U35" s="73"/>
       <c r="V35" s="73"/>
       <c r="W35" s="73"/>
       <c r="X35" s="73"/>
-      <c r="Y35" s="74"/>
+      <c r="Y35" s="73"/>
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="74"/>
       <c r="AC35" s="74"/>
-    </row>
-    <row r="36" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="74"/>
+    </row>
+    <row r="36" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>267</v>
       </c>
@@ -27362,33 +27411,34 @@
       <c r="J36" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K36" s="65"/>
-      <c r="L36" s="66">
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="66">
         <v>42795</v>
       </c>
-      <c r="M36" s="52" t="s">
+      <c r="N36" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="N36" s="53" t="s">
+      <c r="O36" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="O36" s="67"/>
       <c r="P36" s="67"/>
       <c r="Q36" s="67"/>
       <c r="R36" s="67"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="73"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="72"/>
       <c r="U36" s="73"/>
       <c r="V36" s="73"/>
       <c r="W36" s="73"/>
       <c r="X36" s="73"/>
-      <c r="Y36" s="74"/>
+      <c r="Y36" s="73"/>
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
       <c r="AB36" s="74"/>
       <c r="AC36" s="74"/>
-    </row>
-    <row r="37" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="74"/>
+    </row>
+    <row r="37" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>271</v>
       </c>
@@ -27399,7 +27449,7 @@
         <v>273</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>116</v>
@@ -27415,33 +27465,34 @@
       <c r="J37" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66">
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66">
         <v>42797</v>
       </c>
-      <c r="M37" s="52" t="s">
+      <c r="N37" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="O37" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="O37" s="67"/>
       <c r="P37" s="67"/>
       <c r="Q37" s="67"/>
       <c r="R37" s="67"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="73"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="72"/>
       <c r="U37" s="73"/>
       <c r="V37" s="73"/>
       <c r="W37" s="73"/>
       <c r="X37" s="73"/>
-      <c r="Y37" s="74"/>
+      <c r="Y37" s="73"/>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
       <c r="AB37" s="74"/>
       <c r="AC37" s="74"/>
-    </row>
-    <row r="38" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD37" s="74"/>
+    </row>
+    <row r="38" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>275</v>
       </c>
@@ -27449,7 +27500,7 @@
         <v>276</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>277</v>
+        <v>541</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>278</v>
@@ -27463,24 +27514,24 @@
       <c r="G38" s="10"/>
       <c r="H38" s="46"/>
       <c r="I38" s="56" t="s">
-        <v>279</v>
+        <v>543</v>
       </c>
       <c r="J38" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="K38" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="L38" s="59">
+      <c r="M38" s="59">
         <v>42830</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="N38" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="N38" s="43" t="s">
+      <c r="O38" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="T38" s="71"/>
       <c r="U38" s="71"/>
       <c r="V38" s="71"/>
       <c r="W38" s="71"/>
@@ -27490,19 +27541,20 @@
       <c r="AA38" s="71"/>
       <c r="AB38" s="71"/>
       <c r="AC38" s="71"/>
-    </row>
-    <row r="39" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD38" s="71"/>
+    </row>
+    <row r="39" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>285</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>116</v>
@@ -27513,24 +27565,24 @@
       <c r="G39" s="10"/>
       <c r="H39" s="46"/>
       <c r="I39" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="J39" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="K39" s="69" t="s">
-        <v>286</v>
-      </c>
-      <c r="L39" s="59">
+      <c r="K39" s="29"/>
+      <c r="L39" s="69" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" s="59">
         <v>42830</v>
       </c>
-      <c r="M39" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="N39" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="T39" s="71"/>
+      <c r="N39" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>283</v>
+      </c>
       <c r="U39" s="71"/>
       <c r="V39" s="71"/>
       <c r="W39" s="71"/>
@@ -27540,19 +27592,20 @@
       <c r="AA39" s="71"/>
       <c r="AB39" s="71"/>
       <c r="AC39" s="71"/>
-    </row>
-    <row r="40" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD39" s="71"/>
+    </row>
+    <row r="40" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>116</v>
@@ -27563,24 +27616,24 @@
       <c r="G40" s="10"/>
       <c r="H40" s="46"/>
       <c r="I40" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="J40" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="J40" s="57" t="s">
+      <c r="K40" s="57"/>
+      <c r="L40" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="K40" s="58" t="s">
-        <v>293</v>
-      </c>
-      <c r="L40" s="59">
+      <c r="M40" s="59">
         <v>42830</v>
       </c>
-      <c r="M40" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="T40" s="71"/>
+      <c r="N40" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>288</v>
+      </c>
       <c r="U40" s="71"/>
       <c r="V40" s="71"/>
       <c r="W40" s="71"/>
@@ -27590,19 +27643,20 @@
       <c r="AA40" s="71"/>
       <c r="AB40" s="71"/>
       <c r="AC40" s="71"/>
-    </row>
-    <row r="41" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD40" s="71"/>
+    </row>
+    <row r="41" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="C41" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="D41" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>116</v>
@@ -27613,24 +27667,24 @@
       <c r="G41" s="10"/>
       <c r="H41" s="46"/>
       <c r="I41" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="J41" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="J41" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="K41" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="L41" s="59">
+      <c r="K41" s="57"/>
+      <c r="L41" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" s="59">
         <v>42830</v>
       </c>
-      <c r="M41" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="N41" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="T41" s="71"/>
+      <c r="N41" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>295</v>
+      </c>
       <c r="U41" s="71"/>
       <c r="V41" s="71"/>
       <c r="W41" s="71"/>
@@ -27640,19 +27694,20 @@
       <c r="AA41" s="71"/>
       <c r="AB41" s="71"/>
       <c r="AC41" s="71"/>
-    </row>
-    <row r="42" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD41" s="71"/>
+    </row>
+    <row r="42" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>116</v>
@@ -27662,27 +27717,27 @@
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="I42" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="K42" s="57"/>
+      <c r="L42" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="I42" s="56" t="s">
-        <v>279</v>
-      </c>
-      <c r="J42" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="K42" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="L42" s="59">
+      <c r="M42" s="59">
         <v>42830</v>
       </c>
-      <c r="M42" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="N42" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="T42" s="71"/>
+      <c r="N42" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" s="43" t="s">
+        <v>300</v>
+      </c>
       <c r="U42" s="71"/>
       <c r="V42" s="71"/>
       <c r="W42" s="71"/>
@@ -27692,16 +27747,17 @@
       <c r="AA42" s="71"/>
       <c r="AB42" s="71"/>
       <c r="AC42" s="71"/>
-    </row>
-    <row r="43" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD42" s="71"/>
+    </row>
+    <row r="43" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="C43" s="30" t="s">
         <v>306</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>307</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>118</v>
@@ -27714,27 +27770,27 @@
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="J43" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="57"/>
+      <c r="L43" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="I43" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="K43" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="L43" s="59">
+      <c r="M43" s="59">
         <v>42830</v>
       </c>
-      <c r="M43" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="N43" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="T43" s="71"/>
+      <c r="N43" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>306</v>
+      </c>
       <c r="U43" s="71"/>
       <c r="V43" s="71"/>
       <c r="W43" s="71"/>
@@ -27744,19 +27800,20 @@
       <c r="AA43" s="71"/>
       <c r="AB43" s="71"/>
       <c r="AC43" s="71"/>
-    </row>
-    <row r="44" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD43" s="71"/>
+    </row>
+    <row r="44" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>116</v>
@@ -27772,17 +27829,17 @@
       <c r="J44" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K44" s="58"/>
-      <c r="L44" s="59">
+      <c r="K44" s="57"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="59">
         <v>42830</v>
       </c>
-      <c r="M44" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="N44" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="T44" s="71"/>
+      <c r="N44" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>311</v>
+      </c>
       <c r="U44" s="71"/>
       <c r="V44" s="71"/>
       <c r="W44" s="71"/>
@@ -27792,19 +27849,20 @@
       <c r="AA44" s="71"/>
       <c r="AB44" s="71"/>
       <c r="AC44" s="71"/>
-    </row>
-    <row r="45" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD44" s="71"/>
+    </row>
+    <row r="45" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>317</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>116</v>
@@ -27820,29 +27878,30 @@
       <c r="J45" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K45" s="58"/>
-      <c r="L45" s="59">
+      <c r="K45" s="57"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="59">
         <v>42830</v>
       </c>
-      <c r="M45" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="N45" s="43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>116</v>
@@ -27852,7 +27911,7 @@
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I46" s="56" t="s">
         <v>120</v>
@@ -27860,29 +27919,30 @@
       <c r="J46" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59">
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59">
         <v>42830</v>
       </c>
-      <c r="M46" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N46" s="43" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O46" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>326</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>116</v>
@@ -27898,29 +27958,30 @@
       <c r="J47" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K47" s="58"/>
-      <c r="L47" s="59">
+      <c r="K47" s="57"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="59">
         <v>42830</v>
       </c>
-      <c r="M47" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="N47" s="43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N47" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="D48" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>116</v>
@@ -27936,29 +27997,30 @@
       <c r="J48" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K48" s="58"/>
-      <c r="L48" s="59">
+      <c r="K48" s="57"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="59">
         <v>42830</v>
       </c>
-      <c r="M48" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="N48" s="43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="O48" s="43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>116</v>
@@ -27972,29 +28034,30 @@
       <c r="J49" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K49" s="58"/>
-      <c r="L49" s="59">
+      <c r="K49" s="57"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59">
         <v>42830</v>
       </c>
-      <c r="M49" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="N49" s="43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N49" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="O49" s="43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="D50" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>116</v>
@@ -28010,29 +28073,30 @@
       <c r="J50" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K50" s="58"/>
-      <c r="L50" s="59">
+      <c r="K50" s="57"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="59">
         <v>42830</v>
       </c>
-      <c r="M50" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="N50" s="43" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N50" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="O50" s="43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>116</v>
@@ -28048,29 +28112,30 @@
       <c r="J51" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59">
+      <c r="K51" s="57"/>
+      <c r="L51" s="58"/>
+      <c r="M51" s="59">
         <v>42830</v>
       </c>
-      <c r="M51" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="N51" s="43" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="O51" s="43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D52" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>346</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>116</v>
@@ -28084,29 +28149,30 @@
       <c r="J52" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="59">
+      <c r="K52" s="57"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="59">
         <v>42830</v>
       </c>
-      <c r="M52" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="N52" s="43" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N52" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" s="43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="D53" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>116</v>
@@ -28122,29 +28188,30 @@
       <c r="J53" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K53" s="58"/>
-      <c r="L53" s="59">
+      <c r="K53" s="57"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="59">
         <v>42830</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="N53" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="O53" s="30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" t="s">
         <v>351</v>
       </c>
-      <c r="N53" s="30" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>116</v>
@@ -28160,15 +28227,16 @@
       <c r="J54" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="K54" s="58"/>
-      <c r="L54" s="59">
+      <c r="K54" s="57"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="59">
         <v>42830</v>
       </c>
-      <c r="M54" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="N54" s="70" t="s">
-        <v>528</v>
+      <c r="N54" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="O54" s="70" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -28176,153 +28244,153 @@
     <sortCondition ref="I2:I54"/>
   </sortState>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="M48:N54 M2:N16 A34:N34 M38:N46 K40:K44 A38:J46 K38 D7:L16 D2:K4 A2:C16 D5:L5 A53:B53 D6:E6 K45:K46 C53:E54 A48:E52">
+  <conditionalFormatting sqref="N48:O54 N2:O16 A34:O34 N38:O46 L38 D7:M16 D2:L4 A2:C16 D5:M5 A53:B53 D6:E6 L40:L46 C53:E54 A48:E52 A38:K46">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A38" r:id="rId1" tooltip="http://www.slca-kobe.jp/therapy/cd_enkakuchi.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A4" r:id="rId2" tooltip="http://www.slca-kobe.jp/therapy/cd_toretinoin2.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A17" r:id="rId3" tooltip="http://www.slca-kobe.jp/therapy/cd_tretinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A18" r:id="rId4" tooltip="http://www.slca-kobe.jp/therapy/cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A19" r:id="rId5" tooltip="http://www.slca-kobe.jp/therapy/cocktaillift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A39" r:id="rId6" tooltip="http://www.slca-kobe.jp/therapy/cosmetic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A40" r:id="rId7" tooltip="http://www.slca-kobe.jp/therapy/dark.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="http://www.slca-kobe.jp/therapy/div.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A6" r:id="rId9" tooltip="http://www.slca-kobe.jp/therapy/doctor.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A35" r:id="rId10" tooltip="http://www.slca-kobe.jp/therapy/eye_repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A7" r:id="rId11" tooltip="http://www.slca-kobe.jp/therapy/eyelash.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A20" r:id="rId12" tooltip="http://www.slca-kobe.jp/therapy/fcgp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A41" r:id="rId13" tooltip="http://www.slca-kobe.jp/therapy/fleck.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A21" r:id="rId14" tooltip="http://www.slca-kobe.jp/therapy/frontup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A42" r:id="rId15" tooltip="http://www.slca-kobe.jp/therapy/hyalhiuronan.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A22" r:id="rId16" tooltip="http://www.slca-kobe.jp/therapy/liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A43" r:id="rId17" tooltip="http://www.slca-kobe.jp/therapy/lines.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A23" r:id="rId18" tooltip="http://www.slca-kobe.jp/therapy/lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A8" r:id="rId19" tooltip="http://www.slca-kobe.jp/therapy/meds.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A44" r:id="rId20" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A9" r:id="rId21" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy-body.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A36" r:id="rId22" tooltip="http://www.slca-kobe.jp/therapy/mexococktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A10" r:id="rId23" tooltip="http://www.slca-kobe.jp/therapy/mexolift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A11" r:id="rId24" tooltip="http://www.slca-kobe.jp/therapy/mlm.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A24" r:id="rId25" tooltip="http://www.slca-kobe.jp/therapy/neck_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A25" r:id="rId26" tooltip="http://www.slca-kobe.jp/therapy/new_liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A26" r:id="rId27" tooltip="http://www.slca-kobe.jp/therapy/new_poreless.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A27" r:id="rId28" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A28" r:id="rId29" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair_premium.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A29" r:id="rId30" tooltip="http://www.slca-kobe.jp/therapy/new-frontup.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A30" r:id="rId31" tooltip="http://www.slca-kobe.jp/therapy/new-lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A31" r:id="rId32" tooltip="http://www.slca-kobe.jp/therapy/new-neck.html"/>
-    <hyperlink ref="A45" r:id="rId33" tooltip="http://www.slca-kobe.jp/therapy/new-retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A37" r:id="rId34" tooltip="http://www.slca-kobe.jp/therapy/ojc.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A46" r:id="rId35" tooltip="http://www.slca-kobe.jp/therapy/order_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A32" r:id="rId36" tooltip="http://www.slca-kobe.jp/therapy/ordermade.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A47" r:id="rId37" tooltip="http://www.slca-kobe.jp/therapy/outmost.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A12" r:id="rId38" tooltip="http://www.slca-kobe.jp/therapy/outmost_cosume.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A48" r:id="rId39" tooltip="http://www.slca-kobe.jp/therapy/outmost_guideline.html"/>
-    <hyperlink ref="A49" r:id="rId40" tooltip="http://www.slca-kobe.jp/therapy/outmost_homepiring.html"/>
-    <hyperlink ref="A50" r:id="rId41" tooltip="http://www.slca-kobe.jp/therapy/outmost_retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A33" r:id="rId42" tooltip="http://www.slca-kobe.jp/therapy/poreless_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A13" r:id="rId43" tooltip="http://www.slca-kobe.jp/therapy/prp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A34" r:id="rId44" tooltip="http://www.slca-kobe.jp/therapy/prpcocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A14" r:id="rId45" tooltip="http://www.slca-kobe.jp/therapy/purasentar.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A51" r:id="rId46" tooltip="http://www.slca-kobe.jp/therapy/remote_po.html"/>
-    <hyperlink ref="A52" r:id="rId47" tooltip="http://www.slca-kobe.jp/therapy/retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A53" r:id="rId48" tooltip="http://www.slca-kobe.jp/therapy/shape_bn.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A15" r:id="rId49" tooltip="http://www.slca-kobe.jp/therapy/shiwa_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A16" r:id="rId50" tooltip="http://www.slca-kobe.jp/therapy/spot_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="A2" r:id="rId51"/>
-    <hyperlink ref="A3" r:id="rId52" tooltip="http://www.slca-kobe.jp/therapy/botox.html"/>
-    <hyperlink ref="C10" r:id="rId53"/>
-    <hyperlink ref="C15" r:id="rId54" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-shiwa_retinoin/"/>
-    <hyperlink ref="C12" r:id="rId55"/>
-    <hyperlink ref="C13" r:id="rId56"/>
-    <hyperlink ref="M38" r:id="rId57" tooltip="http://www.slca-kobe.jp/therapy/cd_enkakuchi.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M4" r:id="rId58" tooltip="http://www.slca-kobe.jp/therapy/cd_toretinoin2.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M17" r:id="rId59" tooltip="http://www.slca-kobe.jp/therapy/cd_tretinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M18" r:id="rId60" tooltip="http://www.slca-kobe.jp/therapy/cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M19" r:id="rId61" tooltip="http://www.slca-kobe.jp/therapy/cocktaillift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M39" r:id="rId62" tooltip="http://www.slca-kobe.jp/therapy/cosmetic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M40" r:id="rId63" tooltip="http://www.slca-kobe.jp/therapy/dark.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M5" r:id="rId64" tooltip="http://www.slca-kobe.jp/therapy/div.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M6" r:id="rId65" tooltip="http://www.slca-kobe.jp/therapy/doctor.html"/>
-    <hyperlink ref="M35" r:id="rId66" tooltip="http://www.slca-kobe.jp/therapy/eye_repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M7" r:id="rId67" tooltip="http://www.slca-kobe.jp/therapy/eyelash.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M20" r:id="rId68" tooltip="http://www.slca-kobe.jp/therapy/fcgp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M41" r:id="rId69" tooltip="http://www.slca-kobe.jp/therapy/fleck.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M21" r:id="rId70" tooltip="http://www.slca-kobe.jp/therapy/frontup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M42" r:id="rId71" tooltip="http://www.slca-kobe.jp/therapy/hyalhiuronan.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M22" r:id="rId72" tooltip="http://www.slca-kobe.jp/therapy/liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M43" r:id="rId73" tooltip="http://www.slca-kobe.jp/therapy/lines.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M23" r:id="rId74" tooltip="http://www.slca-kobe.jp/therapy/lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M8" r:id="rId75" tooltip="http://www.slca-kobe.jp/therapy/meds.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M44" r:id="rId76" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M9" r:id="rId77" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy-body.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M36" r:id="rId78" tooltip="http://www.slca-kobe.jp/therapy/mexococktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M10" r:id="rId79" tooltip="http://www.slca-kobe.jp/therapy/mexolift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M11" r:id="rId80" tooltip="http://www.slca-kobe.jp/therapy/mlm.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M24" r:id="rId81" tooltip="http://www.slca-kobe.jp/therapy/neck_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M25" r:id="rId82" tooltip="http://www.slca-kobe.jp/therapy/new_liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M26" r:id="rId83" tooltip="http://www.slca-kobe.jp/therapy/new_poreless.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M27" r:id="rId84" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M28" r:id="rId85" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair_premium.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M29" r:id="rId86" tooltip="http://www.slca-kobe.jp/therapy/new-frontup.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M30" r:id="rId87" tooltip="http://www.slca-kobe.jp/therapy/new-lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M31" r:id="rId88" tooltip="http://www.slca-kobe.jp/therapy/new-neck.html"/>
-    <hyperlink ref="M45" r:id="rId89" tooltip="http://www.slca-kobe.jp/therapy/new-retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M37" r:id="rId90" tooltip="http://www.slca-kobe.jp/therapy/ojc.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M46" r:id="rId91" tooltip="http://www.slca-kobe.jp/therapy/order_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M32" r:id="rId92" tooltip="http://www.slca-kobe.jp/therapy/ordermade.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M47" r:id="rId93" tooltip="http://www.slca-kobe.jp/therapy/outmost.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M12" r:id="rId94" tooltip="http://www.slca-kobe.jp/therapy/outmost_cosume.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M48" r:id="rId95" tooltip="http://www.slca-kobe.jp/therapy/outmost_guideline.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M49" r:id="rId96" tooltip="http://www.slca-kobe.jp/therapy/outmost_homepiring.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M50" r:id="rId97" tooltip="http://www.slca-kobe.jp/therapy/outmost_retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M33" r:id="rId98" tooltip="http://www.slca-kobe.jp/therapy/poreless_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M13" r:id="rId99" tooltip="http://www.slca-kobe.jp/therapy/prp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M34" r:id="rId100" tooltip="http://www.slca-kobe.jp/therapy/prpcocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M14" r:id="rId101" tooltip="http://www.slca-kobe.jp/therapy/purasentar.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M51" r:id="rId102" tooltip="http://www.slca-kobe.jp/therapy/remote_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M52" r:id="rId103" tooltip="http://www.slca-kobe.jp/therapy/retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M53" r:id="rId104" tooltip="http://www.slca-kobe.jp/therapy/new-cocktail.html"/>
-    <hyperlink ref="M15" r:id="rId105" tooltip="http://www.slca-kobe.jp/therapy/shiwa_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M16" r:id="rId106" tooltip="http://www.slca-kobe.jp/therapy/spot_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="M2" r:id="rId107"/>
-    <hyperlink ref="M3" r:id="rId108" tooltip="http://www.slca-kobe.jp/therapy/botox.html"/>
-    <hyperlink ref="N10" r:id="rId109"/>
-    <hyperlink ref="N15" r:id="rId110" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-shiwa_retinoin/"/>
-    <hyperlink ref="N12" r:id="rId111"/>
-    <hyperlink ref="N13" r:id="rId112"/>
-    <hyperlink ref="C38" r:id="rId113"/>
-    <hyperlink ref="C39" r:id="rId114"/>
-    <hyperlink ref="C48" r:id="rId115"/>
-    <hyperlink ref="N33" r:id="rId116"/>
-    <hyperlink ref="N32" r:id="rId117"/>
-    <hyperlink ref="C41" r:id="rId118"/>
-    <hyperlink ref="C42" r:id="rId119"/>
-    <hyperlink ref="C51" r:id="rId120"/>
-    <hyperlink ref="C52" r:id="rId121"/>
-    <hyperlink ref="C53" r:id="rId122"/>
-    <hyperlink ref="C50" r:id="rId123"/>
-    <hyperlink ref="C54" r:id="rId124" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-new-cocktail/"/>
-    <hyperlink ref="A54" r:id="rId125" tooltip="http://www.slca-kobe.jp/therapy/new-cocktail.html"/>
-    <hyperlink ref="M54" r:id="rId126" tooltip="http://www.slca-kobe.jp/therapy/shape_bn.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
-    <hyperlink ref="N54" r:id="rId127"/>
-    <hyperlink ref="N6" r:id="rId128"/>
-    <hyperlink ref="N7" r:id="rId129"/>
-    <hyperlink ref="N41" r:id="rId130"/>
-    <hyperlink ref="N40" r:id="rId131"/>
-    <hyperlink ref="C49" r:id="rId132"/>
-    <hyperlink ref="C47" r:id="rId133"/>
-    <hyperlink ref="C46" r:id="rId134"/>
-    <hyperlink ref="C45" r:id="rId135"/>
-    <hyperlink ref="C44" r:id="rId136"/>
-    <hyperlink ref="C43" r:id="rId137"/>
-    <hyperlink ref="C40" r:id="rId138"/>
+    <hyperlink ref="A4" r:id="rId1" tooltip="http://www.slca-kobe.jp/therapy/cd_toretinoin2.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A17" r:id="rId2" tooltip="http://www.slca-kobe.jp/therapy/cd_tretinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A18" r:id="rId3" tooltip="http://www.slca-kobe.jp/therapy/cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A19" r:id="rId4" tooltip="http://www.slca-kobe.jp/therapy/cocktaillift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A39" r:id="rId5" tooltip="http://www.slca-kobe.jp/therapy/cosmetic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A40" r:id="rId6" tooltip="http://www.slca-kobe.jp/therapy/dark.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A5" r:id="rId7" tooltip="http://www.slca-kobe.jp/therapy/div.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A6" r:id="rId8" tooltip="http://www.slca-kobe.jp/therapy/doctor.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A35" r:id="rId9" tooltip="http://www.slca-kobe.jp/therapy/eye_repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A7" r:id="rId10" tooltip="http://www.slca-kobe.jp/therapy/eyelash.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A20" r:id="rId11" tooltip="http://www.slca-kobe.jp/therapy/fcgp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A41" r:id="rId12" tooltip="http://www.slca-kobe.jp/therapy/fleck.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A21" r:id="rId13" tooltip="http://www.slca-kobe.jp/therapy/frontup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A42" r:id="rId14" tooltip="http://www.slca-kobe.jp/therapy/hyalhiuronan.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A22" r:id="rId15" tooltip="http://www.slca-kobe.jp/therapy/liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A43" r:id="rId16" tooltip="http://www.slca-kobe.jp/therapy/lines.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A23" r:id="rId17" tooltip="http://www.slca-kobe.jp/therapy/lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A8" r:id="rId18" tooltip="http://www.slca-kobe.jp/therapy/meds.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A44" r:id="rId19" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A9" r:id="rId20" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy-body.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A36" r:id="rId21" tooltip="http://www.slca-kobe.jp/therapy/mexococktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A10" r:id="rId22" tooltip="http://www.slca-kobe.jp/therapy/mexolift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A11" r:id="rId23" tooltip="http://www.slca-kobe.jp/therapy/mlm.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A24" r:id="rId24" tooltip="http://www.slca-kobe.jp/therapy/neck_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A25" r:id="rId25" tooltip="http://www.slca-kobe.jp/therapy/new_liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A26" r:id="rId26" tooltip="http://www.slca-kobe.jp/therapy/new_poreless.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A27" r:id="rId27" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A28" r:id="rId28" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair_premium.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A29" r:id="rId29" tooltip="http://www.slca-kobe.jp/therapy/new-frontup.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A30" r:id="rId30" tooltip="http://www.slca-kobe.jp/therapy/new-lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A31" r:id="rId31" tooltip="http://www.slca-kobe.jp/therapy/new-neck.html"/>
+    <hyperlink ref="A45" r:id="rId32" tooltip="http://www.slca-kobe.jp/therapy/new-retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A37" r:id="rId33" tooltip="http://www.slca-kobe.jp/therapy/ojc.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A46" r:id="rId34" tooltip="http://www.slca-kobe.jp/therapy/order_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A32" r:id="rId35" tooltip="http://www.slca-kobe.jp/therapy/ordermade.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A47" r:id="rId36" tooltip="http://www.slca-kobe.jp/therapy/outmost.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A12" r:id="rId37" tooltip="http://www.slca-kobe.jp/therapy/outmost_cosume.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A48" r:id="rId38" tooltip="http://www.slca-kobe.jp/therapy/outmost_guideline.html"/>
+    <hyperlink ref="A49" r:id="rId39" tooltip="http://www.slca-kobe.jp/therapy/outmost_homepiring.html"/>
+    <hyperlink ref="A50" r:id="rId40" tooltip="http://www.slca-kobe.jp/therapy/outmost_retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A33" r:id="rId41" tooltip="http://www.slca-kobe.jp/therapy/poreless_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A13" r:id="rId42" tooltip="http://www.slca-kobe.jp/therapy/prp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A34" r:id="rId43" tooltip="http://www.slca-kobe.jp/therapy/prpcocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A14" r:id="rId44" tooltip="http://www.slca-kobe.jp/therapy/purasentar.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A51" r:id="rId45" tooltip="http://www.slca-kobe.jp/therapy/remote_po.html"/>
+    <hyperlink ref="A52" r:id="rId46" tooltip="http://www.slca-kobe.jp/therapy/retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A53" r:id="rId47" tooltip="http://www.slca-kobe.jp/therapy/shape_bn.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A15" r:id="rId48" tooltip="http://www.slca-kobe.jp/therapy/shiwa_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A16" r:id="rId49" tooltip="http://www.slca-kobe.jp/therapy/spot_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="A2" r:id="rId50"/>
+    <hyperlink ref="A3" r:id="rId51" tooltip="http://www.slca-kobe.jp/therapy/botox.html"/>
+    <hyperlink ref="C10" r:id="rId52"/>
+    <hyperlink ref="C15" r:id="rId53" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-shiwa_retinoin/"/>
+    <hyperlink ref="C12" r:id="rId54"/>
+    <hyperlink ref="C13" r:id="rId55"/>
+    <hyperlink ref="N38" r:id="rId56" tooltip="http://www.slca-kobe.jp/therapy/cd_enkakuchi.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N4" r:id="rId57" tooltip="http://www.slca-kobe.jp/therapy/cd_toretinoin2.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N17" r:id="rId58" tooltip="http://www.slca-kobe.jp/therapy/cd_tretinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N18" r:id="rId59" tooltip="http://www.slca-kobe.jp/therapy/cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N19" r:id="rId60" tooltip="http://www.slca-kobe.jp/therapy/cocktaillift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N39" r:id="rId61" tooltip="http://www.slca-kobe.jp/therapy/cosmetic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N40" r:id="rId62" tooltip="http://www.slca-kobe.jp/therapy/dark.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N5" r:id="rId63" tooltip="http://www.slca-kobe.jp/therapy/div.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N6" r:id="rId64" tooltip="http://www.slca-kobe.jp/therapy/doctor.html"/>
+    <hyperlink ref="N35" r:id="rId65" tooltip="http://www.slca-kobe.jp/therapy/eye_repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N7" r:id="rId66" tooltip="http://www.slca-kobe.jp/therapy/eyelash.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N20" r:id="rId67" tooltip="http://www.slca-kobe.jp/therapy/fcgp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N41" r:id="rId68" tooltip="http://www.slca-kobe.jp/therapy/fleck.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N21" r:id="rId69" tooltip="http://www.slca-kobe.jp/therapy/frontup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N42" r:id="rId70" tooltip="http://www.slca-kobe.jp/therapy/hyalhiuronan.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N22" r:id="rId71" tooltip="http://www.slca-kobe.jp/therapy/liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N43" r:id="rId72" tooltip="http://www.slca-kobe.jp/therapy/lines.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N23" r:id="rId73" tooltip="http://www.slca-kobe.jp/therapy/lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N8" r:id="rId74" tooltip="http://www.slca-kobe.jp/therapy/meds.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N44" r:id="rId75" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N9" r:id="rId76" tooltip="http://www.slca-kobe.jp/therapy/mesotherapy-body.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N36" r:id="rId77" tooltip="http://www.slca-kobe.jp/therapy/mexococktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N10" r:id="rId78" tooltip="http://www.slca-kobe.jp/therapy/mexolift.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N11" r:id="rId79" tooltip="http://www.slca-kobe.jp/therapy/mlm.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N24" r:id="rId80" tooltip="http://www.slca-kobe.jp/therapy/neck_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N25" r:id="rId81" tooltip="http://www.slca-kobe.jp/therapy/new_liftup_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N26" r:id="rId82" tooltip="http://www.slca-kobe.jp/therapy/new_poreless.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N27" r:id="rId83" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N28" r:id="rId84" tooltip="http://www.slca-kobe.jp/therapy/new-eye-repair_premium.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N29" r:id="rId85" tooltip="http://www.slca-kobe.jp/therapy/new-frontup.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N30" r:id="rId86" tooltip="http://www.slca-kobe.jp/therapy/new-lip.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N31" r:id="rId87" tooltip="http://www.slca-kobe.jp/therapy/new-neck.html"/>
+    <hyperlink ref="N45" r:id="rId88" tooltip="http://www.slca-kobe.jp/therapy/new-retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N37" r:id="rId89" tooltip="http://www.slca-kobe.jp/therapy/ojc.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N46" r:id="rId90" tooltip="http://www.slca-kobe.jp/therapy/order_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N32" r:id="rId91" tooltip="http://www.slca-kobe.jp/therapy/ordermade.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N47" r:id="rId92" tooltip="http://www.slca-kobe.jp/therapy/outmost.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N12" r:id="rId93" tooltip="http://www.slca-kobe.jp/therapy/outmost_cosume.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N48" r:id="rId94" tooltip="http://www.slca-kobe.jp/therapy/outmost_guideline.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N49" r:id="rId95" tooltip="http://www.slca-kobe.jp/therapy/outmost_homepiring.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N50" r:id="rId96" tooltip="http://www.slca-kobe.jp/therapy/outmost_retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N33" r:id="rId97" tooltip="http://www.slca-kobe.jp/therapy/poreless_cocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N13" r:id="rId98" tooltip="http://www.slca-kobe.jp/therapy/prp.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N34" r:id="rId99" tooltip="http://www.slca-kobe.jp/therapy/prpcocktail.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N14" r:id="rId100" tooltip="http://www.slca-kobe.jp/therapy/purasentar.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N51" r:id="rId101" tooltip="http://www.slca-kobe.jp/therapy/remote_po.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N52" r:id="rId102" tooltip="http://www.slca-kobe.jp/therapy/retinoic.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N53" r:id="rId103" tooltip="http://www.slca-kobe.jp/therapy/new-cocktail.html"/>
+    <hyperlink ref="N15" r:id="rId104" tooltip="http://www.slca-kobe.jp/therapy/shiwa_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N16" r:id="rId105" tooltip="http://www.slca-kobe.jp/therapy/spot_retinoin.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="N2" r:id="rId106"/>
+    <hyperlink ref="N3" r:id="rId107" tooltip="http://www.slca-kobe.jp/therapy/botox.html"/>
+    <hyperlink ref="O10" r:id="rId108"/>
+    <hyperlink ref="O15" r:id="rId109" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-shiwa_retinoin/"/>
+    <hyperlink ref="O12" r:id="rId110"/>
+    <hyperlink ref="O13" r:id="rId111"/>
+    <hyperlink ref="C38" r:id="rId112"/>
+    <hyperlink ref="C39" r:id="rId113"/>
+    <hyperlink ref="C48" r:id="rId114"/>
+    <hyperlink ref="O33" r:id="rId115"/>
+    <hyperlink ref="O32" r:id="rId116"/>
+    <hyperlink ref="C41" r:id="rId117"/>
+    <hyperlink ref="C42" r:id="rId118"/>
+    <hyperlink ref="C51" r:id="rId119"/>
+    <hyperlink ref="C52" r:id="rId120"/>
+    <hyperlink ref="C53" r:id="rId121"/>
+    <hyperlink ref="C50" r:id="rId122"/>
+    <hyperlink ref="C54" r:id="rId123" tooltip="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-new-cocktail/"/>
+    <hyperlink ref="A54" r:id="rId124" tooltip="http://www.slca-kobe.jp/therapy/new-cocktail.html"/>
+    <hyperlink ref="N54" r:id="rId125" tooltip="http://www.slca-kobe.jp/therapy/shape_bn.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
+    <hyperlink ref="O54" r:id="rId126"/>
+    <hyperlink ref="O6" r:id="rId127"/>
+    <hyperlink ref="O7" r:id="rId128"/>
+    <hyperlink ref="O41" r:id="rId129"/>
+    <hyperlink ref="O40" r:id="rId130"/>
+    <hyperlink ref="C49" r:id="rId131"/>
+    <hyperlink ref="C47" r:id="rId132"/>
+    <hyperlink ref="C46" r:id="rId133"/>
+    <hyperlink ref="C45" r:id="rId134"/>
+    <hyperlink ref="C44" r:id="rId135"/>
+    <hyperlink ref="C43" r:id="rId136"/>
+    <hyperlink ref="C40" r:id="rId137"/>
+    <hyperlink ref="A38" r:id="rId138" tooltip="http://www.slca-kobe.jp/therapy/cd_enkakuchi.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId139"/>
 </worksheet>
 </file>
 
@@ -28356,7 +28424,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>102</v>
@@ -28365,7 +28433,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
@@ -28391,29 +28459,29 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>120</v>
@@ -28424,17 +28492,17 @@
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>366</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -28442,7 +28510,7 @@
         <v>120</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>120</v>
@@ -28454,26 +28522,26 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>371</v>
-      </c>
       <c r="E4" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -28484,19 +28552,19 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>375</v>
-      </c>
       <c r="E5" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>117</v>
@@ -28518,22 +28586,22 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>379</v>
-      </c>
       <c r="E6" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="31" t="s">
@@ -28552,22 +28620,22 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>382</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31" t="s">
@@ -28584,27 +28652,27 @@
       </c>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:13" ht="54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>385</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>386</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>387</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>120</v>
@@ -28620,29 +28688,29 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>391</v>
-      </c>
       <c r="E9" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>218</v>
@@ -28654,29 +28722,29 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>396</v>
-      </c>
       <c r="E10" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>218</v>
@@ -28688,29 +28756,29 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>400</v>
-      </c>
       <c r="E11" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>218</v>
@@ -28722,29 +28790,29 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>404</v>
-      </c>
       <c r="E12" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>218</v>
@@ -28756,29 +28824,29 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="30" t="s">
         <v>406</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>408</v>
-      </c>
       <c r="E13" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>218</v>
@@ -28788,33 +28856,33 @@
       </c>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="31" t="s">
         <v>412</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>413</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>218</v>
@@ -28824,33 +28892,33 @@
       </c>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:13" ht="54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="31" t="s">
         <v>416</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>417</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>218</v>
@@ -28860,33 +28928,33 @@
       </c>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>421</v>
-      </c>
       <c r="E16" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F16" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G16" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>218</v>
@@ -28896,33 +28964,33 @@
       </c>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>425</v>
-      </c>
       <c r="E17" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F17" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G17" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>218</v>
@@ -28932,33 +29000,33 @@
       </c>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="C18" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>429</v>
-      </c>
       <c r="E18" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F18" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G18" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>218</v>
@@ -28968,33 +29036,33 @@
       </c>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>433</v>
-      </c>
       <c r="E19" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F19" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G19" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>218</v>
@@ -29004,33 +29072,33 @@
       </c>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="30" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>437</v>
-      </c>
       <c r="E20" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G20" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>218</v>
@@ -29040,33 +29108,33 @@
       </c>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="C21" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>441</v>
-      </c>
       <c r="E21" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F21" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G21" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>218</v>
@@ -29076,33 +29144,33 @@
       </c>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>445</v>
-      </c>
       <c r="E22" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G22" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>218</v>
@@ -29112,33 +29180,33 @@
       </c>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C23" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>449</v>
-      </c>
       <c r="E23" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G23" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>218</v>
@@ -29148,33 +29216,33 @@
       </c>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C24" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>453</v>
-      </c>
       <c r="E24" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G24" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>218</v>
@@ -29184,33 +29252,33 @@
       </c>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:12" ht="54" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>457</v>
-      </c>
       <c r="E25" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="G25" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>218</v>
@@ -29222,29 +29290,29 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="C26" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>461</v>
-      </c>
       <c r="E26" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>218</v>
@@ -29256,29 +29324,29 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>465</v>
-      </c>
       <c r="E27" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>218</v>
@@ -29290,29 +29358,29 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="C28" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="D28" s="25" t="s">
-        <v>469</v>
-      </c>
       <c r="E28" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>360</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>361</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>218</v>
@@ -29413,7 +29481,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>102</v>
@@ -29422,13 +29490,13 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
@@ -29439,107 +29507,107 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>476</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>481</v>
-      </c>
       <c r="E3" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>485</v>
-      </c>
       <c r="E4" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>489</v>
-      </c>
       <c r="E5" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -29581,57 +29649,57 @@
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -29660,7 +29728,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29676,7 +29744,7 @@
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -29686,7 +29754,7 @@
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -29697,12 +29765,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -29726,7 +29794,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29841,7 +29909,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -29856,7 +29924,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -29886,7 +29954,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -29931,7 +29999,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -30025,7 +30093,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30038,12 +30106,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -30051,12 +30119,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -30064,7 +30132,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30074,7 +30142,7 @@
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30092,7 +30160,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30103,7 +30171,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F72" s="15"/>
     </row>
@@ -30115,7 +30183,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F73" s="15"/>
     </row>
@@ -30127,7 +30195,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F74" s="15"/>
     </row>
@@ -30139,7 +30207,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F75" s="15"/>
     </row>
@@ -30151,7 +30219,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F76" s="15"/>
     </row>
@@ -30166,7 +30234,7 @@
         <v>262</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30180,7 +30248,7 @@
         <v>270</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -30188,7 +30256,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30198,7 +30266,7 @@
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -30206,7 +30274,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30250,7 +30318,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -30268,7 +30336,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -30293,12 +30361,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -30320,7 +30388,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -30353,7 +30421,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -30370,7 +30438,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30380,7 +30448,7 @@
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
@@ -30400,7 +30468,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -30411,7 +30479,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -30419,37 +30487,37 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -25656,8 +25656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27568,7 +27568,7 @@
         <v>543</v>
       </c>
       <c r="J39" s="57" t="s">
-        <v>279</v>
+        <v>543</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="69" t="s">
@@ -27619,7 +27619,7 @@
         <v>543</v>
       </c>
       <c r="J40" s="57" t="s">
-        <v>291</v>
+        <v>543</v>
       </c>
       <c r="K40" s="57"/>
       <c r="L40" s="58" t="s">
@@ -28398,7 +28398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -1170,12 +1170,6 @@
     <t>CDトレチノイン療法　～遠隔地治療～</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>最後の「Eメール相談」の画像リンクを消す</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/cosmetic.html</t>
   </si>
   <si>
@@ -1188,9 +1182,6 @@
     <t>院長処方の症状に合わせたコスメ</t>
   </si>
   <si>
-    <t>VC-IPスティック の説明が違う</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/dark.html</t>
   </si>
   <si>
@@ -1206,19 +1197,6 @@
     <t>wait</t>
   </si>
   <si>
-    <t>△</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・空白を詰める
-例）
-１）疲れると黒くなる場合＝血行不良が原因のクマ
-          →メソカクテル注射あるいはPRP＋プラセンタ点滴
-↓
-１）疲れると黒くなる場合＝血行不良が原因のクマ
-→メソカクテル注射あるいはPRP＋プラセンタ点滴
-</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/fleck.html</t>
   </si>
   <si>
@@ -1231,9 +1209,6 @@
     <t>シミ</t>
   </si>
   <si>
-    <t>×イオン導入　→  シミ用新レチノイン酸療法・ CDトレチノイン療法</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/therapy/hyalhiuronan.html</t>
   </si>
   <si>
@@ -1247,11 +1222,6 @@
   </si>
   <si>
     <t>料金がない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・「モニター症例写真」5列真ん中の写真、 ×左小鼻の付け根)注入直後　 →最初の( がない。
-・症例数　のテーブルの文字を 真ん中に配置。
-</t>
   </si>
   <si>
     <t>http://www.slca-kobe.jp/therapy/lines.html</t>
@@ -1265,17 +1235,6 @@
   <si>
     <t>テーブルのデザイン
 テーブルが複雑で問題あり！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・スペースを詰める
-例）
-２）表情を無くしたときもシワが残っている場合
-　　　→ボトックス＋カクテル注射　又は
-　　　　ボトックス＋ＰＲＰ・ＰＲＰカクテル
-↓
-２）表情を無くしたときもシワが残っている場合
-→ボトックス＋カクテル注射　又は ボトックス＋ＰＲＰ・ＰＲＰカクテル
-</t>
   </si>
   <si>
     <t>http://www.slca-kobe.jp/therapy/mesotherapy.html</t>
@@ -1386,9 +1345,6 @@
   </si>
   <si>
     <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-retinoic/</t>
-  </si>
-  <si>
-    <t>レチノイン酸療法</t>
   </si>
   <si>
     <t>http://www.slca-kobe.jp/therapy/shape_bn.html</t>
@@ -2021,6 +1977,93 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>ページが無い</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>・(フェイスライン)、(「あご」と「頬」)、(目の下) は全て左端(画像の上)に配置
+・一番下の「WEB予約」のボタンを削除。</t>
+    <rPh sb="29" eb="30">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/order_po.html</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/outmost_homepiring.html</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>・ * ：シミ用　処方化粧品  * ：シワ・クマ用　処方化粧品 に色が無い。
+・* を赤にする。</t>
+    <rPh sb="33" eb="34">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>・* ：シミ用　処方化粧品  * ：シワ・クマ用　処方化粧品 　に色をつける。
+・* 　に色をつける。</t>
+    <rPh sb="33" eb="34">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>レチノイン酸療法</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>http://www.slca-kobe.jp/therapy/new-cocktail.html</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -25656,21 +25699,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="65.77734375" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="11" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="36.44140625" style="33" customWidth="1"/>
     <col min="13" max="13" width="16.88671875" style="39" customWidth="1"/>
     <col min="14" max="14" width="57.109375" customWidth="1"/>
@@ -25709,7 +25754,7 @@
         <v>108</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>109</v>
@@ -25900,7 +25945,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>139</v>
@@ -26433,7 +26478,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>116</v>
@@ -26487,7 +26532,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>116</v>
@@ -26649,7 +26694,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>116</v>
@@ -26703,7 +26748,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>116</v>
@@ -26757,7 +26802,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>116</v>
@@ -26865,7 +26910,7 @@
         <v>229</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>116</v>
@@ -27234,7 +27279,7 @@
     </row>
     <row r="33" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>256</v>
@@ -27293,7 +27338,7 @@
         <v>261</v>
       </c>
       <c r="D34" s="120" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>116</v>
@@ -27449,7 +27494,7 @@
         <v>273</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>116</v>
@@ -27500,7 +27545,7 @@
         <v>276</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>278</v>
@@ -27514,15 +27559,13 @@
       <c r="G38" s="10"/>
       <c r="H38" s="46"/>
       <c r="I38" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J38" s="57" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K38" s="57"/>
-      <c r="L38" s="58" t="s">
-        <v>280</v>
-      </c>
+      <c r="L38" s="58"/>
       <c r="M38" s="59">
         <v>42830</v>
       </c>
@@ -27545,16 +27588,16 @@
     </row>
     <row r="39" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>116</v>
@@ -27565,23 +27608,21 @@
       <c r="G39" s="10"/>
       <c r="H39" s="46"/>
       <c r="I39" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J39" s="57" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K39" s="29"/>
-      <c r="L39" s="69" t="s">
-        <v>285</v>
-      </c>
+      <c r="L39" s="69"/>
       <c r="M39" s="59">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="N39" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="O39" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="O39" s="43" t="s">
-        <v>283</v>
       </c>
       <c r="U39" s="71"/>
       <c r="V39" s="71"/>
@@ -27596,16 +27637,16 @@
     </row>
     <row r="40" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>289</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>116</v>
@@ -27616,23 +27657,21 @@
       <c r="G40" s="10"/>
       <c r="H40" s="46"/>
       <c r="I40" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J40" s="57" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="K40" s="57"/>
-      <c r="L40" s="58" t="s">
-        <v>292</v>
-      </c>
+      <c r="L40" s="58"/>
       <c r="M40" s="59">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="N40" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O40" s="30" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U40" s="71"/>
       <c r="V40" s="71"/>
@@ -27647,16 +27686,16 @@
     </row>
     <row r="41" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>116</v>
@@ -27667,23 +27706,21 @@
       <c r="G41" s="10"/>
       <c r="H41" s="46"/>
       <c r="I41" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J41" s="57" t="s">
-        <v>279</v>
+        <v>534</v>
       </c>
       <c r="K41" s="57"/>
-      <c r="L41" s="58" t="s">
-        <v>297</v>
-      </c>
+      <c r="L41" s="58"/>
       <c r="M41" s="59">
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="N41" s="25" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="O41" s="30" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="U41" s="71"/>
       <c r="V41" s="71"/>
@@ -27698,16 +27735,16 @@
     </row>
     <row r="42" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>116</v>
@@ -27717,26 +27754,26 @@
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="46" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>279</v>
+        <v>534</v>
       </c>
       <c r="K42" s="57"/>
       <c r="L42" s="58" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="M42" s="59">
         <v>42830</v>
       </c>
       <c r="N42" s="25" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O42" s="43" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U42" s="71"/>
       <c r="V42" s="71"/>
@@ -27751,13 +27788,13 @@
     </row>
     <row r="43" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>118</v>
@@ -27770,26 +27807,26 @@
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="46" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I43" s="56" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="J43" s="57" t="s">
-        <v>291</v>
+        <v>535</v>
       </c>
       <c r="K43" s="57"/>
       <c r="L43" s="58" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="M43" s="59">
         <v>42830</v>
       </c>
       <c r="N43" s="25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="O43" s="43" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="U43" s="71"/>
       <c r="V43" s="71"/>
@@ -27802,18 +27839,18 @@
       <c r="AC43" s="71"/>
       <c r="AD43" s="71"/>
     </row>
-    <row r="44" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="181.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>116</v>
@@ -27827,18 +27864,20 @@
         <v>120</v>
       </c>
       <c r="J44" s="57" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="K44" s="57"/>
-      <c r="L44" s="58"/>
+      <c r="L44" s="58" t="s">
+        <v>537</v>
+      </c>
       <c r="M44" s="59">
         <v>42830</v>
       </c>
       <c r="N44" s="25" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O44" s="43" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="U44" s="71"/>
       <c r="V44" s="71"/>
@@ -27853,16 +27892,16 @@
     </row>
     <row r="45" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>116</v>
@@ -27876,7 +27915,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K45" s="57"/>
       <c r="L45" s="58"/>
@@ -27884,24 +27923,24 @@
         <v>42830</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O45" s="43" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>116</v>
@@ -27911,13 +27950,13 @@
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="45" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I46" s="56" t="s">
         <v>120</v>
       </c>
       <c r="J46" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K46" s="57"/>
       <c r="L46" s="58"/>
@@ -27925,24 +27964,24 @@
         <v>42830</v>
       </c>
       <c r="N46" s="25" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O46" s="43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>116</v>
@@ -27956,7 +27995,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K47" s="57"/>
       <c r="L47" s="58"/>
@@ -27964,24 +28003,24 @@
         <v>42830</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O47" s="43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>116</v>
@@ -27995,7 +28034,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K48" s="57"/>
       <c r="L48" s="58"/>
@@ -28003,36 +28042,38 @@
         <v>42830</v>
       </c>
       <c r="N48" s="25" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="O48" s="43" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="G49" s="10"/>
       <c r="H49" s="46"/>
       <c r="I49" s="56" t="s">
         <v>120</v>
       </c>
       <c r="J49" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K49" s="57"/>
       <c r="L49" s="58"/>
@@ -28040,24 +28081,24 @@
         <v>42830</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O49" s="43" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>116</v>
@@ -28071,32 +28112,34 @@
         <v>120</v>
       </c>
       <c r="J50" s="57" t="s">
-        <v>218</v>
+        <v>535</v>
       </c>
       <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
+      <c r="L50" s="58" t="s">
+        <v>541</v>
+      </c>
       <c r="M50" s="59">
         <v>42830</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="O50" s="43" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>116</v>
@@ -28110,7 +28153,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K51" s="57"/>
       <c r="L51" s="58"/>
@@ -28118,36 +28161,38 @@
         <v>42830</v>
       </c>
       <c r="N51" s="25" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="O51" s="43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>345</v>
+        <v>542</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="G52" s="10"/>
       <c r="H52" s="45"/>
       <c r="I52" s="56" t="s">
         <v>120</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="58"/>
@@ -28155,24 +28200,24 @@
         <v>42830</v>
       </c>
       <c r="N52" s="25" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="O52" s="43" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>116</v>
@@ -28186,7 +28231,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K53" s="57"/>
       <c r="L53" s="58"/>
@@ -28194,24 +28239,24 @@
         <v>42830</v>
       </c>
       <c r="N53" s="25" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="O53" s="30" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="55" t="s">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>116</v>
@@ -28225,7 +28270,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>218</v>
+        <v>534</v>
       </c>
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
@@ -28233,10 +28278,10 @@
         <v>42830</v>
       </c>
       <c r="N54" s="25" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="O54" s="70" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -28398,8 +28443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -28424,7 +28469,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>102</v>
@@ -28433,7 +28478,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
@@ -28459,29 +28504,29 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="J2" s="34" t="s">
         <v>120</v>
@@ -28492,17 +28537,17 @@
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="31" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -28510,7 +28555,7 @@
         <v>120</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>120</v>
@@ -28522,26 +28567,26 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>117</v>
       </c>
       <c r="G4" s="31"/>
       <c r="H4" s="31" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -28552,19 +28597,19 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>117</v>
@@ -28586,22 +28631,22 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G6" s="31"/>
       <c r="H6" s="31" t="s">
@@ -28620,22 +28665,22 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G7" s="31"/>
       <c r="H7" s="31" t="s">
@@ -28654,25 +28699,25 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>120</v>
@@ -28688,29 +28733,29 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G9" s="31"/>
       <c r="H9" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>218</v>
@@ -28722,29 +28767,29 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>218</v>
@@ -28756,29 +28801,29 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>218</v>
@@ -28790,29 +28835,29 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G12" s="31"/>
       <c r="H12" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>218</v>
@@ -28824,29 +28869,29 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G13" s="31"/>
       <c r="H13" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>218</v>
@@ -28858,31 +28903,31 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>218</v>
@@ -28894,31 +28939,31 @@
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>218</v>
@@ -28930,31 +28975,31 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>218</v>
@@ -28966,31 +29011,31 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>218</v>
@@ -29002,31 +29047,31 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>218</v>
@@ -29038,31 +29083,31 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>218</v>
@@ -29074,31 +29119,31 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>218</v>
@@ -29110,31 +29155,31 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>218</v>
@@ -29146,31 +29191,31 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>218</v>
@@ -29182,31 +29227,31 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>218</v>
@@ -29218,31 +29263,31 @@
     </row>
     <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>218</v>
@@ -29254,31 +29299,31 @@
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>218</v>
@@ -29290,29 +29335,29 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>218</v>
@@ -29324,29 +29369,29 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>218</v>
@@ -29358,29 +29403,29 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G28" s="31"/>
       <c r="H28" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>218</v>
@@ -29481,7 +29526,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>102</v>
@@ -29490,13 +29535,13 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
@@ -29507,107 +29552,107 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="J5" s="25"/>
     </row>
@@ -29649,57 +29694,57 @@
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -29728,7 +29773,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29744,7 +29789,7 @@
     </row>
     <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -29754,7 +29799,7 @@
     </row>
     <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
@@ -29765,12 +29810,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -29794,7 +29839,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29909,7 +29954,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -29924,7 +29969,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -29954,7 +29999,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -29999,7 +30044,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -30093,7 +30138,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30106,12 +30151,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -30119,12 +30164,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -30132,7 +30177,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30142,7 +30187,7 @@
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30160,7 +30205,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30171,7 +30216,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F72" s="15"/>
     </row>
@@ -30183,7 +30228,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F73" s="15"/>
     </row>
@@ -30195,7 +30240,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F74" s="15"/>
     </row>
@@ -30207,7 +30252,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F75" s="15"/>
     </row>
@@ -30219,7 +30264,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F76" s="15"/>
     </row>
@@ -30234,7 +30279,7 @@
         <v>262</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30248,7 +30293,7 @@
         <v>270</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -30256,7 +30301,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30266,7 +30311,7 @@
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -30274,7 +30319,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30318,7 +30363,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -30336,7 +30381,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -30361,12 +30406,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -30388,7 +30433,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="12" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -30421,7 +30466,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -30438,7 +30483,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30448,7 +30493,7 @@
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
@@ -30468,7 +30513,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -30479,7 +30524,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -30487,37 +30532,37 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="547">
   <si>
     <t>Project</t>
   </si>
@@ -1434,9 +1434,6 @@
     <t>http://www.slca-kobe.jp/therapy/</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy/</t>
-  </si>
-  <si>
     <t>初診時の流れ</t>
   </si>
   <si>
@@ -2064,6 +2061,23 @@
   </si>
   <si>
     <t>http://www.slca-kobe.jp/therapy/new-cocktail.html</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・デフォルトテンプレート
+</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-order/</t>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="28"/>
   </si>
 </sst>
@@ -2286,7 +2300,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2326,6 +2340,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,7 +2838,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3244,6 +3264,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="14" fillId="8" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -3262,7 +3294,14 @@
     <cellStyle name="標準 9" xfId="13"/>
     <cellStyle name="標準_h_sitemap_recaldent-20090520" xfId="14"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -12981,17 +13020,6 @@
     <row r="78" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:N3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="S2:Z3"/>
-    <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
@@ -12999,6 +13027,17 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:N3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25596,17 +25635,6 @@
     <row r="284" s="79" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:N3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="S2:Z3"/>
-    <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
@@ -25614,6 +25642,17 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:N3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="28"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25699,7 +25738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
@@ -25754,7 +25793,7 @@
         <v>108</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L1" s="33" t="s">
         <v>109</v>
@@ -25945,7 +25984,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>139</v>
@@ -26478,7 +26517,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>116</v>
@@ -26532,7 +26571,7 @@
         <v>200</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>116</v>
@@ -26694,7 +26733,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>116</v>
@@ -26748,7 +26787,7 @@
         <v>216</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>116</v>
@@ -26802,7 +26841,7 @@
         <v>221</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>116</v>
@@ -26910,7 +26949,7 @@
         <v>229</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>116</v>
@@ -27279,7 +27318,7 @@
     </row>
     <row r="33" spans="1:30" s="38" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B33" s="52" t="s">
         <v>256</v>
@@ -27338,7 +27377,7 @@
         <v>261</v>
       </c>
       <c r="D34" s="120" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>116</v>
@@ -27494,7 +27533,7 @@
         <v>273</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>116</v>
@@ -27545,7 +27584,7 @@
         <v>276</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>278</v>
@@ -27559,10 +27598,10 @@
       <c r="G38" s="10"/>
       <c r="H38" s="46"/>
       <c r="I38" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J38" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K38" s="57"/>
       <c r="L38" s="58"/>
@@ -27608,10 +27647,10 @@
       <c r="G39" s="10"/>
       <c r="H39" s="46"/>
       <c r="I39" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J39" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K39" s="29"/>
       <c r="L39" s="69"/>
@@ -27657,10 +27696,10 @@
       <c r="G40" s="10"/>
       <c r="H40" s="46"/>
       <c r="I40" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J40" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K40" s="57"/>
       <c r="L40" s="58"/>
@@ -27706,10 +27745,10 @@
       <c r="G41" s="10"/>
       <c r="H41" s="46"/>
       <c r="I41" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J41" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K41" s="57"/>
       <c r="L41" s="58"/>
@@ -27757,14 +27796,14 @@
         <v>296</v>
       </c>
       <c r="I42" s="56" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J42" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K42" s="57"/>
       <c r="L42" s="58" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M42" s="59">
         <v>42830</v>
@@ -27810,14 +27849,14 @@
         <v>300</v>
       </c>
       <c r="I43" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="J43" s="57" t="s">
         <v>534</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>535</v>
       </c>
       <c r="K43" s="57"/>
       <c r="L43" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M43" s="59">
         <v>42830</v>
@@ -27864,11 +27903,11 @@
         <v>120</v>
       </c>
       <c r="J44" s="57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K44" s="57"/>
       <c r="L44" s="58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M44" s="59">
         <v>42830</v>
@@ -27915,7 +27954,7 @@
         <v>120</v>
       </c>
       <c r="J45" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K45" s="57"/>
       <c r="L45" s="58"/>
@@ -27931,7 +27970,7 @@
     </row>
     <row r="46" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>310</v>
@@ -27956,7 +27995,7 @@
         <v>120</v>
       </c>
       <c r="J46" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K46" s="57"/>
       <c r="L46" s="58"/>
@@ -27995,7 +28034,7 @@
         <v>120</v>
       </c>
       <c r="J47" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K47" s="57"/>
       <c r="L47" s="58"/>
@@ -28034,7 +28073,7 @@
         <v>120</v>
       </c>
       <c r="J48" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K48" s="57"/>
       <c r="L48" s="58"/>
@@ -28050,7 +28089,7 @@
     </row>
     <row r="49" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>323</v>
@@ -28073,7 +28112,7 @@
         <v>120</v>
       </c>
       <c r="J49" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K49" s="57"/>
       <c r="L49" s="58"/>
@@ -28112,11 +28151,11 @@
         <v>120</v>
       </c>
       <c r="J50" s="57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K50" s="57"/>
       <c r="L50" s="58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M50" s="59">
         <v>42830</v>
@@ -28153,7 +28192,7 @@
         <v>120</v>
       </c>
       <c r="J51" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K51" s="57"/>
       <c r="L51" s="58"/>
@@ -28178,7 +28217,7 @@
         <v>336</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>116</v>
@@ -28192,7 +28231,7 @@
         <v>120</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="58"/>
@@ -28231,7 +28270,7 @@
         <v>120</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K53" s="57"/>
       <c r="L53" s="58"/>
@@ -28242,18 +28281,18 @@
         <v>341</v>
       </c>
       <c r="O53" s="30" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B54" t="s">
         <v>342</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>343</v>
@@ -28270,7 +28309,7 @@
         <v>120</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K54" s="57"/>
       <c r="L54" s="58"/>
@@ -28281,7 +28320,7 @@
         <v>337</v>
       </c>
       <c r="O54" s="70" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -28290,7 +28329,7 @@
   </sortState>
   <phoneticPr fontId="28"/>
   <conditionalFormatting sqref="N48:O54 N2:O16 A34:O34 N38:O46 L38 D7:M16 D2:L4 A2:C16 D5:M5 A53:B53 D6:E6 L40:L46 C53:E54 A48:E52 A38:K46">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28443,15 +28482,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" customWidth="1"/>
     <col min="4" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
@@ -28565,7 +28604,7 @@
       </c>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>359</v>
       </c>
@@ -28573,46 +28612,52 @@
         <v>116</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>360</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>361</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>350</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="31"/>
+        <v>543</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>544</v>
+      </c>
       <c r="H4" s="31" t="s">
-        <v>522</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+        <v>521</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>546</v>
+      </c>
       <c r="K4" s="36">
-        <v>42831</v>
+        <v>42832</v>
       </c>
       <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>365</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>350</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>117</v>
+        <v>543</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31" t="s">
@@ -28631,16 +28676,16 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="25" t="s">
         <v>368</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>369</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>350</v>
@@ -28665,16 +28710,16 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>372</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>350</v>
@@ -28699,16 +28744,16 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>350</v>
@@ -28717,7 +28762,7 @@
         <v>351</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>120</v>
@@ -28733,16 +28778,16 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="25" t="s">
         <v>380</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>381</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>350</v>
@@ -28755,7 +28800,7 @@
         <v>120</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>218</v>
@@ -28767,16 +28812,16 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>350</v>
@@ -28789,7 +28834,7 @@
         <v>120</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>218</v>
@@ -28800,51 +28845,51 @@
       <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="143" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="144" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="143" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="145" t="s">
         <v>350</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
+      <c r="G11" s="145"/>
+      <c r="H11" s="145" t="s">
         <v>287</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="J11" s="31" t="s">
+      <c r="I11" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="J11" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="146">
         <v>42829</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="145"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>394</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>350</v>
@@ -28857,7 +28902,7 @@
         <v>120</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>218</v>
@@ -28869,16 +28914,16 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="D13" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>350</v>
@@ -28891,7 +28936,7 @@
         <v>120</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>218</v>
@@ -28903,16 +28948,16 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="25" t="s">
         <v>401</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>402</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>350</v>
@@ -28921,13 +28966,13 @@
         <v>351</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>218</v>
@@ -28939,16 +28984,16 @@
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="25" t="s">
         <v>405</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>406</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>350</v>
@@ -28957,13 +29002,13 @@
         <v>351</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H15" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>218</v>
@@ -28975,16 +29020,16 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="D16" s="25" t="s">
         <v>410</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>411</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>350</v>
@@ -28993,13 +29038,13 @@
         <v>351</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>218</v>
@@ -29011,16 +29056,16 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>414</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>415</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>350</v>
@@ -29029,13 +29074,13 @@
         <v>351</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H17" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>218</v>
@@ -29047,16 +29092,16 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="C18" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="D18" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>419</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>350</v>
@@ -29065,13 +29110,13 @@
         <v>351</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H18" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>218</v>
@@ -29083,16 +29128,16 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="C19" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="25" t="s">
         <v>422</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>423</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>350</v>
@@ -29101,13 +29146,13 @@
         <v>351</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H19" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>218</v>
@@ -29119,16 +29164,16 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="C20" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="D20" s="25" t="s">
         <v>426</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>427</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>350</v>
@@ -29137,13 +29182,13 @@
         <v>351</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>218</v>
@@ -29155,16 +29200,16 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="C21" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>431</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>350</v>
@@ -29173,13 +29218,13 @@
         <v>351</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>218</v>
@@ -29191,16 +29236,16 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="C22" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>435</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>350</v>
@@ -29209,13 +29254,13 @@
         <v>351</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H22" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>218</v>
@@ -29227,16 +29272,16 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="C23" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>439</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>350</v>
@@ -29245,13 +29290,13 @@
         <v>351</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I23" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>218</v>
@@ -29263,16 +29308,16 @@
     </row>
     <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C24" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="D24" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>443</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>350</v>
@@ -29281,13 +29326,13 @@
         <v>351</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>218</v>
@@ -29299,16 +29344,16 @@
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="25" t="s">
         <v>446</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>447</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>350</v>
@@ -29317,13 +29362,13 @@
         <v>351</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>120</v>
       </c>
       <c r="I25" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>218</v>
@@ -29335,16 +29380,16 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="C26" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="25" t="s">
         <v>450</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>451</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>350</v>
@@ -29357,7 +29402,7 @@
         <v>120</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J26" s="31" t="s">
         <v>218</v>
@@ -29369,16 +29414,16 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="C27" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>454</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>455</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>350</v>
@@ -29391,7 +29436,7 @@
         <v>120</v>
       </c>
       <c r="I27" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>218</v>
@@ -29403,16 +29448,16 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="C28" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="D28" s="25" t="s">
         <v>458</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>459</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>350</v>
@@ -29425,7 +29470,7 @@
         <v>120</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>218</v>
@@ -29437,8 +29482,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="28"/>
-  <conditionalFormatting sqref="F3:L4 F5:K13 L5:L13 F14:L28 A2:E28">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="F3:L10 A2:E10 A12:L28">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29469,7 +29514,7 @@
     <hyperlink ref="A28" r:id="rId24" tooltip="http://www.slca-kobe.jp/menu/sitemap.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
     <hyperlink ref="A2" r:id="rId25" tooltip="http://www.slca-kobe.jp/availability.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
     <hyperlink ref="C3" r:id="rId26"/>
-    <hyperlink ref="C4" r:id="rId27"/>
+    <hyperlink ref="C4" r:id="rId27" display="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy/"/>
     <hyperlink ref="A6" r:id="rId28"/>
     <hyperlink ref="C6" r:id="rId29"/>
     <hyperlink ref="A7" r:id="rId30"/>
@@ -29498,7 +29543,7 @@
     <hyperlink ref="C28" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -29535,13 +29580,13 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
@@ -29552,114 +29597,114 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>464</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>465</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>470</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>471</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>474</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>475</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>478</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>479</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>350</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J5" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="28"/>
   <conditionalFormatting sqref="A2:J5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29694,57 +29739,57 @@
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -29773,7 +29818,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29810,12 +29855,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -29839,7 +29884,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29954,7 +29999,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -29969,7 +30014,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -29999,7 +30044,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -30044,7 +30089,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -30138,7 +30183,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30151,12 +30196,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -30164,12 +30209,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -30177,7 +30222,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30205,7 +30250,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30216,7 +30261,7 @@
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F72" s="15"/>
     </row>
@@ -30228,7 +30273,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F73" s="15"/>
     </row>
@@ -30240,7 +30285,7 @@
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F74" s="15"/>
     </row>
@@ -30252,7 +30297,7 @@
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F75" s="15"/>
     </row>
@@ -30264,7 +30309,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F76" s="15"/>
     </row>
@@ -30279,7 +30324,7 @@
         <v>262</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30293,7 +30338,7 @@
         <v>270</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -30301,7 +30346,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30319,7 +30364,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30363,7 +30408,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -30381,7 +30426,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -30406,12 +30451,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -30433,7 +30478,7 @@
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F108" s="15"/>
       <c r="G108" s="15"/>
@@ -30466,7 +30511,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -30483,7 +30528,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30513,7 +30558,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -30524,7 +30569,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -30532,17 +30577,17 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30552,17 +30597,17 @@
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -30655,7 +30700,7 @@
   </sheetData>
   <phoneticPr fontId="28"/>
   <conditionalFormatting sqref="H29:H45 H92:H93 H48">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="529">
   <si>
     <t>Project</t>
   </si>
@@ -1207,9 +1207,6 @@
   <si>
     <t>テーブルのデザイン
 テーブルが複雑で問題あり！</t>
-  </si>
-  <si>
-    <t>Fixed</t>
   </si>
   <si>
     <t>ページが無い</t>
@@ -25509,8 +25506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27632,7 +27629,7 @@
     </row>
     <row r="43" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>299</v>
@@ -27654,14 +27651,14 @@
         <v>301</v>
       </c>
       <c r="I43" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J43" s="55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K43" s="55"/>
       <c r="L43" s="56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M43" s="57">
         <v>42832</v>
@@ -27685,16 +27682,16 @@
     </row>
     <row r="44" spans="1:30" ht="181.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C44" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="D44" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>117</v>
@@ -27705,23 +27702,23 @@
       <c r="G44" s="10"/>
       <c r="H44" s="44"/>
       <c r="I44" s="54" t="s">
-        <v>302</v>
+        <v>527</v>
       </c>
       <c r="J44" s="55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K44" s="55"/>
       <c r="L44" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M44" s="57">
         <v>42832</v>
       </c>
       <c r="N44" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O44" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U44" s="69"/>
       <c r="V44" s="69"/>
@@ -27736,16 +27733,16 @@
     </row>
     <row r="45" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="C45" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="D45" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>117</v>
@@ -27769,24 +27766,24 @@
         <v>42830</v>
       </c>
       <c r="N45" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O45" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="D46" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>316</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>117</v>
@@ -27796,7 +27793,7 @@
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I46" s="54" t="s">
         <v>121</v>
@@ -27812,24 +27809,24 @@
         <v>42830</v>
       </c>
       <c r="N46" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O46" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="36" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="C47" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="D47" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>117</v>
@@ -27853,24 +27850,24 @@
         <v>42830</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O47" s="29" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="C48" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="D48" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>117</v>
@@ -27894,24 +27891,24 @@
         <v>42830</v>
       </c>
       <c r="N48" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O48" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="C49" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="D49" s="10" t="s">
         <v>328</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>117</v>
@@ -27935,24 +27932,24 @@
         <v>42830</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O49" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="D50" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>117</v>
@@ -27963,10 +27960,10 @@
       <c r="G50" s="10"/>
       <c r="H50" s="44"/>
       <c r="I50" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J50" s="55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K50" s="55"/>
       <c r="L50" s="56"/>
@@ -27974,24 +27971,24 @@
         <v>42832</v>
       </c>
       <c r="N50" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O50" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="C51" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="D51" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>337</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>117</v>
@@ -28015,24 +28012,24 @@
         <v>42830</v>
       </c>
       <c r="N51" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O51" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="C52" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="D52" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>117</v>
@@ -28056,24 +28053,24 @@
         <v>42830</v>
       </c>
       <c r="N52" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O52" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="C53" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="D53" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>345</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>117</v>
@@ -28097,24 +28094,24 @@
         <v>42830</v>
       </c>
       <c r="N53" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O53" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B54" t="s">
         <v>346</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="D54" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>117</v>
@@ -28138,10 +28135,10 @@
         <v>42830</v>
       </c>
       <c r="N54" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -28341,7 +28338,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>102</v>
@@ -28350,7 +28347,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
@@ -28376,29 +28373,29 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="28" t="s">
         <v>358</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>359</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>121</v>
@@ -28409,17 +28406,17 @@
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>362</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>363</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -28427,7 +28424,7 @@
         <v>121</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" s="30" t="s">
         <v>121</v>
@@ -28439,19 +28436,19 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>369</v>
-      </c>
       <c r="E4" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>118</v>
@@ -28462,7 +28459,7 @@
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K4" s="35">
         <v>42831</v>
@@ -28471,19 +28468,19 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="E5" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>118</v>
@@ -28496,7 +28493,7 @@
         <v>121</v>
       </c>
       <c r="J5" s="30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K5" s="35">
         <v>42829</v>
@@ -28505,22 +28502,22 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>377</v>
-      </c>
       <c r="E6" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30" t="s">
@@ -28539,22 +28536,22 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="C7" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>380</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
@@ -28573,25 +28570,25 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>384</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>385</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>121</v>
@@ -28607,29 +28604,29 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>389</v>
-      </c>
       <c r="E9" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>220</v>
@@ -28641,29 +28638,29 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>394</v>
-      </c>
       <c r="E10" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>220</v>
@@ -28675,29 +28672,29 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="D11" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>398</v>
-      </c>
       <c r="E11" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>220</v>
@@ -28709,29 +28706,29 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>403</v>
-      </c>
       <c r="E12" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>220</v>
@@ -28743,29 +28740,29 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="D13" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>407</v>
-      </c>
       <c r="E13" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>220</v>
@@ -28777,31 +28774,31 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>411</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>412</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>220</v>
@@ -28813,31 +28810,31 @@
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C15" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="D15" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>416</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>417</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>220</v>
@@ -28849,31 +28846,31 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>421</v>
-      </c>
       <c r="E16" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G16" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>220</v>
@@ -28885,31 +28882,31 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="C17" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>425</v>
-      </c>
       <c r="E17" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G17" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>220</v>
@@ -28921,31 +28918,31 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="C18" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>429</v>
-      </c>
       <c r="E18" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J18" s="30" t="s">
         <v>220</v>
@@ -28957,31 +28954,31 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="D19" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>433</v>
-      </c>
       <c r="E19" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G19" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J19" s="30" t="s">
         <v>220</v>
@@ -28993,31 +28990,31 @@
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="D20" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>437</v>
-      </c>
       <c r="E20" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>220</v>
@@ -29029,31 +29026,31 @@
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>441</v>
-      </c>
       <c r="E21" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G21" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>220</v>
@@ -29065,31 +29062,31 @@
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>445</v>
-      </c>
       <c r="E22" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G22" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J22" s="30" t="s">
         <v>220</v>
@@ -29101,31 +29098,31 @@
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="C23" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="D23" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>449</v>
-      </c>
       <c r="E23" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J23" s="30" t="s">
         <v>220</v>
@@ -29137,31 +29134,31 @@
     </row>
     <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="C24" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D24" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>453</v>
-      </c>
       <c r="E24" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>220</v>
@@ -29173,31 +29170,31 @@
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="C25" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="D25" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>457</v>
-      </c>
       <c r="E25" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>358</v>
-      </c>
       <c r="G25" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>220</v>
@@ -29209,29 +29206,29 @@
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="C26" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="D26" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>461</v>
-      </c>
       <c r="E26" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>220</v>
@@ -29243,29 +29240,29 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>465</v>
-      </c>
       <c r="E27" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J27" s="30" t="s">
         <v>220</v>
@@ -29277,29 +29274,29 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="D28" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="E28" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="F28" s="30" t="s">
         <v>357</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>358</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>220</v>
@@ -29400,7 +29397,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>102</v>
@@ -29409,13 +29406,13 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
         <v>110</v>
@@ -29426,107 +29423,107 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>475</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>476</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>481</v>
-      </c>
       <c r="E3" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>485</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>489</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J5" s="24"/>
     </row>
@@ -29568,57 +29565,57 @@
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -29647,7 +29644,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29684,12 +29681,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -29713,7 +29710,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29828,7 +29825,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -29843,7 +29840,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -29853,7 +29850,7 @@
       </c>
       <c r="F37" s="7"/>
       <c r="H37" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -29873,7 +29870,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -29918,7 +29915,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -30012,7 +30009,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30025,12 +30022,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -30038,12 +30035,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -30051,7 +30048,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30061,7 +30058,7 @@
     </row>
     <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30079,7 +30076,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30090,7 +30087,7 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -30102,7 +30099,7 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -30114,7 +30111,7 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F74" s="14"/>
     </row>
@@ -30126,7 +30123,7 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F75" s="14"/>
     </row>
@@ -30138,7 +30135,7 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F76" s="14"/>
     </row>
@@ -30153,7 +30150,7 @@
         <v>264</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30167,7 +30164,7 @@
         <v>272</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -30175,7 +30172,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30185,7 +30182,7 @@
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -30193,7 +30190,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30237,7 +30234,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -30255,7 +30252,7 @@
         <v>203</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -30280,12 +30277,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -30307,7 +30304,7 @@
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -30340,7 +30337,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -30357,7 +30354,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30367,7 +30364,7 @@
     </row>
     <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
@@ -30387,7 +30384,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -30398,7 +30395,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -30406,17 +30403,17 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30426,17 +30423,17 @@
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -2098,7 +2098,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2138,6 +2138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,7 +2639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3050,6 +3056,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="8" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -3069,7 +3087,14 @@
     <cellStyle name="標準 9" xfId="14"/>
     <cellStyle name="標準_h_sitemap_recaldent-20090520" xfId="15"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -25506,7 +25531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -28147,7 +28172,7 @@
   </sortState>
   <phoneticPr fontId="26"/>
   <conditionalFormatting sqref="N48:O54 N2:O16 A34:O34 N38:O46 L38 D7:M7 D8:J8 L8:M8 D9:M11 D12:J12 L12:M12 D13:M16 D2:L4 A2:C16 D5:M5 A53:B53 D6:E6 L40:L46 C53:E54 A48:E52 A38:K38 A39:J39 A40:J40 A41:K45 A46:J46 J50">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28312,8 +28337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -28527,7 +28552,7 @@
         <v>121</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>220</v>
+        <v>527</v>
       </c>
       <c r="K6" s="35">
         <v>42829</v>
@@ -28561,7 +28586,7 @@
         <v>121</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>220</v>
+        <v>527</v>
       </c>
       <c r="K7" s="35">
         <v>42829</v>
@@ -28671,38 +28696,38 @@
       <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="140" t="s">
         <v>394</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="140" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="141" t="s">
         <v>396</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="140" t="s">
         <v>397</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="142" t="s">
         <v>356</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="142" t="s">
         <v>357</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="142"/>
+      <c r="H11" s="142" t="s">
         <v>398</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="142" t="s">
         <v>389</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="142" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="143">
         <v>42829</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="142"/>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -29308,8 +29333,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="26"/>
-  <conditionalFormatting sqref="F3:L28 A2:E28">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="F3:L10 A2:E10 A12:L28">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29530,7 +29555,7 @@
   </sheetData>
   <phoneticPr fontId="26"/>
   <conditionalFormatting sqref="A2:J5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30526,7 +30551,7 @@
   </sheetData>
   <phoneticPr fontId="26"/>
   <conditionalFormatting sqref="H29:H45 H92:H93 H48">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="therapy一覧" sheetId="4" r:id="rId4"/>
     <sheet name="通常固定ページ一覧" sheetId="5" r:id="rId5"/>
     <sheet name="問い合わせフォーム" sheetId="6" r:id="rId6"/>
-    <sheet name="メモ" sheetId="7" r:id="rId7"/>
+    <sheet name="各メニューリンク先" sheetId="9" r:id="rId7"/>
     <sheet name="サイドバー" sheetId="8" r:id="rId8"/>
+    <sheet name="メモ" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">sorce!$A$1:$AQ$65</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="579">
   <si>
     <t>Project</t>
   </si>
@@ -1368,9 +1369,6 @@
     <t>availability</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/availability/</t>
-  </si>
-  <si>
     <t>今週のご予約空状況のお知らせ</t>
   </si>
   <si>
@@ -1423,9 +1421,6 @@
     <t>therapy-order</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy/</t>
-  </si>
-  <si>
     <t>初診時の流れ</t>
   </si>
   <si>
@@ -1435,9 +1430,6 @@
     <t>therapy-album</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-album/</t>
-  </si>
-  <si>
     <t>症例写真集</t>
   </si>
   <si>
@@ -1459,18 +1451,12 @@
     <t>menu-concept2</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-concept2/</t>
-  </si>
-  <si>
     <t>http://www.slca-kobe.jp/menu/content.html</t>
   </si>
   <si>
     <t>menu-content</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-content/</t>
-  </si>
-  <si>
     <t>治療内容・料金一覧</t>
   </si>
   <si>
@@ -1483,9 +1469,6 @@
     <t>menu-coverage</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-coverage/</t>
-  </si>
-  <si>
     <t>メディア取材</t>
   </si>
   <si>
@@ -1498,9 +1481,6 @@
     <t>menu-information</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-information/</t>
-  </si>
-  <si>
     <t>クリニックのご案内・地図</t>
   </si>
   <si>
@@ -1523,9 +1503,6 @@
   </si>
   <si>
     <t>menu-persistence</t>
-  </si>
-  <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-persistence/</t>
   </si>
   <si>
     <t>院長のこだわり・紹介</t>
@@ -1668,9 +1645,6 @@
   </si>
   <si>
     <t>menu-qa-simi</t>
-  </si>
-  <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-qa-simi/</t>
   </si>
   <si>
     <t>シミについて</t>
@@ -1711,9 +1685,6 @@
     <t>menu-recruit</t>
   </si>
   <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-recruit/</t>
-  </si>
-  <si>
     <t>リクルート</t>
   </si>
   <si>
@@ -1930,6 +1901,310 @@
   <si>
     <t>○</t>
     <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-qa-simi/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-fleck/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/therapy-fleck/</t>
+  </si>
+  <si>
+    <t>シミ・くすみ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>シワ・たるみ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/therapy-lines/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>クマ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-dark/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>毛穴・美肌</t>
+    <rPh sb="0" eb="2">
+      <t>ケアナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビハダ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>再生治療</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チリョウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>アンチエイジング</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>小顔・脂肪溶解</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウカイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>脇汗・薄毛(育毛)</t>
+    <rPh sb="0" eb="1">
+      <t>ワキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウスゲ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イクモウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/therapy-dark/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>ご予約空き状況</t>
+    <rPh sb="1" eb="3">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>料金一覧</t>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>症例集</t>
+    <rPh sb="0" eb="2">
+      <t>ショウレイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シュウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>院長のご紹介</t>
+    <rPh sb="0" eb="2">
+      <t>インチョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>初診時の流れ</t>
+    <rPh sb="0" eb="2">
+      <t>ショシン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>アクセス・診療時間</t>
+    <rPh sb="5" eb="7">
+      <t>シンリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>コンセプト</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>よくある質問</t>
+    <rPh sb="4" eb="6">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/menu-inquiry/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-concept2/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-order/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/therapy-order/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-content/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/menu-content/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/availability/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/availability/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-album/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/therapy-album/</t>
+  </si>
+  <si>
+    <t>メディア取材</t>
+    <rPh sb="4" eb="6">
+      <t>シュザイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-coverage/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/menu-coverage/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-information/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/menu-information/</t>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-persistence/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>LINE</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://line.me/R/ti/p/E0co1shDtH</t>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>スマホのTOP</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>クリニック紹介(院長のご紹介)</t>
+    <rPh sb="5" eb="7">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>クリニック紹介(コンセプト）</t>
+    <rPh sb="5" eb="7">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>コスメ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>スタッフ募集</t>
+    <rPh sb="4" eb="6">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/menu-concept2/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/menu-persistence/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/menu-content/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/therapy-order/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/menu-information/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-cosmetic/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/therapy-cosmetic/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/menu-recruit/</t>
+    <phoneticPr fontId="25"/>
+  </si>
+  <si>
+    <t>/menu-recruit/</t>
   </si>
 </sst>
 </file>
@@ -1937,9 +2212,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2108,6 +2383,17 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2666,7 +2952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3032,12 +3318,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3095,8 +3375,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="24" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -3119,7 +3408,14 @@
     <cellStyle name="標準 9" xfId="16"/>
     <cellStyle name="標準_h_sitemap_recaldent-20090520" xfId="17"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -9902,163 +10198,163 @@
     <row r="1" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="123" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="124" t="s">
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="123" t="s">
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123" t="s">
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
     </row>
     <row r="2" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="142" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="142" t="s">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="125" t="s">
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="125" t="s">
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="126" t="s">
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
     </row>
     <row r="3" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="125" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="125" t="s">
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="126" t="s">
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
     </row>
     <row r="4" spans="1:44" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -12845,6 +13141,8 @@
     <row r="78" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
@@ -12861,8 +13159,6 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12889,165 +13185,165 @@
     <row r="1" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="133" t="s">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="123" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="124" t="s">
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="123" t="s">
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123" t="s">
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
+      <c r="AM1" s="143"/>
+      <c r="AN1" s="143"/>
+      <c r="AO1" s="143"/>
+      <c r="AP1" s="143"/>
+      <c r="AQ1" s="143"/>
     </row>
     <row r="2" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="142" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="142" t="s">
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="125" t="s">
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="125" t="s">
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="126" t="s">
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
     </row>
     <row r="3" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="125" t="s">
+      <c r="C3" s="129"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="125" t="s">
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="124"/>
+      <c r="AI3" s="124"/>
+      <c r="AJ3" s="124"/>
+      <c r="AK3" s="124"/>
+      <c r="AL3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="126" t="s">
+      <c r="AM3" s="123"/>
+      <c r="AN3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
+      <c r="AO3" s="124"/>
+      <c r="AP3" s="124"/>
+      <c r="AQ3" s="124"/>
     </row>
     <row r="4" spans="1:44" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -25460,6 +25756,8 @@
     <row r="284" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
@@ -25476,8 +25774,6 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25563,8 +25859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27490,7 +27786,7 @@
         <v>282</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>283</v>
+        <v>575</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>284</v>
@@ -27541,7 +27837,7 @@
         <v>286</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>287</v>
+        <v>531</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>288</v>
@@ -27592,7 +27888,7 @@
         <v>290</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>291</v>
+        <v>525</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>292</v>
@@ -28214,12 +28510,12 @@
   </sortState>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="N48:O54 N2:O16 A34:J34 L34:O34 N38:O46 A38:J46 L38 D7:J16 L7:M16 D2:J5 L2:L4 A2:C16 L5:M5 A53:B53 D6:E6 L40:L46 C53:E54 A48:E52 J50">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34 K38 K7 K9:K11 K13:K16 K2:K5 K41:K45">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28384,16 +28680,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="4" max="4" width="44.21875" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
@@ -28452,23 +28748,23 @@
         <v>353</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="28" t="s">
         <v>357</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>358</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J2" s="36" t="s">
         <v>121</v>
@@ -28479,17 +28775,17 @@
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>361</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>362</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -28497,7 +28793,7 @@
         <v>121</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="38">
@@ -28507,19 +28803,19 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="29" t="s">
+        <v>548</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>368</v>
-      </c>
       <c r="E4" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>118</v>
@@ -28537,19 +28833,19 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>372</v>
-      </c>
       <c r="E5" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>118</v>
@@ -28569,22 +28865,22 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>376</v>
-      </c>
       <c r="E6" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="30" t="s">
@@ -28601,22 +28897,22 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>379</v>
+        <v>547</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
@@ -28633,25 +28929,25 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>382</v>
+        <v>550</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E8" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G8" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H8" s="30" t="s">
         <v>121</v>
@@ -28665,29 +28961,29 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>387</v>
+        <v>557</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E9" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="38">
@@ -28697,29 +28993,29 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>392</v>
+        <v>559</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E10" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="38">
@@ -28729,29 +29025,29 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E11" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>356</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>357</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="33" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="39">
@@ -28761,29 +29057,29 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>401</v>
+        <v>561</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="38">
@@ -28793,29 +29089,29 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="38">
@@ -28825,31 +29121,31 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="38">
@@ -28859,31 +29155,31 @@
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E15" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G15" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="38">
@@ -28893,31 +29189,31 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E16" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G16" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="38">
@@ -28927,31 +29223,31 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E17" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G17" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="38">
@@ -28961,31 +29257,31 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E18" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="38">
@@ -28995,25 +29291,25 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E19" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G19" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>121</v>
@@ -29029,25 +29325,25 @@
     </row>
     <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>121</v>
@@ -29056,7 +29352,7 @@
         <v>121</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K20" s="38">
         <v>42835</v>
@@ -29065,25 +29361,25 @@
     </row>
     <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E21" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G21" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>121</v>
@@ -29092,7 +29388,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K21" s="38">
         <v>42835</v>
@@ -29101,34 +29397,34 @@
     </row>
     <row r="22" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E22" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G22" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K22" s="38">
         <v>42835</v>
@@ -29137,34 +29433,34 @@
     </row>
     <row r="23" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E23" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K23" s="38">
         <v>42835</v>
@@ -29173,34 +29469,34 @@
     </row>
     <row r="24" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E24" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G24" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H24" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K24" s="38">
         <v>42835</v>
@@ -29209,34 +29505,34 @@
     </row>
     <row r="25" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="E25" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>357</v>
-      </c>
       <c r="G25" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K25" s="38">
         <v>42835</v>
@@ -29245,32 +29541,32 @@
     </row>
     <row r="26" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>462</v>
+        <v>577</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="E26" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="K26" s="38">
         <v>42835</v>
@@ -29279,29 +29575,29 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E27" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="38">
@@ -29311,32 +29607,32 @@
     </row>
     <row r="28" spans="1:12" ht="125.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E28" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="F28" s="30" t="s">
         <v>356</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>357</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30" t="s">
         <v>121</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="K28" s="38">
         <v>42835</v>
@@ -29349,7 +29645,7 @@
   </sheetData>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="A2:E10 F3:L10 A12:L13 A14:K17 J18:K27 L14:L27 J28:L28 A18:I28">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29380,7 +29676,7 @@
     <hyperlink ref="A28" r:id="rId24" tooltip="http://www.slca-kobe.jp/menu/sitemap.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
     <hyperlink ref="A2" r:id="rId25" tooltip="http://www.slca-kobe.jp/availability.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
     <hyperlink ref="C3" r:id="rId26"/>
-    <hyperlink ref="C4" r:id="rId27"/>
+    <hyperlink ref="C4" r:id="rId27" display="https://ivory-elephant-7167119d0371e956.znlc.jp/therapy/"/>
     <hyperlink ref="A6" r:id="rId28"/>
     <hyperlink ref="C6" r:id="rId29"/>
     <hyperlink ref="A7" r:id="rId30"/>
@@ -29409,7 +29705,7 @@
     <hyperlink ref="C28" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -29446,16 +29742,16 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="I1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>8</v>
@@ -29463,114 +29759,114 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="24" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="24" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="J5" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="A2:J5">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29587,80 +29883,209 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A17"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="43" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>42821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>506</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="145" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="145" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="145" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="145" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="145" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="145" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" s="145" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>530</v>
+      </c>
+      <c r="B22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="145" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="145" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="145" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="145" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="145" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="145" t="s">
+        <v>568</v>
+      </c>
+      <c r="B29" s="145" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="145" t="s">
+        <v>569</v>
+      </c>
+      <c r="B30" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="145" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="25"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="26"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -29668,7 +30093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -29684,7 +30109,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29721,12 +30146,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -29750,7 +30175,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -29865,7 +30290,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -29880,7 +30305,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -29890,7 +30315,7 @@
       </c>
       <c r="F37" s="7"/>
       <c r="H37" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -29910,7 +30335,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -29955,7 +30380,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -30049,7 +30474,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30062,12 +30487,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -30075,12 +30500,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -30088,7 +30513,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30116,7 +30541,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30127,7 +30552,7 @@
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F72" s="14"/>
     </row>
@@ -30139,7 +30564,7 @@
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F73" s="14"/>
     </row>
@@ -30151,7 +30576,7 @@
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F74" s="14"/>
     </row>
@@ -30163,7 +30588,7 @@
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F75" s="14"/>
     </row>
@@ -30175,7 +30600,7 @@
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F76" s="14"/>
     </row>
@@ -30190,7 +30615,7 @@
         <v>264</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -30204,7 +30629,7 @@
         <v>272</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -30212,7 +30637,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30230,7 +30655,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -30274,7 +30699,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -30292,7 +30717,7 @@
         <v>203</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -30317,12 +30742,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -30344,7 +30769,7 @@
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
       <c r="E108" s="12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="14"/>
@@ -30377,7 +30802,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -30394,7 +30819,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30424,7 +30849,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -30435,7 +30860,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -30443,17 +30868,17 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -30463,17 +30888,17 @@
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="18" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -30653,4 +31078,83 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId78"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="通常固定ページ一覧" sheetId="5" r:id="rId5"/>
     <sheet name="問い合わせフォーム" sheetId="6" r:id="rId6"/>
     <sheet name="各メニューリンク先" sheetId="9" r:id="rId7"/>
-    <sheet name="サイドバー" sheetId="8" r:id="rId8"/>
-    <sheet name="メモ" sheetId="7" r:id="rId9"/>
+    <sheet name="SideBar" sheetId="10" r:id="rId8"/>
+    <sheet name="OLD-サイドバー" sheetId="8" r:id="rId9"/>
+    <sheet name="メモ" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">sorce!$A$1:$AQ$65</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="580">
   <si>
     <t>Project</t>
   </si>
@@ -2205,6 +2206,10 @@
   </si>
   <si>
     <t>/menu-recruit/</t>
+  </si>
+  <si>
+    <t>Link</t>
+    <phoneticPr fontId="26"/>
   </si>
 </sst>
 </file>
@@ -2399,7 +2404,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2454,8 +2459,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2897,6 +2908,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2952,7 +2993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3318,6 +3359,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3384,7 +3428,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="13" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="36" xfId="13" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3408,14 +3512,7 @@
     <cellStyle name="標準 9" xfId="16"/>
     <cellStyle name="標準_h_sitemap_recaldent-20090520" xfId="17"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8696,6 +8793,563 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="シミ">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D264E948-45A6-49EA-B168-76EBB9DE2F51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3482340"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="しわ">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560CC48F-7A0E-4366-93A3-909B930BB917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4610100"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="クマ">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D08501-BD49-4F59-8045-3180524D41FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13586460"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6" descr="http://www.slca-kobe.jp/images/sidemenu_title_beauty.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4973C0-2E3D-48E8-AACC-D3D7DD4663B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18006060"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7" descr="再生医療">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F001A777-7C2D-4950-96EB-3B1086183C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21191220"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8" descr="antiaging">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C648762A-3618-473B-AD51-E9BF7906A30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22318980"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9" descr="antiaging">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36FA13E-00F2-45DB-802B-46EE2905106F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24300180"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10" descr="antiaging">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FBFDA2-E5BE-4DCF-A147-2DFD6E63BA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25991820"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="antiaging">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18569CD-2B92-461A-89F1-97CECC287BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26723340"/>
+          <a:ext cx="2194560" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -10198,163 +10852,163 @@
     <row r="1" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="143" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="143" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143" t="s">
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="144"/>
+      <c r="AO1" s="144"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
     </row>
     <row r="2" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="140" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="140" t="s">
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="123" t="s">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="123" t="s">
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="124" t="s">
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
     </row>
     <row r="3" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="123" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="123" t="s">
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="124" t="s">
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
     </row>
     <row r="4" spans="1:44" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -13141,17 +13795,6 @@
     <row r="78" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:N3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="S2:Z3"/>
-    <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
@@ -13159,6 +13802,17 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:N3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13166,6 +13820,85 @@
   <headerFooter>
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="25"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13185,165 +13918,165 @@
     <row r="1" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84"/>
       <c r="B1" s="84"/>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="131" t="s">
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="143" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="144" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="143" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143" t="s">
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
+      <c r="AJ1" s="144"/>
+      <c r="AK1" s="144"/>
+      <c r="AL1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
+      <c r="AM1" s="144"/>
+      <c r="AN1" s="144"/>
+      <c r="AO1" s="144"/>
+      <c r="AP1" s="144"/>
+      <c r="AQ1" s="144"/>
     </row>
     <row r="2" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="140" t="s">
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="140" t="s">
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="123" t="s">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="123"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="123" t="s">
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="123"/>
-      <c r="AN2" s="124" t="s">
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
     </row>
     <row r="3" spans="1:44" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="84"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="123" t="s">
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="124"/>
-      <c r="AI3" s="124"/>
-      <c r="AJ3" s="124"/>
-      <c r="AK3" s="124"/>
-      <c r="AL3" s="123" t="s">
+      <c r="AG3" s="124"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="123"/>
-      <c r="AN3" s="124" t="s">
+      <c r="AM3" s="124"/>
+      <c r="AN3" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="124"/>
-      <c r="AP3" s="124"/>
-      <c r="AQ3" s="124"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
     </row>
     <row r="4" spans="1:44" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="84"/>
@@ -25756,17 +26489,6 @@
     <row r="284" s="82" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="F1:N3"/>
-    <mergeCell ref="O2:R3"/>
-    <mergeCell ref="S2:Z3"/>
-    <mergeCell ref="AA2:AB3"/>
     <mergeCell ref="AC2:AE3"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:AE1"/>
@@ -25774,6 +26496,17 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="F1:N3"/>
+    <mergeCell ref="O2:R3"/>
+    <mergeCell ref="S2:Z3"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="25"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28510,12 +29243,12 @@
   </sortState>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="N48:O54 N2:O16 A34:J34 L34:O34 N38:O46 A38:J46 L38 D7:J16 L7:M16 D2:J5 L2:L4 A2:C16 L5:M5 A53:B53 D6:E6 L40:L46 C53:E54 A48:E52 J50">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34 K38 K7 K9:K11 K13:K16 K2:K5 K41:K45">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29645,7 +30378,7 @@
   </sheetData>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="A2:E10 F3:L10 A12:L13 A14:K17 J18:K27 L14:L27 J28:L28 A18:I28">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29866,7 +30599,7 @@
   </sheetData>
   <phoneticPr fontId="25"/>
   <conditionalFormatting sqref="A2:J5">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29885,7 +30618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -29895,17 +30628,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="123" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="123" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="123" t="s">
         <v>566</v>
       </c>
     </row>
@@ -29934,7 +30667,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="123" t="s">
         <v>565</v>
       </c>
     </row>
@@ -29950,7 +30683,7 @@
       <c r="A12" t="s">
         <v>539</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="123" t="s">
         <v>572</v>
       </c>
     </row>
@@ -29963,10 +30696,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="123" t="s">
         <v>541</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="123" t="s">
         <v>571</v>
       </c>
     </row>
@@ -29974,7 +30707,7 @@
       <c r="A15" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="123" t="s">
         <v>573</v>
       </c>
     </row>
@@ -29982,7 +30715,7 @@
       <c r="A16" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="123" t="s">
         <v>574</v>
       </c>
     </row>
@@ -29990,7 +30723,7 @@
       <c r="A17" t="s">
         <v>544</v>
       </c>
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="123" t="s">
         <v>570</v>
       </c>
     </row>
@@ -30027,40 +30760,40 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="123" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="123" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="123" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="123" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="123" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="123" t="s">
         <v>568</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="123" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="123" t="s">
         <v>569</v>
       </c>
       <c r="B30" t="s">
@@ -30068,7 +30801,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="123" t="s">
         <v>556</v>
       </c>
       <c r="B31" t="s">
@@ -30076,7 +30809,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="123" t="s">
         <v>562</v>
       </c>
       <c r="B32" t="s">
@@ -30091,9 +30824,1420 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="13.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="23.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="146"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="162"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="149"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="163"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="149"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="163"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="163"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="163"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="163"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="163"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="163"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="163"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="149"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="163"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="151" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="163"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="154">
+        <v>1</v>
+      </c>
+      <c r="F29" s="163"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="153" t="s">
+        <v>256</v>
+      </c>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="154">
+        <v>2</v>
+      </c>
+      <c r="F30" s="163"/>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="154">
+        <v>3</v>
+      </c>
+      <c r="F31" s="163"/>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="154">
+        <v>4</v>
+      </c>
+      <c r="F32" s="163"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="153" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="154">
+        <v>5</v>
+      </c>
+      <c r="F33" s="163"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="153" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="154">
+        <v>6</v>
+      </c>
+      <c r="F34" s="163"/>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="154">
+        <v>7</v>
+      </c>
+      <c r="F35" s="163"/>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="153" t="s">
+        <v>500</v>
+      </c>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="154">
+        <v>8</v>
+      </c>
+      <c r="F36" s="163"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="153" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="154">
+        <v>9</v>
+      </c>
+      <c r="F37" s="163"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="154">
+        <v>10</v>
+      </c>
+      <c r="F38" s="163"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="153" t="s">
+        <v>503</v>
+      </c>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="154">
+        <v>11</v>
+      </c>
+      <c r="F39" s="163"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="153" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="154">
+        <v>12</v>
+      </c>
+      <c r="F40" s="163"/>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="153" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="154">
+        <v>13</v>
+      </c>
+      <c r="F41" s="163"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="153" t="s">
+        <v>504</v>
+      </c>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="154">
+        <v>14</v>
+      </c>
+      <c r="F42" s="163"/>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="154">
+        <v>15</v>
+      </c>
+      <c r="F43" s="163"/>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="154">
+        <v>16</v>
+      </c>
+      <c r="F44" s="163"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="153" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="154">
+        <v>17</v>
+      </c>
+      <c r="F45" s="163"/>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="163"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="148"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="163"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="156">
+        <v>18</v>
+      </c>
+      <c r="F48" s="163"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="148"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="163"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="163"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="149"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="163"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="149" t="s">
+        <v>505</v>
+      </c>
+      <c r="B52" s="148"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="163"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="148"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="163"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="149"/>
+      <c r="B54" s="148"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="163"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="149" t="s">
+        <v>506</v>
+      </c>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="163"/>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="150" t="s">
+        <v>507</v>
+      </c>
+      <c r="B56" s="148"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="163"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="149"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="163"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="149" t="s">
+        <v>508</v>
+      </c>
+      <c r="B58" s="148"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="163"/>
+    </row>
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="150" t="s">
+        <v>509</v>
+      </c>
+      <c r="B59" s="148"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="163"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="149"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="163"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="149" t="s">
+        <v>510</v>
+      </c>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="163"/>
+    </row>
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="163"/>
+    </row>
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="163"/>
+    </row>
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="150" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="148"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="163"/>
+    </row>
+    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="148"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="163"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="148"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="163"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="148"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="163"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="148"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="163"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="148"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="163"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="149"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="163"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="149" t="s">
+        <v>511</v>
+      </c>
+      <c r="B71" s="148"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="163"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="155" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="157"/>
+      <c r="E72" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F72" s="164"/>
+    </row>
+    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F73" s="164"/>
+    </row>
+    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F74" s="164"/>
+    </row>
+    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="155" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" s="157"/>
+      <c r="C75" s="157"/>
+      <c r="D75" s="157"/>
+      <c r="E75" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F75" s="164"/>
+    </row>
+    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="155" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="157"/>
+      <c r="C76" s="157"/>
+      <c r="D76" s="157"/>
+      <c r="E76" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F76" s="164"/>
+    </row>
+    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" s="148"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="156"/>
+      <c r="F77" s="163"/>
+    </row>
+    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="148"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F78" s="163"/>
+    </row>
+    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="148"/>
+      <c r="C79" s="148"/>
+      <c r="D79" s="148"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="163"/>
+    </row>
+    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" s="148"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F80" s="163"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="149"/>
+      <c r="B81" s="148"/>
+      <c r="C81" s="148"/>
+      <c r="D81" s="148"/>
+      <c r="E81" s="148"/>
+      <c r="F81" s="163"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="149" t="s">
+        <v>510</v>
+      </c>
+      <c r="B82" s="148"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148"/>
+      <c r="F82" s="163"/>
+    </row>
+    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" s="148"/>
+      <c r="C83" s="148"/>
+      <c r="D83" s="148"/>
+      <c r="E83" s="148"/>
+      <c r="F83" s="163"/>
+    </row>
+    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="148"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="163"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="149"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="163"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="149" t="s">
+        <v>513</v>
+      </c>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="163"/>
+    </row>
+    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="148"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="163"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="148"/>
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="163"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="148"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="163"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="149"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="148"/>
+      <c r="F90" s="163"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="149"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="148"/>
+      <c r="F91" s="163"/>
+    </row>
+    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" s="156"/>
+      <c r="C92" s="156"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="156">
+        <v>19</v>
+      </c>
+      <c r="F92" s="163"/>
+    </row>
+    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="155" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="156"/>
+      <c r="C93" s="156"/>
+      <c r="D93" s="156"/>
+      <c r="E93" s="156">
+        <v>20</v>
+      </c>
+      <c r="F93" s="163"/>
+    </row>
+    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="158" t="s">
+        <v>514</v>
+      </c>
+      <c r="B94" s="159"/>
+      <c r="C94" s="159"/>
+      <c r="D94" s="159"/>
+      <c r="E94" s="159"/>
+      <c r="F94" s="165"/>
+    </row>
+    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="148"/>
+      <c r="C95" s="148"/>
+      <c r="D95" s="148"/>
+      <c r="E95" s="148"/>
+      <c r="F95" s="163"/>
+    </row>
+    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="155" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="148"/>
+      <c r="C96" s="148"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F96" s="163"/>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="150" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="148"/>
+      <c r="C97" s="148"/>
+      <c r="D97" s="148"/>
+      <c r="E97" s="148"/>
+      <c r="F97" s="163"/>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="148"/>
+      <c r="C98" s="148"/>
+      <c r="D98" s="148"/>
+      <c r="E98" s="148"/>
+      <c r="F98" s="163"/>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="148"/>
+      <c r="C99" s="148"/>
+      <c r="D99" s="148"/>
+      <c r="E99" s="148"/>
+      <c r="F99" s="163"/>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="148"/>
+      <c r="C100" s="148"/>
+      <c r="D100" s="148"/>
+      <c r="E100" s="148"/>
+      <c r="F100" s="163"/>
+    </row>
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="150" t="s">
+        <v>515</v>
+      </c>
+      <c r="B101" s="148"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="148"/>
+      <c r="E101" s="148"/>
+      <c r="F101" s="163"/>
+    </row>
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="150" t="s">
+        <v>516</v>
+      </c>
+      <c r="B102" s="148"/>
+      <c r="C102" s="148"/>
+      <c r="D102" s="148"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="163"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="148"/>
+      <c r="B103" s="148"/>
+      <c r="C103" s="148"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="163"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="148"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
+      <c r="D104" s="148"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="163"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="149"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
+      <c r="D105" s="148"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="163"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="149"/>
+      <c r="B106" s="148"/>
+      <c r="C106" s="148"/>
+      <c r="D106" s="148"/>
+      <c r="E106" s="148"/>
+      <c r="F106" s="163"/>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="148"/>
+      <c r="C107" s="148"/>
+      <c r="D107" s="148"/>
+      <c r="E107" s="148"/>
+      <c r="F107" s="163"/>
+    </row>
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B108" s="157"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="156" t="s">
+        <v>512</v>
+      </c>
+      <c r="F108" s="164"/>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="148"/>
+      <c r="B109" s="148"/>
+      <c r="C109" s="148"/>
+      <c r="D109" s="148"/>
+      <c r="E109" s="148"/>
+      <c r="F109" s="163"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="148"/>
+      <c r="B110" s="148"/>
+      <c r="C110" s="148"/>
+      <c r="D110" s="148"/>
+      <c r="E110" s="148"/>
+      <c r="F110" s="163"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="149"/>
+      <c r="B111" s="148"/>
+      <c r="C111" s="148"/>
+      <c r="D111" s="148"/>
+      <c r="E111" s="148"/>
+      <c r="F111" s="163"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="149"/>
+      <c r="B112" s="148"/>
+      <c r="C112" s="148"/>
+      <c r="D112" s="148"/>
+      <c r="E112" s="148"/>
+      <c r="F112" s="163"/>
+    </row>
+    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="148"/>
+      <c r="C113" s="148"/>
+      <c r="D113" s="148"/>
+      <c r="E113" s="148"/>
+      <c r="F113" s="163"/>
+    </row>
+    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" s="148"/>
+      <c r="C114" s="148"/>
+      <c r="D114" s="148"/>
+      <c r="E114" s="148"/>
+      <c r="F114" s="163"/>
+    </row>
+    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="148"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="148"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="163"/>
+    </row>
+    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="B116" s="148"/>
+      <c r="C116" s="148"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="163"/>
+    </row>
+    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="150" t="s">
+        <v>517</v>
+      </c>
+      <c r="B117" s="148"/>
+      <c r="C117" s="148"/>
+      <c r="D117" s="148"/>
+      <c r="E117" s="148"/>
+      <c r="F117" s="163"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="149"/>
+      <c r="B118" s="148"/>
+      <c r="C118" s="148"/>
+      <c r="D118" s="148"/>
+      <c r="E118" s="148"/>
+      <c r="F118" s="163"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="149"/>
+      <c r="B119" s="148"/>
+      <c r="C119" s="148"/>
+      <c r="D119" s="148"/>
+      <c r="E119" s="148"/>
+      <c r="F119" s="163"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="148"/>
+      <c r="B120" s="148"/>
+      <c r="C120" s="148"/>
+      <c r="D120" s="148"/>
+      <c r="E120" s="148"/>
+      <c r="F120" s="163"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="148"/>
+      <c r="B121" s="148"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="163"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="149"/>
+      <c r="B122" s="148"/>
+      <c r="C122" s="148"/>
+      <c r="D122" s="148"/>
+      <c r="E122" s="148"/>
+      <c r="F122" s="163"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="149"/>
+      <c r="B123" s="148"/>
+      <c r="C123" s="148"/>
+      <c r="D123" s="148"/>
+      <c r="E123" s="148"/>
+      <c r="F123" s="163"/>
+    </row>
+    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="150" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" s="148"/>
+      <c r="C124" s="148"/>
+      <c r="D124" s="148"/>
+      <c r="E124" s="148"/>
+      <c r="F124" s="163"/>
+    </row>
+    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="150" t="s">
+        <v>165</v>
+      </c>
+      <c r="B125" s="148"/>
+      <c r="C125" s="148"/>
+      <c r="D125" s="148"/>
+      <c r="E125" s="148"/>
+      <c r="F125" s="163"/>
+    </row>
+    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="B126" s="148"/>
+      <c r="C126" s="148"/>
+      <c r="D126" s="148"/>
+      <c r="E126" s="148"/>
+      <c r="F126" s="163"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="149"/>
+      <c r="B127" s="148"/>
+      <c r="C127" s="148"/>
+      <c r="D127" s="148"/>
+      <c r="E127" s="148"/>
+      <c r="F127" s="163"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="149"/>
+      <c r="B128" s="148"/>
+      <c r="C128" s="148"/>
+      <c r="D128" s="148"/>
+      <c r="E128" s="148"/>
+      <c r="F128" s="163"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="149"/>
+      <c r="B129" s="148"/>
+      <c r="C129" s="148"/>
+      <c r="D129" s="148"/>
+      <c r="E129" s="148"/>
+      <c r="F129" s="163"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="149"/>
+      <c r="B130" s="148"/>
+      <c r="C130" s="148"/>
+      <c r="D130" s="148"/>
+      <c r="E130" s="148"/>
+      <c r="F130" s="163"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="149"/>
+      <c r="B131" s="148"/>
+      <c r="C131" s="148"/>
+      <c r="D131" s="148"/>
+      <c r="E131" s="148"/>
+      <c r="F131" s="163"/>
+    </row>
+    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="150" t="s">
+        <v>519</v>
+      </c>
+      <c r="B132" s="148"/>
+      <c r="C132" s="148"/>
+      <c r="D132" s="148"/>
+      <c r="E132" s="148"/>
+      <c r="F132" s="163"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="148"/>
+      <c r="B133" s="148"/>
+      <c r="C133" s="148"/>
+      <c r="D133" s="148"/>
+      <c r="E133" s="148"/>
+      <c r="F133" s="163"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="149"/>
+      <c r="B134" s="148"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="148"/>
+      <c r="F134" s="163"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="149"/>
+      <c r="B135" s="148"/>
+      <c r="C135" s="148"/>
+      <c r="D135" s="148"/>
+      <c r="E135" s="148"/>
+      <c r="F135" s="163"/>
+    </row>
+    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="160" t="s">
+        <v>520</v>
+      </c>
+      <c r="B136" s="161"/>
+      <c r="C136" s="161"/>
+      <c r="D136" s="161"/>
+      <c r="E136" s="161"/>
+      <c r="F136" s="166"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="18"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A22" r:id="rId2"/>
+    <hyperlink ref="A29" r:id="rId3"/>
+    <hyperlink ref="A30" r:id="rId4"/>
+    <hyperlink ref="A31" r:id="rId5"/>
+    <hyperlink ref="A32" r:id="rId6"/>
+    <hyperlink ref="A33" r:id="rId7"/>
+    <hyperlink ref="A34" r:id="rId8"/>
+    <hyperlink ref="A35" r:id="rId9"/>
+    <hyperlink ref="A36" r:id="rId10"/>
+    <hyperlink ref="A37" r:id="rId11"/>
+    <hyperlink ref="A38" r:id="rId12"/>
+    <hyperlink ref="A39" r:id="rId13"/>
+    <hyperlink ref="A40" r:id="rId14"/>
+    <hyperlink ref="A41" r:id="rId15"/>
+    <hyperlink ref="A42" r:id="rId16"/>
+    <hyperlink ref="A43" r:id="rId17"/>
+    <hyperlink ref="A44" r:id="rId18"/>
+    <hyperlink ref="A45" r:id="rId19"/>
+    <hyperlink ref="A46" r:id="rId20"/>
+    <hyperlink ref="A47" r:id="rId21"/>
+    <hyperlink ref="A48" r:id="rId22"/>
+    <hyperlink ref="A49" r:id="rId23"/>
+    <hyperlink ref="A50" r:id="rId24"/>
+    <hyperlink ref="A53" r:id="rId25"/>
+    <hyperlink ref="A56" r:id="rId26"/>
+    <hyperlink ref="A59" r:id="rId27"/>
+    <hyperlink ref="A62" r:id="rId28"/>
+    <hyperlink ref="A63" r:id="rId29"/>
+    <hyperlink ref="A64" r:id="rId30"/>
+    <hyperlink ref="A65" r:id="rId31"/>
+    <hyperlink ref="A72" r:id="rId32"/>
+    <hyperlink ref="A73" r:id="rId33"/>
+    <hyperlink ref="A74" r:id="rId34"/>
+    <hyperlink ref="A75" r:id="rId35"/>
+    <hyperlink ref="A76" r:id="rId36"/>
+    <hyperlink ref="A77" r:id="rId37"/>
+    <hyperlink ref="A78" r:id="rId38"/>
+    <hyperlink ref="A79" r:id="rId39"/>
+    <hyperlink ref="A80" r:id="rId40"/>
+    <hyperlink ref="A83" r:id="rId41"/>
+    <hyperlink ref="A84" r:id="rId42"/>
+    <hyperlink ref="A87" r:id="rId43"/>
+    <hyperlink ref="A92" r:id="rId44"/>
+    <hyperlink ref="A93" r:id="rId45"/>
+    <hyperlink ref="A94" r:id="rId46"/>
+    <hyperlink ref="A95" r:id="rId47"/>
+    <hyperlink ref="A96" r:id="rId48"/>
+    <hyperlink ref="A97" r:id="rId49"/>
+    <hyperlink ref="A98" r:id="rId50"/>
+    <hyperlink ref="A99" r:id="rId51"/>
+    <hyperlink ref="A100" r:id="rId52"/>
+    <hyperlink ref="A101" r:id="rId53"/>
+    <hyperlink ref="A102" r:id="rId54"/>
+    <hyperlink ref="A107" r:id="rId55"/>
+    <hyperlink ref="A108" r:id="rId56"/>
+    <hyperlink ref="A113" r:id="rId57"/>
+    <hyperlink ref="A114" r:id="rId58"/>
+    <hyperlink ref="A115" r:id="rId59"/>
+    <hyperlink ref="A116" r:id="rId60"/>
+    <hyperlink ref="A117" r:id="rId61"/>
+    <hyperlink ref="A124" r:id="rId62"/>
+    <hyperlink ref="A125" r:id="rId63"/>
+    <hyperlink ref="A126" r:id="rId64"/>
+    <hyperlink ref="A132" r:id="rId65"/>
+    <hyperlink ref="A136" r:id="rId66"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <drawing r:id="rId68"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -31078,83 +33222,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId78"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:A17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="43" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>42821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="25"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="603">
   <si>
     <t>Project</t>
   </si>
@@ -2167,6 +2167,26 @@
     <t>/therapy-wakiase/</t>
     <phoneticPr fontId="26"/>
   </si>
+  <si>
+    <t>毛穴ボトックス注射</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/therapy-botox-sum/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>/therapy-cd_toretinoin2-sum/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-dark/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>【柴田美容皮膚科クリニック様】 サイドバーリンク</t>
+    <phoneticPr fontId="26"/>
+  </si>
 </sst>
 </file>
 
@@ -2175,7 +2195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2385,8 +2405,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2444,6 +2471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,7 +3011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3476,16 +3509,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8791,13 +8836,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8852,13 +8897,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8913,13 +8958,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8974,13 +9019,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9035,13 +9080,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9096,13 +9141,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9157,13 +9202,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9218,13 +9263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9255,8 +9300,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="23583900"/>
-          <a:ext cx="2418080" cy="342900"/>
+          <a:off x="0" y="26860500"/>
+          <a:ext cx="2194560" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9279,13 +9324,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -26587,8 +26632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28564,8 +28609,8 @@
       <c r="B40" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>287</v>
+      <c r="C40" s="169" t="s">
+        <v>601</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>288</v>
@@ -30819,10 +30864,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -30835,455 +30880,557 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="174" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>42821</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22" t="s">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A8" s="170" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="172"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A15" s="170" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31">
+        <v>2</v>
+      </c>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31">
+        <v>3</v>
+      </c>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A20" s="168" t="s">
-        <v>585</v>
-      </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="26" t="s">
-        <v>515</v>
-      </c>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31">
+        <v>4</v>
+      </c>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="26" t="s">
-        <v>532</v>
-      </c>
+      <c r="A21" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31">
+        <v>5</v>
+      </c>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="A22" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="31">
+        <v>6</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="31">
+        <v>7</v>
+      </c>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="31">
+        <v>8</v>
+      </c>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="31">
+        <v>9</v>
+      </c>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="31">
+        <v>10</v>
+      </c>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A27" s="168" t="s">
-        <v>586</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="26" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>534</v>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="31">
+        <v>11</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="31">
+        <v>12</v>
+      </c>
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="31">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>256</v>
+        <v>538</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="31">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="31">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="30" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="31">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="30" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="31">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="31">
-        <v>6</v>
-      </c>
-      <c r="F34" s="26"/>
+      <c r="A34" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="26" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="31">
-        <v>7</v>
-      </c>
-      <c r="F35" s="26"/>
+      <c r="A35" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="26" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="31">
-        <v>8</v>
+      <c r="A36" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="34">
+        <v>18</v>
       </c>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="31">
-        <v>9</v>
-      </c>
-      <c r="F37" s="26"/>
+      <c r="A37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="26" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="31">
-        <v>10</v>
-      </c>
-      <c r="F38" s="26"/>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="31">
-        <v>11</v>
-      </c>
+      <c r="A38" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="26" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="31">
-        <v>12</v>
-      </c>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="25" t="s">
+        <v>542</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="26"/>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="31">
-        <v>13</v>
-      </c>
-      <c r="F41" s="26"/>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="31">
-        <v>14</v>
-      </c>
+      <c r="A41" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="31">
-        <v>15</v>
-      </c>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="31">
-        <v>16</v>
-      </c>
-      <c r="F44" s="26"/>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="31">
-        <v>17</v>
-      </c>
+      <c r="A44" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="26" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
-        <v>159</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>546</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="26" t="s">
-        <v>539</v>
-      </c>
+      <c r="F46" s="26"/>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>174</v>
+        <v>547</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
-        <v>264</v>
-      </c>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
-      <c r="E48" s="34">
-        <v>18</v>
-      </c>
+      <c r="E48" s="23"/>
       <c r="F48" s="26"/>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
-        <v>184</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>548</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
-      <c r="F49" s="26" t="s">
-        <v>541</v>
-      </c>
+      <c r="F49" s="26"/>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="27" t="s">
+        <v>344</v>
+      </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>542</v>
+      <c r="F51" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
-      <c r="F52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="26" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
@@ -31291,158 +31438,170 @@
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>544</v>
-      </c>
+      <c r="A55" s="23"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="26"/>
     </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="s">
-        <v>545</v>
-      </c>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
-      <c r="F56" s="26" t="s">
-        <v>543</v>
-      </c>
+      <c r="F56" s="26"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="26"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="26"/>
-    </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
-        <v>547</v>
+    <row r="58" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A58" s="170" t="s">
+        <v>586</v>
+      </c>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="25" t="s">
+        <v>553</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
-      <c r="F59" s="26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="26"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="26" t="s">
-        <v>549</v>
-      </c>
+      <c r="A62" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="26" t="s">
-        <v>550</v>
-      </c>
+      <c r="A63" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="26" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F64" s="36"/>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="E65" s="34"/>
       <c r="F65" s="26" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="23"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="33" t="s">
+        <v>264</v>
+      </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="E66" s="34" t="s">
+        <v>554</v>
+      </c>
       <c r="F66" s="26"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="23"/>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="26"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="34" t="s">
+        <v>554</v>
+      </c>
       <c r="F68" s="26"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="23"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="26"/>
     </row>
-    <row r="70" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A70" s="168" t="s">
-        <v>586</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="25" t="s">
+        <v>548</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -31450,438 +31609,425 @@
       <c r="E70" s="23"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="25" t="s">
-        <v>553</v>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
-      <c r="F71" s="26"/>
-    </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F72" s="36"/>
-    </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F73" s="36"/>
-    </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F74" s="36"/>
-    </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F76" s="36"/>
-    </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
-        <v>174</v>
-      </c>
+      <c r="F71" s="26" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="26" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="25"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="23"/>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>264</v>
-      </c>
+      <c r="E77" s="23"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="25"/>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
-      <c r="E78" s="34" t="s">
-        <v>554</v>
-      </c>
+      <c r="E78" s="23"/>
       <c r="F78" s="26"/>
     </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="26" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A79" s="170" t="s">
+        <v>587</v>
+      </c>
+      <c r="B79" s="171"/>
+      <c r="C79" s="171"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="171"/>
+      <c r="F79" s="173" t="s">
+        <v>593</v>
+      </c>
+      <c r="G79" s="168" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="34" t="s">
-        <v>554</v>
+        <v>232</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34">
+        <v>19</v>
       </c>
       <c r="F80" s="26"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34">
+        <v>20</v>
+      </c>
       <c r="F81" s="26"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="26"/>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="167" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="26" t="s">
-        <v>549</v>
+      <c r="F83" s="167" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="27" t="s">
-        <v>344</v>
+      <c r="A84" s="33" t="s">
+        <v>203</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="26" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
+      <c r="E84" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="32" t="s">
+        <v>159</v>
+      </c>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="26"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="25" t="s">
-        <v>555</v>
+      <c r="F85" s="26" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="32" t="s">
+        <v>174</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="26"/>
+      <c r="F86" s="26" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="32" t="s">
-        <v>184</v>
+      <c r="A87" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="26" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="23"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
-      <c r="F88" s="26"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="23"/>
+      <c r="F88" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="27" t="s">
+        <v>559</v>
+      </c>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
-      <c r="F89" s="26"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
+      <c r="F89" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="27" t="s">
+        <v>560</v>
+      </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
-      <c r="F90" s="26"/>
-    </row>
-    <row r="91" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A91" s="168" t="s">
-        <v>587</v>
-      </c>
+      <c r="F90" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
       <c r="B91" s="23"/>
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
-      <c r="F91" s="169" t="s">
-        <v>593</v>
-      </c>
-      <c r="G91" s="170" t="s">
+      <c r="F91" s="26"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="25"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="25"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A95" s="170" t="s">
+        <v>589</v>
+      </c>
+      <c r="B95" s="171"/>
+      <c r="C95" s="171"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="171"/>
+      <c r="F95" s="173" t="s">
+        <v>594</v>
+      </c>
+      <c r="G95" s="168" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34">
-        <v>19</v>
-      </c>
-      <c r="F92" s="26"/>
-    </row>
-    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34">
-        <v>20</v>
-      </c>
-      <c r="F93" s="26"/>
-    </row>
-    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
     <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="33" t="s">
-        <v>203</v>
+      <c r="A96" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="23"/>
+      <c r="F96" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="F96" s="26"/>
-    </row>
-    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="26" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="F97" s="36"/>
+      <c r="G97" s="16"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="23"/>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="27" t="s">
-        <v>135</v>
-      </c>
+      <c r="F98" s="26"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="26" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
-        <v>179</v>
-      </c>
+      <c r="F99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="25"/>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="26" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
-        <v>559</v>
-      </c>
+      <c r="F100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="25"/>
       <c r="B101" s="23"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
-      <c r="F101" s="26" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="26" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="23"/>
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A102" s="170" t="s">
+        <v>590</v>
+      </c>
+      <c r="B102" s="171"/>
+      <c r="C102" s="171"/>
+      <c r="D102" s="171"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="173" t="s">
+        <v>595</v>
+      </c>
+      <c r="G102" s="168" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
-      <c r="F103" s="26"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="23"/>
+      <c r="F103" s="26" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="27" t="s">
+        <v>179</v>
+      </c>
       <c r="B104" s="23"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
-      <c r="F104" s="26"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
+      <c r="F104" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="26"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="25"/>
+      <c r="F105" s="26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="27" t="s">
+        <v>145</v>
+      </c>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="26"/>
-    </row>
-    <row r="107" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A107" s="168" t="s">
-        <v>589</v>
+      <c r="F106" s="26" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="27" t="s">
+        <v>564</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
-      <c r="F107" s="169" t="s">
-        <v>594</v>
-      </c>
-      <c r="G107" s="170" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A108" s="27" t="s">
-        <v>174</v>
-      </c>
+      <c r="F107" s="26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="25"/>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="F109" s="36"/>
-      <c r="G109" s="16"/>
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="25"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="23"/>
@@ -31907,88 +32053,80 @@
       <c r="E112" s="23"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="25"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="26"/>
-    </row>
-    <row r="114" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A114" s="168" t="s">
-        <v>590</v>
+    <row r="113" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A113" s="170" t="s">
+        <v>591</v>
+      </c>
+      <c r="B113" s="171"/>
+      <c r="C113" s="171"/>
+      <c r="D113" s="171"/>
+      <c r="E113" s="171"/>
+      <c r="F113" s="173" t="s">
+        <v>596</v>
+      </c>
+      <c r="G113" s="168" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="27" t="s">
+        <v>566</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="169" t="s">
-        <v>595</v>
-      </c>
-      <c r="G114" s="170" t="s">
-        <v>588</v>
+      <c r="F114" s="26" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="26" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="26" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A117" s="27" t="s">
-        <v>150</v>
-      </c>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="25"/>
       <c r="B117" s="23"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
-      <c r="F117" s="26" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="27" t="s">
-        <v>145</v>
-      </c>
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="25"/>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
-      <c r="F118" s="26" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A119" s="27" t="s">
-        <v>564</v>
-      </c>
+      <c r="F118" s="26"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="25"/>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="26" t="s">
-        <v>565</v>
-      </c>
+      <c r="F119" s="26"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="25"/>
@@ -31998,21 +32136,32 @@
       <c r="E120" s="23"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="26"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="23"/>
+    <row r="121" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A121" s="170" t="s">
+        <v>592</v>
+      </c>
+      <c r="B121" s="171"/>
+      <c r="C121" s="171"/>
+      <c r="D121" s="171"/>
+      <c r="E121" s="171"/>
+      <c r="F121" s="173" t="s">
+        <v>597</v>
+      </c>
+      <c r="G121" s="168" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="27" t="s">
+        <v>567</v>
+      </c>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
-      <c r="F122" s="26"/>
+      <c r="F122" s="26" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
@@ -32030,169 +32179,85 @@
       <c r="E124" s="23"/>
       <c r="F124" s="26"/>
     </row>
-    <row r="125" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A125" s="168" t="s">
-        <v>591</v>
-      </c>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="25"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
-      <c r="F125" s="169" t="s">
-        <v>596</v>
-      </c>
+      <c r="F125" s="26"/>
     </row>
     <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="23"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A127" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="26" t="s">
-        <v>549</v>
-      </c>
+      <c r="A126" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="41" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
     </row>
     <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A128" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="26" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="25"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="26"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="26"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="25"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="26"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="25"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="26"/>
-    </row>
-    <row r="133" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A133" s="168" t="s">
-        <v>592</v>
-      </c>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="169" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="23"/>
-      <c r="F134" s="26" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="23"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="23"/>
-      <c r="F135" s="26"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="23"/>
-      <c r="F136" s="26"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="25"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="26"/>
-    </row>
-    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A138" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="B138" s="40"/>
-      <c r="C138" s="40"/>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="41" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="7"/>
+    </row>
+    <row r="129" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="7"/>
+    </row>
+    <row r="131" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="7"/>
+    </row>
+    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="7"/>
+    </row>
+    <row r="133" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="7"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="20"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
     </row>
-    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A142" s="7"/>
-    </row>
-    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-    </row>
-    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A144" s="7"/>
-    </row>
-    <row r="145" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A145" s="7"/>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="6"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="20"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
@@ -32244,116 +32309,80 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="6"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26"/>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A22" r:id="rId2"/>
-    <hyperlink ref="A29" r:id="rId3"/>
-    <hyperlink ref="A30" r:id="rId4"/>
-    <hyperlink ref="A31" r:id="rId5"/>
-    <hyperlink ref="A32" r:id="rId6"/>
-    <hyperlink ref="A33" r:id="rId7"/>
-    <hyperlink ref="A34" r:id="rId8"/>
-    <hyperlink ref="A35" r:id="rId9"/>
-    <hyperlink ref="A36" r:id="rId10"/>
-    <hyperlink ref="A37" r:id="rId11"/>
-    <hyperlink ref="A38" r:id="rId12"/>
-    <hyperlink ref="A39" r:id="rId13"/>
-    <hyperlink ref="A40" r:id="rId14"/>
-    <hyperlink ref="A41" r:id="rId15"/>
-    <hyperlink ref="A42" r:id="rId16"/>
-    <hyperlink ref="A43" r:id="rId17"/>
-    <hyperlink ref="A44" r:id="rId18"/>
-    <hyperlink ref="A45" r:id="rId19"/>
-    <hyperlink ref="A46" r:id="rId20"/>
-    <hyperlink ref="A47" r:id="rId21"/>
-    <hyperlink ref="A48" r:id="rId22"/>
-    <hyperlink ref="A49" r:id="rId23"/>
-    <hyperlink ref="A50" r:id="rId24"/>
-    <hyperlink ref="A53" r:id="rId25"/>
-    <hyperlink ref="A56" r:id="rId26"/>
-    <hyperlink ref="A59" r:id="rId27"/>
-    <hyperlink ref="A62" r:id="rId28"/>
-    <hyperlink ref="A63" r:id="rId29"/>
-    <hyperlink ref="A64" r:id="rId30"/>
-    <hyperlink ref="A65" r:id="rId31"/>
-    <hyperlink ref="A72" r:id="rId32"/>
-    <hyperlink ref="A73" r:id="rId33"/>
-    <hyperlink ref="A74" r:id="rId34"/>
-    <hyperlink ref="A75" r:id="rId35"/>
-    <hyperlink ref="A76" r:id="rId36"/>
-    <hyperlink ref="A77" r:id="rId37"/>
-    <hyperlink ref="A78" r:id="rId38"/>
-    <hyperlink ref="A79" r:id="rId39"/>
-    <hyperlink ref="A80" r:id="rId40"/>
-    <hyperlink ref="A83" r:id="rId41"/>
-    <hyperlink ref="A84" r:id="rId42"/>
-    <hyperlink ref="A87" r:id="rId43"/>
-    <hyperlink ref="A92" r:id="rId44"/>
-    <hyperlink ref="A93" r:id="rId45"/>
-    <hyperlink ref="A94" r:id="rId46"/>
-    <hyperlink ref="A95" r:id="rId47"/>
-    <hyperlink ref="A96" r:id="rId48"/>
-    <hyperlink ref="A97" r:id="rId49"/>
-    <hyperlink ref="A98" r:id="rId50"/>
-    <hyperlink ref="A99" r:id="rId51"/>
-    <hyperlink ref="A100" r:id="rId52"/>
-    <hyperlink ref="A101" r:id="rId53"/>
-    <hyperlink ref="A102" r:id="rId54"/>
-    <hyperlink ref="A108" r:id="rId55"/>
-    <hyperlink ref="A109" r:id="rId56"/>
-    <hyperlink ref="A115" r:id="rId57"/>
-    <hyperlink ref="A116" r:id="rId58"/>
-    <hyperlink ref="A117" r:id="rId59"/>
-    <hyperlink ref="A118" r:id="rId60"/>
-    <hyperlink ref="A119" r:id="rId61"/>
-    <hyperlink ref="A126" r:id="rId62"/>
-    <hyperlink ref="A127" r:id="rId63"/>
-    <hyperlink ref="A128" r:id="rId64"/>
-    <hyperlink ref="A134" r:id="rId65"/>
-    <hyperlink ref="A138" r:id="rId66"/>
+    <hyperlink ref="A9" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A17" r:id="rId3"/>
+    <hyperlink ref="A18" r:id="rId4"/>
+    <hyperlink ref="A19" r:id="rId5"/>
+    <hyperlink ref="A20" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId7"/>
+    <hyperlink ref="A22" r:id="rId8"/>
+    <hyperlink ref="A23" r:id="rId9"/>
+    <hyperlink ref="A24" r:id="rId10"/>
+    <hyperlink ref="A25" r:id="rId11"/>
+    <hyperlink ref="A26" r:id="rId12"/>
+    <hyperlink ref="A27" r:id="rId13"/>
+    <hyperlink ref="A28" r:id="rId14"/>
+    <hyperlink ref="A29" r:id="rId15"/>
+    <hyperlink ref="A30" r:id="rId16"/>
+    <hyperlink ref="A31" r:id="rId17"/>
+    <hyperlink ref="A32" r:id="rId18"/>
+    <hyperlink ref="A33" r:id="rId19"/>
+    <hyperlink ref="A34" r:id="rId20"/>
+    <hyperlink ref="A35" r:id="rId21"/>
+    <hyperlink ref="A36" r:id="rId22"/>
+    <hyperlink ref="A37" r:id="rId23"/>
+    <hyperlink ref="A38" r:id="rId24"/>
+    <hyperlink ref="A41" r:id="rId25"/>
+    <hyperlink ref="A44" r:id="rId26"/>
+    <hyperlink ref="A47" r:id="rId27"/>
+    <hyperlink ref="A50" r:id="rId28"/>
+    <hyperlink ref="A51" r:id="rId29"/>
+    <hyperlink ref="A52" r:id="rId30"/>
+    <hyperlink ref="A53" r:id="rId31"/>
+    <hyperlink ref="A60" r:id="rId32"/>
+    <hyperlink ref="A61" r:id="rId33"/>
+    <hyperlink ref="A62" r:id="rId34"/>
+    <hyperlink ref="A63" r:id="rId35"/>
+    <hyperlink ref="A64" r:id="rId36"/>
+    <hyperlink ref="A65" r:id="rId37"/>
+    <hyperlink ref="A66" r:id="rId38"/>
+    <hyperlink ref="A67" r:id="rId39"/>
+    <hyperlink ref="A68" r:id="rId40"/>
+    <hyperlink ref="A71" r:id="rId41"/>
+    <hyperlink ref="A72" r:id="rId42"/>
+    <hyperlink ref="A75" r:id="rId43"/>
+    <hyperlink ref="A80" r:id="rId44"/>
+    <hyperlink ref="A81" r:id="rId45"/>
+    <hyperlink ref="A82" r:id="rId46"/>
+    <hyperlink ref="A83" r:id="rId47"/>
+    <hyperlink ref="A84" r:id="rId48"/>
+    <hyperlink ref="A85" r:id="rId49"/>
+    <hyperlink ref="A86" r:id="rId50"/>
+    <hyperlink ref="A87" r:id="rId51"/>
+    <hyperlink ref="A88" r:id="rId52"/>
+    <hyperlink ref="A89" r:id="rId53"/>
+    <hyperlink ref="A90" r:id="rId54"/>
+    <hyperlink ref="A96" r:id="rId55"/>
+    <hyperlink ref="A97" r:id="rId56"/>
+    <hyperlink ref="A103" r:id="rId57"/>
+    <hyperlink ref="A104" r:id="rId58"/>
+    <hyperlink ref="A105" r:id="rId59"/>
+    <hyperlink ref="A106" r:id="rId60"/>
+    <hyperlink ref="A107" r:id="rId61"/>
+    <hyperlink ref="A114" r:id="rId62"/>
+    <hyperlink ref="A115" r:id="rId63"/>
+    <hyperlink ref="A116" r:id="rId64"/>
+    <hyperlink ref="A122" r:id="rId65"/>
+    <hyperlink ref="A126" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId67"/>
+  <drawing r:id="rId68"/>
 </worksheet>
 </file>
 

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">sorce!$A$1:$AQ$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">therapyコンバート方法!$A$1:$AQ$271</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="606">
   <si>
     <t>Project</t>
   </si>
@@ -71,6 +71,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>t</t>
@@ -79,6 +80,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>herapyページコンバート</t>
@@ -167,6 +169,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>画像は必ず、</t>
@@ -177,6 +180,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>WordPress のメディアに登録したものを使う</t>
@@ -185,6 +189,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>。 その際に必ず、「/」から始まる絶対パスを使用する。</t>
@@ -195,6 +200,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>長い文章は、2,3行に1回、句点(。)を区切りに</t>
@@ -205,6 +211,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve"> Pタグ(&lt;p&gt;&lt;/p&gt;)の改行を行う。</t>
@@ -218,6 +225,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>以下のように、2つの画像が矢印をはさんで並ぶ場合</t>
@@ -227,6 +235,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>、サンプルの Row をコピーして、画像を入れ替える。</t>
@@ -294,6 +303,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&lt;tr </t>
@@ -304,6 +314,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>class="tbl-header"</t>
@@ -312,6 +323,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&gt;</t>
@@ -328,6 +340,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&lt;tr </t>
@@ -338,6 +351,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>class="tbl-nav"</t>
@@ -346,6 +360,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&gt;</t>
@@ -371,6 +386,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">&lt;td </t>
@@ -380,6 +396,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>class='item'</t>
@@ -388,6 +405,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&gt;アイリフトボトックス&lt;/td&gt;</t>
@@ -398,6 +416,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">&lt;td </t>
@@ -407,6 +426,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>class='price'</t>
@@ -415,6 +435,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>&gt;</t>
@@ -423,6 +444,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>3,000円&lt;/td&gt;</t>
@@ -436,6 +458,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>文章の</t>
@@ -446,6 +469,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>赤文字</t>
@@ -454,6 +478,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>は 「</t>
@@ -464,6 +489,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>span class='pickup'</t>
@@ -472,6 +498,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>」、</t>
@@ -482,6 +509,7 @@
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>青文字</t>
@@ -490,6 +518,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>は「</t>
@@ -500,6 +529,7 @@
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>span class='note'</t>
@@ -508,6 +538,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>」で囲む</t>
@@ -1346,12 +1377,6 @@
     <t>http://www.slca-kobe.jp/therapy/new-cocktail.html</t>
   </si>
   <si>
-    <t>therapy-new-cocktail</t>
-  </si>
-  <si>
-    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-new-cocktail/</t>
-  </si>
-  <si>
     <t>カクテル注射</t>
   </si>
   <si>
@@ -1389,6 +1414,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>w</t>
@@ -1397,6 +1423,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>akai</t>
@@ -1805,9 +1832,6 @@
   </si>
   <si>
     <t>https://ssm001.kix.ad.jp/ex0040100617/mail_reservation.html</t>
-  </si>
-  <si>
-    <t>mail_reservation</t>
   </si>
   <si>
     <t>https://ivory-elephant-7167119d0371e956.znlc.jp/mail_reservation/</t>
@@ -2187,15 +2211,72 @@
     <t>【柴田美容皮膚科クリニック様】 サイドバーリンク</t>
     <phoneticPr fontId="26"/>
   </si>
+  <si>
+    <t>mail_reservation</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>therapy-new-cocktail</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>https://ivory-elephant-7167119d0371e956.znlc.jp/therapy-new-cocktail/</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>※カクテル注射は全て カクテル注射(/therapy-new-cocktail-sum/) １つにまとめる。</t>
+    <rPh sb="5" eb="7">
+      <t>チュウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>クマ</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>メニュー登録時に1回 ＵＲＬを#で登録して、編集で null にすると、リンク無しで登録可能。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2211,12 +2292,14 @@
       <b/>
       <sz val="20"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2241,6 +2324,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2264,18 +2348,21 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2289,6 +2376,7 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2303,12 +2391,14 @@
       <sz val="11"/>
       <color rgb="FF080000"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2329,11 +2419,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2341,6 +2433,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2361,6 +2454,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2368,6 +2462,7 @@
       <sz val="11"/>
       <color theme="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2408,6 +2503,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3011,7 +3114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3443,10 +3546,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="13" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="13" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3455,7 +3579,7 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="26" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="26" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3509,28 +3633,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="13" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="13" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="13" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="13" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10892,163 +11001,163 @@
     <row r="1" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106"/>
       <c r="B1" s="106"/>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="145" t="s">
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="146" t="s">
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="145" t="s">
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145" t="s">
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153"/>
     </row>
     <row r="2" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="106"/>
       <c r="B2" s="106"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="165" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="165" t="s">
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="147" t="s">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="147" t="s">
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="148" t="s">
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
+      <c r="AO2" s="155"/>
+      <c r="AP2" s="155"/>
+      <c r="AQ2" s="155"/>
     </row>
     <row r="3" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106"/>
       <c r="B3" s="106"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="147" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="147" t="s">
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="147"/>
-      <c r="AN3" s="148" t="s">
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="148"/>
-      <c r="AP3" s="148"/>
-      <c r="AQ3" s="148"/>
+      <c r="AO3" s="155"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
     </row>
     <row r="4" spans="1:44" s="104" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="106"/>
@@ -13840,13 +13949,13 @@
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="S2:Z3"/>
     <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:AE1"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AC2:AE3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
@@ -13883,57 +13992,57 @@
     </row>
     <row r="5" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -13958,165 +14067,165 @@
     <row r="1" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106"/>
       <c r="B1" s="106"/>
-      <c r="C1" s="150" t="s">
+      <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="156" t="s">
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="158"/>
-      <c r="O1" s="145" t="s">
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="146" t="s">
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="145" t="s">
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="145"/>
-      <c r="AI1" s="145"/>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="145" t="s">
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
-      <c r="AQ1" s="145"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153"/>
     </row>
     <row r="2" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="106"/>
       <c r="B2" s="106"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="165" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="165" t="s">
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="147" t="s">
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="156"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="156"/>
+      <c r="AF2" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="147" t="s">
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="148" t="s">
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="148"/>
-      <c r="AQ2" s="148"/>
+      <c r="AO2" s="155"/>
+      <c r="AP2" s="155"/>
+      <c r="AQ2" s="155"/>
     </row>
     <row r="3" spans="1:44" s="103" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106"/>
       <c r="B3" s="106"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="147" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="156"/>
+      <c r="AD3" s="156"/>
+      <c r="AE3" s="156"/>
+      <c r="AF3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="148"/>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="148"/>
-      <c r="AL3" s="147" t="s">
+      <c r="AG3" s="154"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="147"/>
-      <c r="AN3" s="148" t="s">
+      <c r="AM3" s="154"/>
+      <c r="AN3" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="AO3" s="148"/>
-      <c r="AP3" s="148"/>
-      <c r="AQ3" s="148"/>
+      <c r="AO3" s="155"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
     </row>
     <row r="4" spans="1:44" s="104" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="106"/>
@@ -26534,13 +26643,13 @@
     <mergeCell ref="O2:R3"/>
     <mergeCell ref="S2:Z3"/>
     <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:AE1"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AN3:AQ3"/>
     <mergeCell ref="AC2:AE3"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:AE1"/>
     <mergeCell ref="AF1:AK1"/>
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AF2:AG2"/>
@@ -26632,8 +26741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40.799999999999997" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28609,8 +28718,8 @@
       <c r="B40" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="169" t="s">
-        <v>601</v>
+      <c r="C40" s="147" t="s">
+        <v>598</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>288</v>
@@ -29240,14 +29349,14 @@
       <c r="A54" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="175" t="s">
+        <v>601</v>
+      </c>
+      <c r="C54" s="147" t="s">
+        <v>602</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>117</v>
@@ -29274,7 +29383,7 @@
         <v>341</v>
       </c>
       <c r="O54" s="95" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -29453,7 +29562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -29480,7 +29589,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>102</v>
@@ -29489,7 +29598,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
@@ -29515,29 +29624,29 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="G2" s="50" t="s">
         <v>356</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>357</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>358</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="48" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J2" s="58" t="s">
         <v>121</v>
@@ -29548,17 +29657,17 @@
     </row>
     <row r="3" spans="1:13" ht="58.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>360</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>362</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
@@ -29566,7 +29675,7 @@
         <v>121</v>
       </c>
       <c r="I3" s="52" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="60">
@@ -29576,19 +29685,19 @@
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="D4" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>368</v>
-      </c>
       <c r="E4" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>118</v>
@@ -29606,19 +29715,19 @@
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="D5" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>372</v>
-      </c>
       <c r="E5" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>118</v>
@@ -29638,22 +29747,22 @@
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="D6" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>376</v>
-      </c>
       <c r="E6" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G6" s="52"/>
       <c r="H6" s="52" t="s">
@@ -29670,22 +29779,22 @@
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>379</v>
-      </c>
       <c r="D7" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="52" t="s">
@@ -29702,25 +29811,25 @@
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="D8" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>382</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>383</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>384</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>121</v>
@@ -29734,29 +29843,29 @@
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="51" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="D9" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>388</v>
-      </c>
       <c r="E9" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52" t="s">
         <v>121</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="60">
@@ -29766,29 +29875,29 @@
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>390</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="D10" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>393</v>
-      </c>
       <c r="E10" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52" t="s">
         <v>121</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="60">
@@ -29798,29 +29907,29 @@
     </row>
     <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="D11" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>397</v>
-      </c>
       <c r="E11" s="55" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="61">
@@ -29830,29 +29939,29 @@
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="D12" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>402</v>
-      </c>
       <c r="E12" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F12" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52" t="s">
         <v>121</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="60">
@@ -29862,29 +29971,29 @@
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="D13" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>406</v>
-      </c>
       <c r="E13" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52" t="s">
         <v>121</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="60">
@@ -29894,25 +30003,25 @@
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="D14" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="E14" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>409</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>411</v>
       </c>
       <c r="H14" s="52" t="s">
         <v>121</v>
@@ -29928,25 +30037,25 @@
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="D15" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="E15" s="52" t="s">
+        <v>354</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>414</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>416</v>
       </c>
       <c r="H15" s="52" t="s">
         <v>121</v>
@@ -29962,25 +30071,25 @@
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="D16" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="C16" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>420</v>
-      </c>
       <c r="E16" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H16" s="52" t="s">
         <v>121</v>
@@ -29996,25 +30105,25 @@
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="D17" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>424</v>
-      </c>
       <c r="E17" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G17" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H17" s="52" t="s">
         <v>121</v>
@@ -30030,25 +30139,25 @@
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="D18" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>428</v>
-      </c>
       <c r="E18" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G18" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H18" s="52" t="s">
         <v>121</v>
@@ -30064,25 +30173,25 @@
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="D19" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="51" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>432</v>
-      </c>
       <c r="E19" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>121</v>
@@ -30098,25 +30207,25 @@
     </row>
     <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>433</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="D20" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>435</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>436</v>
-      </c>
       <c r="E20" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G20" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H20" s="52" t="s">
         <v>121</v>
@@ -30125,7 +30234,7 @@
         <v>121</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K20" s="60">
         <v>42835</v>
@@ -30134,25 +30243,25 @@
     </row>
     <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A21" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>438</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="D21" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>441</v>
-      </c>
       <c r="E21" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>121</v>
@@ -30161,7 +30270,7 @@
         <v>121</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K21" s="60">
         <v>42835</v>
@@ -30170,25 +30279,25 @@
     </row>
     <row r="22" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A22" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="D22" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>444</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>445</v>
-      </c>
       <c r="E22" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>121</v>
@@ -30197,7 +30306,7 @@
         <v>121</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K22" s="60">
         <v>42835</v>
@@ -30206,25 +30315,25 @@
     </row>
     <row r="23" spans="1:12" ht="54" x14ac:dyDescent="0.2">
       <c r="A23" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="D23" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>449</v>
-      </c>
       <c r="E23" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H23" s="52" t="s">
         <v>121</v>
@@ -30233,7 +30342,7 @@
         <v>121</v>
       </c>
       <c r="J23" s="52" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K23" s="60">
         <v>42835</v>
@@ -30242,25 +30351,25 @@
     </row>
     <row r="24" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A24" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="D24" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>453</v>
-      </c>
       <c r="E24" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F24" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G24" s="52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H24" s="52" t="s">
         <v>121</v>
@@ -30269,7 +30378,7 @@
         <v>121</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K24" s="60">
         <v>42835</v>
@@ -30278,25 +30387,25 @@
     </row>
     <row r="25" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A25" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="D25" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="C25" s="51" t="s">
-        <v>457</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>458</v>
-      </c>
       <c r="E25" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H25" s="52" t="s">
         <v>121</v>
@@ -30305,7 +30414,7 @@
         <v>121</v>
       </c>
       <c r="J25" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K25" s="60">
         <v>42835</v>
@@ -30314,22 +30423,22 @@
     </row>
     <row r="26" spans="1:12" ht="108" x14ac:dyDescent="0.2">
       <c r="A26" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="D26" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>461</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>462</v>
-      </c>
       <c r="E26" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52" t="s">
@@ -30339,7 +30448,7 @@
         <v>121</v>
       </c>
       <c r="J26" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K26" s="60">
         <v>42835</v>
@@ -30348,22 +30457,22 @@
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>464</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="D27" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>466</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>467</v>
-      </c>
       <c r="E27" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G27" s="52"/>
       <c r="H27" s="52" t="s">
@@ -30380,32 +30489,32 @@
     </row>
     <row r="28" spans="1:12" ht="125.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="D28" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>470</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>471</v>
-      </c>
       <c r="E28" s="52" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F28" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52" t="s">
         <v>121</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J28" s="52" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K28" s="60">
         <v>42835</v>
@@ -30487,7 +30596,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -30506,7 +30615,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>102</v>
@@ -30515,16 +30624,16 @@
         <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
         <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J1" s="47" t="s">
         <v>8</v>
@@ -30532,107 +30641,107 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="E2" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>479</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>481</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I2" s="46"/>
       <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>486</v>
-      </c>
       <c r="E3" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="D4" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>490</v>
-      </c>
       <c r="E4" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>494</v>
-      </c>
       <c r="E5" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J5" s="46"/>
     </row>
@@ -30650,7 +30759,7 @@
     <hyperlink ref="B5" r:id="rId4" tooltip="https://ssm001.kix.ad.jp/ex0040100617/mail_reservation.html_x000d__x000a_クリックするとこのファイルを開くことができます。"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -30669,118 +30778,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B20" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -30788,7 +30897,7 @@
         <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -30796,64 +30905,64 @@
         <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B30" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -30866,8 +30975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -30880,30 +30989,35 @@
     <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="152" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>42821</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="22" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -30911,7 +31025,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -30919,19 +31033,19 @@
       <c r="E7" s="23"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="170" t="s">
-        <v>585</v>
-      </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A8" s="148" t="s">
+        <v>582</v>
+      </c>
+      <c r="B8" s="150"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>189</v>
       </c>
@@ -30940,10 +31054,10 @@
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="26" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>131</v>
       </c>
@@ -30952,10 +31066,10 @@
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="26" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -30963,7 +31077,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -30971,7 +31085,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -30979,7 +31093,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -30987,27 +31101,30 @@
       <c r="E14" s="23"/>
       <c r="F14" s="26"/>
     </row>
-    <row r="15" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A15" s="170" t="s">
-        <v>586</v>
-      </c>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A15" s="148" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="26"/>
+      <c r="G16" s="176" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
@@ -31095,7 +31212,7 @@
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -31107,7 +31224,7 @@
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -31131,7 +31248,7 @@
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -31167,7 +31284,7 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -31222,7 +31339,7 @@
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="26" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31234,7 +31351,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31258,7 +31375,7 @@
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="26" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31270,7 +31387,7 @@
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="26" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -31283,7 +31400,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -31300,7 +31417,7 @@
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -31313,7 +31430,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -31323,14 +31440,14 @@
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -31343,7 +31460,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -31353,14 +31470,14 @@
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -31373,7 +31490,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -31390,7 +31507,7 @@
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31402,7 +31519,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="26" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31414,7 +31531,7 @@
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="26" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -31426,7 +31543,7 @@
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="26" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -31462,20 +31579,20 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A58" s="170" t="s">
-        <v>586</v>
-      </c>
-      <c r="B58" s="171"/>
-      <c r="C58" s="171"/>
-      <c r="D58" s="171"/>
-      <c r="E58" s="171"/>
-      <c r="F58" s="171" t="s">
-        <v>517</v>
+      <c r="A58" s="148" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -31491,7 +31608,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F60" s="36"/>
     </row>
@@ -31503,7 +31620,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F61" s="36"/>
     </row>
@@ -31515,7 +31632,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F62" s="36"/>
     </row>
@@ -31527,7 +31644,7 @@
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F63" s="36"/>
     </row>
@@ -31539,7 +31656,7 @@
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F64" s="36"/>
     </row>
@@ -31552,7 +31669,7 @@
       <c r="D65" s="23"/>
       <c r="E65" s="34"/>
       <c r="F65" s="26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31563,7 +31680,7 @@
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
       <c r="E66" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F66" s="26"/>
     </row>
@@ -31576,7 +31693,7 @@
       <c r="D67" s="23"/>
       <c r="E67" s="34"/>
       <c r="F67" s="26" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31587,7 +31704,7 @@
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F68" s="26"/>
     </row>
@@ -31601,7 +31718,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -31618,7 +31735,7 @@
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31630,7 +31747,7 @@
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="26" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -31643,7 +31760,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -31660,7 +31777,7 @@
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="F75" s="26" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -31688,18 +31805,18 @@
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A79" s="170" t="s">
-        <v>587</v>
-      </c>
-      <c r="B79" s="171"/>
-      <c r="C79" s="171"/>
-      <c r="D79" s="171"/>
-      <c r="E79" s="171"/>
-      <c r="F79" s="173" t="s">
-        <v>593</v>
-      </c>
-      <c r="G79" s="168" t="s">
-        <v>588</v>
+      <c r="A79" s="148" t="s">
+        <v>584</v>
+      </c>
+      <c r="B79" s="149"/>
+      <c r="C79" s="149"/>
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="151" t="s">
+        <v>590</v>
+      </c>
+      <c r="G79" s="146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31728,14 +31845,14 @@
     </row>
     <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
-      <c r="F82" s="167" t="s">
-        <v>599</v>
+      <c r="F82" s="145" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31746,8 +31863,8 @@
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="167" t="s">
-        <v>600</v>
+      <c r="F83" s="145" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31758,7 +31875,7 @@
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F84" s="26"/>
     </row>
@@ -31771,7 +31888,7 @@
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
       <c r="F85" s="26" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31783,7 +31900,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31795,7 +31912,7 @@
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31807,31 +31924,31 @@
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="26" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
       <c r="F89" s="26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="26" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -31867,18 +31984,18 @@
       <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A95" s="170" t="s">
-        <v>589</v>
-      </c>
-      <c r="B95" s="171"/>
-      <c r="C95" s="171"/>
-      <c r="D95" s="171"/>
-      <c r="E95" s="171"/>
-      <c r="F95" s="173" t="s">
-        <v>594</v>
-      </c>
-      <c r="G95" s="168" t="s">
-        <v>588</v>
+      <c r="A95" s="148" t="s">
+        <v>586</v>
+      </c>
+      <c r="B95" s="149"/>
+      <c r="C95" s="149"/>
+      <c r="D95" s="149"/>
+      <c r="E95" s="149"/>
+      <c r="F95" s="151" t="s">
+        <v>591</v>
+      </c>
+      <c r="G95" s="146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31890,7 +32007,7 @@
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31901,7 +32018,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="34" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="16"/>
@@ -31939,18 +32056,18 @@
       <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A102" s="170" t="s">
-        <v>590</v>
-      </c>
-      <c r="B102" s="171"/>
-      <c r="C102" s="171"/>
-      <c r="D102" s="171"/>
-      <c r="E102" s="171"/>
-      <c r="F102" s="173" t="s">
-        <v>595</v>
-      </c>
-      <c r="G102" s="168" t="s">
-        <v>588</v>
+      <c r="A102" s="148" t="s">
+        <v>587</v>
+      </c>
+      <c r="B102" s="149"/>
+      <c r="C102" s="149"/>
+      <c r="D102" s="149"/>
+      <c r="E102" s="149"/>
+      <c r="F102" s="151" t="s">
+        <v>592</v>
+      </c>
+      <c r="G102" s="146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31962,7 +32079,7 @@
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="F103" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31974,7 +32091,7 @@
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
       <c r="F104" s="26" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31986,7 +32103,7 @@
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
       <c r="F105" s="26" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -31998,19 +32115,19 @@
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
       <c r="F106" s="26" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
       <c r="F107" s="26" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -32054,30 +32171,30 @@
       <c r="F112" s="26"/>
     </row>
     <row r="113" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A113" s="170" t="s">
-        <v>591</v>
-      </c>
-      <c r="B113" s="171"/>
-      <c r="C113" s="171"/>
-      <c r="D113" s="171"/>
-      <c r="E113" s="171"/>
-      <c r="F113" s="173" t="s">
-        <v>596</v>
-      </c>
-      <c r="G113" s="168" t="s">
+      <c r="A113" s="148" t="s">
         <v>588</v>
+      </c>
+      <c r="B113" s="149"/>
+      <c r="C113" s="149"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="149"/>
+      <c r="F113" s="151" t="s">
+        <v>593</v>
+      </c>
+      <c r="G113" s="146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
       <c r="F114" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -32089,7 +32206,7 @@
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
       <c r="F115" s="26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -32101,7 +32218,7 @@
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
       <c r="F116" s="26" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -32137,30 +32254,30 @@
       <c r="F120" s="26"/>
     </row>
     <row r="121" spans="1:7" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A121" s="170" t="s">
-        <v>592</v>
-      </c>
-      <c r="B121" s="171"/>
-      <c r="C121" s="171"/>
-      <c r="D121" s="171"/>
-      <c r="E121" s="171"/>
-      <c r="F121" s="173" t="s">
-        <v>597</v>
-      </c>
-      <c r="G121" s="168" t="s">
-        <v>588</v>
+      <c r="A121" s="148" t="s">
+        <v>589</v>
+      </c>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="151" t="s">
+        <v>594</v>
+      </c>
+      <c r="G121" s="146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -32189,14 +32306,14 @@
     </row>
     <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B126" s="40"/>
       <c r="C126" s="40"/>
       <c r="D126" s="40"/>
       <c r="E126" s="40"/>
       <c r="F126" s="41" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -32406,7 +32523,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -32443,12 +32560,12 @@
     </row>
     <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -32472,7 +32589,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -32587,7 +32704,7 @@
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -32602,7 +32719,7 @@
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -32612,7 +32729,7 @@
       </c>
       <c r="F37" s="9"/>
       <c r="H37" s="12" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -32632,7 +32749,7 @@
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -32677,7 +32794,7 @@
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -32771,7 +32888,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -32784,12 +32901,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -32797,12 +32914,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
@@ -32810,7 +32927,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -32838,7 +32955,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -32849,7 +32966,7 @@
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F72" s="16"/>
     </row>
@@ -32861,7 +32978,7 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F73" s="16"/>
     </row>
@@ -32873,7 +32990,7 @@
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F74" s="16"/>
     </row>
@@ -32885,7 +33002,7 @@
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F75" s="16"/>
     </row>
@@ -32897,7 +33014,7 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F76" s="16"/>
     </row>
@@ -32912,7 +33029,7 @@
         <v>264</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -32926,7 +33043,7 @@
         <v>272</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -32934,7 +33051,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -32952,7 +33069,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -32996,7 +33113,7 @@
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -33014,7 +33131,7 @@
         <v>203</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -33039,12 +33156,12 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -33066,7 +33183,7 @@
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
@@ -33099,7 +33216,7 @@
     </row>
     <row r="117" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
@@ -33116,7 +33233,7 @@
     </row>
     <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -33146,7 +33263,7 @@
     </row>
     <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
@@ -33157,7 +33274,7 @@
     </row>
     <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -33165,17 +33282,17 @@
     </row>
     <row r="138" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="18" x14ac:dyDescent="0.2">
@@ -33185,17 +33302,17 @@
     </row>
     <row r="142" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">

--- a/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
+++ b/01-document/【柴田美容皮膚科クリニック】固定ページコンバート手順-github.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8556" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sorce" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="612">
   <si>
     <t>Project</t>
   </si>
@@ -2266,6 +2266,30 @@
     <rPh sb="44" eb="46">
       <t>カノウ</t>
     </rPh>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>＜皮膚のコラーゲンを増やす治療＞</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>＜眉と瞼のリフトアップ＞</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>&lt;フェイスラインのリフトアップ&gt;</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>＜脂肪によるたるみの改善＞</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>＜血行不良とへこみの改善＞</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>＜色素沈着の改善＞</t>
     <phoneticPr fontId="26"/>
   </si>
 </sst>
@@ -30975,8 +30999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -31115,7 +31139,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -31430,7 +31454,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -31460,7 +31484,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -31490,7 +31514,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -31592,7 +31616,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -31718,7 +31742,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -31760,7 +31784,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
